--- a/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
+++ b/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="365">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -790,23 +790,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-11-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-1-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-8-31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1244,14 +1228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-11-09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1505,6 +1481,26 @@
   </si>
   <si>
     <t>生产加工家用小电器及其配套电子元器件、陶瓷制品及塑料制品、妇幼用品、日用百货;医疗器械生产;医疗器械经营;医疗耗材的经营销售。(以上经营范围涉及许可证的,凭许可证经营;涉及行业许可管理的,按国家规定办理)(依法须经批准的项目,经相关部门批准后方可开展经营活动)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-8-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1915,8 +1911,8 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1946,13 +1942,13 @@
         <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -1961,7 +1957,7 @@
         <v>109</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>63</v>
@@ -1996,10 +1992,10 @@
         <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>80</v>
@@ -2022,7 +2018,7 @@
         <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>106</v>
@@ -2037,13 +2033,13 @@
         <v>112</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>110</v>
@@ -2060,7 +2056,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>116</v>
@@ -2078,13 +2074,13 @@
         <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>118</v>
@@ -2119,10 +2115,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>21</v>
@@ -2160,10 +2156,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>21</v>
@@ -2201,10 +2197,10 @@
         <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>21</v>
@@ -2239,10 +2235,10 @@
         <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>22</v>
@@ -2277,13 +2273,13 @@
         <v>123</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>150</v>
@@ -2297,7 +2293,7 @@
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>168</v>
@@ -2312,16 +2308,16 @@
         <v>166</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>18</v>
@@ -2350,13 +2346,13 @@
         <v>12</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>174</v>
@@ -2385,13 +2381,13 @@
         <v>179</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>181</v>
@@ -2408,25 +2404,25 @@
         <v>182</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>186</v>
+        <v>364</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>184</v>
@@ -2437,37 +2433,37 @@
     </row>
     <row r="14" spans="1:13" ht="94.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>189</v>
+        <v>360</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>188</v>
+        <v>361</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>38</v>
@@ -2475,34 +2471,34 @@
     </row>
     <row r="15" spans="1:13" ht="56.25" customHeight="1">
       <c r="A15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>60</v>
@@ -2510,28 +2506,28 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>37</v>
@@ -2539,37 +2535,37 @@
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>39</v>
@@ -2577,37 +2573,37 @@
     </row>
     <row r="18" spans="1:13" ht="150.75" customHeight="1">
       <c r="A18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>39</v>
@@ -2615,37 +2611,37 @@
     </row>
     <row r="19" spans="1:13" ht="58.5" customHeight="1">
       <c r="A19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>58</v>
@@ -2653,37 +2649,37 @@
     </row>
     <row r="20" spans="1:13" ht="175.5">
       <c r="A20" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>58</v>
@@ -2691,37 +2687,37 @@
     </row>
     <row r="21" spans="1:13" ht="127.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>58</v>
@@ -2729,37 +2725,37 @@
     </row>
     <row r="22" spans="1:13" ht="93.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>58</v>
@@ -2767,37 +2763,37 @@
     </row>
     <row r="23" spans="1:13" ht="90" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>58</v>
@@ -2805,37 +2801,37 @@
     </row>
     <row r="24" spans="1:13" ht="87.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>58</v>
@@ -2843,37 +2839,37 @@
     </row>
     <row r="25" spans="1:13" ht="58.5" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>58</v>
@@ -2881,37 +2877,37 @@
     </row>
     <row r="26" spans="1:13" ht="60.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>58</v>
@@ -2919,37 +2915,37 @@
     </row>
     <row r="27" spans="1:13" ht="132" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>58</v>
@@ -3242,37 +3238,37 @@
     </row>
     <row r="11" spans="1:14" ht="94.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="K11" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>58</v>
@@ -3281,7 +3277,7 @@
     </row>
     <row r="12" spans="1:14" ht="90" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>47</v>
@@ -3299,13 +3295,13 @@
         <v>688388</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>49</v>
@@ -3317,7 +3313,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>50</v>
@@ -3332,7 +3328,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>51</v>
@@ -3341,10 +3337,10 @@
         <v>56</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>58</v>
@@ -3353,7 +3349,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>52</v>
@@ -3368,7 +3364,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>55</v>

--- a/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
+++ b/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="621">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1501,6 +1501,1096 @@
   </si>
   <si>
     <t>21.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分众传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-2-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化传媒 标准普尔 富时罗素 电子竞技 养老金 深证100R MSCI中国 深股通 阿里概念 手游概念 大数据 融资融券 深成500 基金重仓 HS300_ 广东板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息技术咨询服务;软件开发;计算机网络系统工程服务;网络技术的研究、开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活圈媒体的开发和运营 公司当前的主营业务为生活圈媒体的开发和运营,主要产品为楼宇媒体(包含电梯电视媒体和电梯海报媒体)、影院银幕广告媒体和终端卖场媒体等,覆盖城市主流消费人群的工作场景、生活场景、娱乐场景和消费场景,并相互整合成为生活圈媒体网络。截至2018年末,公司已形成了覆盖全国约300多个城市的生活圈媒体网络,并已在韩国和印度尼西亚设立控股子公司,在新加坡设立联营公司拓展海外媒体资源。电梯电视媒体中自营设备约72.4万台(包括海外子公司的媒体设备2.3万台),覆盖全国约150个城市以及韩国、新加坡、印度尼西亚的17个主要城市,加盟电梯电视媒体设备约2.5万台,覆盖全国74个城市和地区;电梯海报媒体中自营媒体约193.8万个,覆盖全国约220个城市,外购合作电梯海报媒体约8.5万版位,覆盖全国约165个城市;公司影院媒体的签约影院超过1900个,合作院线37家,银幕超过12,700块,覆盖全国约308个各级城市的观影人群。
+要点四:开创了“楼宇电梯”这个核心场景,在主流城市主流人群必经的楼宇电梯空间中每天形成高频次的有效到达 楼宇电梯是城市的基础设施,楼宇电梯这个最日常的生活场景代表着四个词:主流人群、必经、高频、低干扰,而这四个词正是今天引爆品牌的核心资源,由此分众传媒打造了众多的品牌引爆的经典案例,被评为“中国广告最具品牌引爆力媒体”。分众提供的被动化媒体的重要意义在于抓住用户被动的必经的生活空间,把品牌渗透到城市主流人群必经的生活场景中,从而实现对用户的强制到达。公司已经成为线下流量核心入口,在媒体碎片化的时代将越来越成为品牌引爆的核心方式,能够实现对都市主流人群的集中影响。
+要点五:媒体资源规模大、覆盖面广、渗透率高 截至2018年末,公司已形成了覆盖全国约300多个城市的生活圈媒体网络,并已在韩国和印度尼西亚设立控股子公司,新加坡联营公司以拓展海外媒体资源。其中,电梯电视媒体中自营设备约72.4万台(包括海外子公司的媒体设备2.3万台),覆盖全国约150个城市以及韩国、新加坡、印度尼西亚的17个主要城市,加盟电梯电视媒体设备约2.5万台,覆盖全国74个城市和地区;电梯海报媒体中自营媒体约193.8万个,覆盖全国约220个城市,外购合作电梯海报媒体约8.5万版位,覆盖全国约165个城市;公司影院媒体的签约影院超过1900个,合作院线37家,银幕超过12,700块,覆盖全国约308个各级城市的观影人群。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前就是因为分众传媒 买的陈梦佳会员，据说原始逻辑不错，有机会低吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈药股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-9-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600664</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药制造 流感 标准普尔 超级真菌 东北振兴 养老概念 融资融券 预盈预增 黑龙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品生产,药品经营;食品生产,食品经营;生产、销售制药机械、日用化学品、劳保用品、饲料添加剂、消毒产品、生物有机质、有机化学原料(不含危险化学品);生产、销售医疗器械;纸制品制造,卫生用品销售;销售化工产品(不含危险品);兽药生产;包装、印刷品印刷;按直销经营许可证从事直销;货物或技术进出口(国家禁止或涉及行政审批的货物和技术进出口除外);从事医药以及医药机械方面的技术开发,技术转让,技术咨询,技术服务;普通货物运输;旅游业务经营;企业投资管理、咨询与调查;粮食收购;房屋、场地租赁;弱电工程设计及施工;信息系统集成服务;软件和信息系统运行维护服务;专用设备修理;检验检测服务。(依法须经批准的项目,经相关部门批准后方可开展经营活动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药研发与制造 公司专注于医药健康产业,主要从事医药研发与制造、批发与零售业务,是集医药研发、制造、销售于一体的国内大型高新技术医药企业。2015年,公司通过资产置换对下属资产及业务板块进行了整合,打造了旗下医药商业上市平台(人民同泰,600829.SH),实现了医药工业和医药商业独立经营、协同发展的业务布局。公司医药研发与制造业务涵盖化学原料药、化学制剂、生物制剂、中药、保健品等产业领域,产品聚焦抗感染、心脑血管、感冒药、消化系统、抗肿瘤药以及营养补充剂等治疗领域,涉及20多种剂型、700多个品规,主要产品包括阿莫西林胶囊、小儿氨酚黄那敏颗粒、注射用盐酸头孢替安、注射用丹参、前列地尔注射液、葡萄糖酸钙口服溶液、葡萄糖酸锌口服溶液等,主要产品市场占有率在各自细分领域均处于领先地位。
+要点四:医药制造 医药行业关系国计民生,药品消费支出与国民经济发展水平、居民生活质量存在较强的相关性,行业周期性特征不突出。随着我国人口老龄化问题加剧、居民人均收入水平的提高及医疗保健意识的增强,以及国家医疗卫生体系建设的不断完善,医药行业仍将保持良好的发展态势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁盛兵买的股，帮忙监控一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三峡新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600293</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-8-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合行业 湖北自贸 华为概念 融资融券 机构重仓 参股银行 稀缺资源 湖北板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信产品、数码产品及配件的购销和维护、维修;通信设备、电子产品、通信产品、计算机、办公自动化设备、软硬件的技术开发(不含限制项目)及销售;网上从事电子产品的销售;平板玻璃及玻璃深加工制品、石膏及制品等新型建材的生产与销售;建材及非金属矿产品的销售;新型建材的科研与开发;经营本企业自产产品及相关技术的出口业务;经营本企业生产、科研所需的原辅材料、机械设备、仪器仪表、零配件及相关技术的进口业务;开展本企业的进料加工和“三来一补”业务。公司根据自身发展的能力和业务需要,经有关审批机关批准,可适当调整投资方向及经营范围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板玻璃及玻璃深加工业务、移动互联网终端业务 公司主营业务为平板玻璃及玻璃深加工和移动互联网终端产品销售及服务行业。(1)平板玻璃及玻璃深加工业务:平板玻璃及玻璃深加工制品、石膏及制品等新型建材的生产与销售;建材及非金属矿产品的销售;新型建材的科研与开发;经营本企业自产产品及相关技术的出口业务;经营本企业生产、科研所需的原辅材料、机械设备、仪器仪表、零配件及相关技术的进口业务;开展本企业的进料加工和“三来一补”业务;(2)移动互联网终端业务:通信产品、数码产品及配件的购销和维护、维修;通信设备、电子产品、通信产品、计算机、办公自动化设备、软硬件的技术开发(不含限制项目)及销售;网上从事电子产品的销售。
+要点四:移动互联网终端行业 目前,国家已明确将互联网发展列为国民经济支柱性产业,“十三五”规划提出发展现代互联网产业体系,实施“互联网+”行动计划,促进互联网深度广泛应用,带动生产模式和组织方式变革,形成网络化、智能化、协同化的产业发展新形态。这一发展规划也将给移动互联网终端行业带来良好机遇。
+要点五:资源优势 当阳市拥有丰富的玻璃用硅砂资源。公司投资建设的当玻硅矿位于湖北省 当阳市玉泉办事处岩屋庙矿区,距离公司 16 公里,当玻硅矿集硅砂洗选、加工、销售及硅酸盐制 品生产、销售为一体,年产优质硅砂可达 50 万砘,硅砂自给率达 50%以上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天创时尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织服装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2M概念 纺织服装 抖音小店 字节概念 新零售 网红直播 电商概念 转债标的 广东板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮革、毛皮、羽毛及其制品和制鞋业;软件开发;信息系统集成服务;信息技术咨询服务;供应链管理;创业投资;风险投资;股权投资;资产管理。(具体经营项目请登录广州市商事主体信息公示平台查询。涉及国家规定实施准入特别管理措施的外商投资企业,经营范围以审批机关核定的为准;不涉及国家规定实施准入特别管理措施的外商投资企业,经营范围以商务主管部门备案的为准;依法需经批准的项目,依法须经批准的项目,经相关部门批准后方可开展经营活动。)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时尚女鞋、包袋及配饰的研发、生产、分销及零售业务 公司是时尚女鞋行业领先的多品牌运营商之一,主要从事时尚女鞋、包袋及配饰的研发、生产、分销及零售业务,致力于为女性消费者提供时尚、舒适的鞋履及配套产品和服务。公司自主创立并“KISSCAT”、“ZSAZSAZSU”、“tigrisso”以及“KissKitty”四个自有品牌,并代理西班牙著名品牌“Patricia”,通过构建不同消费定位、不同风格的多品牌组合,满足不同生活阅历和价值追求的女性消费者的差异化需求。
+要点四:鞋履行业 长期来看,女性消费特点、消费升级需求等将持续推动品牌女鞋市场的增长。女性消费者具有高频次消费、追求时尚变化、强调品质、注重场合等的消费特点,女鞋的功能也由当初单一的保护性发展到自我个性的表达,促使消费出现时尚化、健康化、场景化等升级需求,其次,庞大的女性人口基数也是女鞋行业持续稳定发展的消费基础,随着女性人均鞋履拥有量逐步上升,女性鞋履消费潜力较大,需求总量趋增。
+要点五:满足女性差异化消费需求的多品牌组合 在“最具时尚与健康消费创新价值的多品牌运营商”的公司战略定位和发展目标下,公司不断审视多品牌战略,将前瞻性的市场细分与品牌特性相结合,为不同生活阅历和价值取向的中国女性,持续推出了体现女性不同妆扮价值和体验价值的互补性品牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-10-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊利股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅指数 乳业 标准普尔 富时罗素 MSCI中国 婴童概念 上证180_ 上证50_ 融资融券 基金重仓 超级品牌 沪股通 证金持股 内蒙古 食品饮料 央视50_ HS300_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳制品(含婴幼儿配方乳粉)制造;特殊医学用途配方食品的生产、销售(取得许可证后方可经营);食品、饮料加工;牲畜,家禽饲养;汽车货物运输;饮食服务(仅限集体食堂);本企业产的乳制品、食品,饮料;乳制品及乳品原料;预包装食品的销售。农畜产品及饲料加工,经销食品、饮料加工设备、生产销售包装材料及包装用品、五金工具、化工产品(专营除外)、农副产品,日用百货,畜禽产品,饲料;进口:本企业生产、科研所需的原辅材料,机械设备,仪器仪表及零配件;经营本企业自产产品及相关技术的出口业务;机器设备修理劳务(除专营)和设备备件销售(除专营)业务;玩具的生产与销售;复配食品添加剂的制造和销售(取得许可证后方可经营)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳制品 公司主要从事各类乳制品及健康饮品的加工、制造与销售活动,旗下拥有液体乳、乳饮料、奶粉、冷冻饮品、酸奶、健康饮品、奶酪几大产品系列。报告期,公司产品主要以国内市场销售为主,部分产品出口。
+要点四:乳制品产业 经过近二十年的发展,国内乳业由快速成长期进入稳步发展阶段。当前,随着城乡居民人均收入水平的持续提高,消费者对乳品的需求动机和购买方式日趋差异化、多元化,带动国内乳品市场稳步发展。乳制品及健康饮品属于大众日常消费品,行业周期性特征不明显。
+要点五:全球化乳业资源保障能力 多年来,公司始终坚持“汇聚全球能量、坚持不断创新,用全球优质资源更好地服务消费者”的发展理念,立足国内乳业市场,充分利用全球资源推动全产业链创新,积极打造并夯实全球乳业资源保障能力。报告期,公司与全球多个国家和地区的,覆盖原辅材料、产品包装、智能设备等多个行业的百余家供应商保持合作关系,共同携手提升产品品质。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾经我买在了最高点，然后赔了，现在
+袁盛兵买的股，帮忙监控一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-6-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest2今年出货量800万，扎克伯格预计元宇宙用户以十亿记，那vr增量至少还有100倍空间
+歌尔生产世界上70%的vr部件，vr界的宁德时代 台积电，十倍妥妥的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车整车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>333.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车整车 宁组合 茅指数 储能 盐湖提锂 固态电池 刀片电池 半导体概念 口罩 标准普尔 分拆预期 富时罗素 华为概念 深证100R MSCI中国 超级品牌 深股通 无线充电 车联网 新能源车 国产芯片 无人驾驶 证金持股 2025规划 充电桩 苹果概念 融资融券 太阳能 锂电池 深成500 深圳特区 HS300_ AH股 新能源 广东板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂离子电池以及其他电池、充电器、电子产品、仪器仪表、柔性线路板、五金制品、液晶显示器、手机零配件、模具、塑胶制品及其相关附件的生产、销售;3D眼镜、GPS导航产品的研发、生产及销售;货物及技术进出口(不含分销、国家专营专控商品);作为比亚迪汽车有限公司比亚迪品牌乘用车、电动车的总经销商,从事上述品牌的乘用车、电动车及其零部件的营销、批发和出口,提供售后服务;电池管理系统、换流柜、逆变柜/器、汇流箱、开关柜、储能机组的销售;汽车电子装置研发、销售;新能源汽车关键零部件研发以及上述零部件的关键零件、部件的研发、销售;轨道交通运输设备(含轨道交通车辆、工程机械、各类机电设备、电子设备及零部件、电子电气件、轨道交通信号系统、通信及综合监控系统与设备)的研发、设计、销售、租赁与售后服务(不涉及国营贸易管理商品,涉及配额、许可证管理及其他专项管理的商品,按国家有关规定办理申请);轨道梁柱的研发、设计、销售;自有物业租赁(物业位于大鹏新区葵涌街道延安路一号比亚迪工业园内及龙岗区龙岗街道宝龙工业城宝荷路3001号比亚迪工业园内);广告设计、制作、代理及发布;信息与技术咨询、技术服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新二次充电电池、光伏、手机部件及组装、传统燃油汽车及新能源汽车业务 主要从事二次充电电池及光伏业务、手机部件及组装业务,以及包含传统燃油汽车及新能源汽车在内的汽车业务,同时利用自身的技术优势积极拓展新能源产品领域的相关业务。
+要点四:新能源行业 展望二零一七年,全球经济形势依然复杂,不确定性因素增加。二零一六年十一月底,国务院发布关于印发「十三五」国家战略性新兴产业发展规划的通知,强调要把战略性新兴产业摆在经济社会发展更加突出的位置,推动新能源汽车、新能源和节能环保等绿色低碳产业成为支柱产业。
+要点五:全球新能源汽车产业的领跑者之一 比亚迪拥有庞大的技术研发团队和强大的科技创新能力,已相继开发出一系列全球领先的前瞻性技术,建立起于新能源汽车领域的全球领先优势。比亚迪作为一家横跨汽车和电池两大领域的企业集团,拥有全球领先的电池、电机、电控等核心技术,以及全球首创的双模二代技术和双向逆变技术,实现汽车在动力性能、安全保护和能源消费等方面的多重跨越,为全球汽车产业开拓出崭新的发展路径。
+要点六:动力电池领域优势 在动力电池领域,集团开发了高度安全的磷酸铁锂电池和高能量密度的三元电池,分别应用于电动商用车和电动乘用车领域,解决了电动汽车电池在安全性、循环寿命和续航里程等方面的全球性难题。目前,集团已在动力电池领域建立起全球领先的技术优势和成本优势,并通过动力电池产能的快速扩张建立起领先的规模优势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的企业，低了可以吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方稀土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小金属 标准普尔 富时罗素 MSCI中国 沪股通 小金属概念 上证180_ 融资融券 稀土永磁 锂电池 新材料 稀缺资源 HS300_ 内蒙古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(国家法律、法规规定应经审批未获审批前不得生产经营)稀土精矿,稀土深加工产品、稀土新材料及稀土应用产品;铌精矿及其深加工产品;冶金产品、煤炭及其深加工产品、化工产品、光电产品经营;设备、备件的制造、采购与销售;进口本企业所需产品;出口产品;技术的开发应用、推广转让,技术、信息服务;分析检测;建筑安装、修理;自有房地产经营活动、机械设备租赁;农用物资、土壤改良剂、水溶肥料、生物肥料、有机肥料的生产与销售。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀土原料产品、稀土功能材料产品、部分稀土应用产品 公司是中国乃至全球最大的稀土产品供应商。公司主要生产经营稀土原料产品(稀土盐类、稀土氧化物及稀土金属)、稀土功能材料产品(稀土磁性材料、抛光材料、贮氢材料、发光材料、催化材料)和部分稀土应用产品(镍氢动力电池、稀土永磁磁共振仪、LED灯珠)。
+要点四:稀土行业 当前,世界经济持续复苏,新一轮科技和产业革命加速兴起,全球工业向高端、智能、绿色方向快速发展,新产业、新技术、新业态、新产品层出不穷,稀土的战略价值愈加凸显,多区域、跨领域产业合作不断深化,稀土资源开发和供应呈现多元化格局,市场竞争日趋激烈。我国经济发展进入新时代,稀土行业正处在转变发展方式、优化产品结构、转换增长动力、向高质量发展的关键时期。国家通过大力开展稀土违法违规行为专项打击、环保督查、落实监管制度执行等,持续深入整治生产流通秩序,推进供给侧结构性改革,行业违法违规、散乱发展、无序竞争现象得到遏制,行业发展环境进一步改善;通过将稀土总量控制计划向六大稀土集团集中配置,加强政策调控引导,六大稀土集团主导行业发展的能力不断增强。稀土行业上下游企业紧抓产业发展导向和市场回暖的有利时机,优化生产管理、推进创新研发和工艺升级、加强市场营销、开展合资合作、改进环保治理等,不断改善经营业绩。稀土产业布局更趋合理,行业整体发展质量进一步提升。
+要点五:资源优势 北方稀土的控股股东包钢(集团)公司拥有全球最大的稀土矿—白云 鄂博矿的独家开采权,拥有内蒙古地区稀土产品专营权。控股股东以北方稀土为平台发展稀土产业,开发利用稀土资源,将其资源优势转化为上市公司的产业发展优势,奠定了北方稀土发展的基础。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-9-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没买过不知道逻辑，跌下来研究一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-3-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费电子 元宇宙概念 茅指数 传感器 无线耳机 标准普尔 分拆预期 富时罗素 华为概念 富士康 独角兽 工业互联 小米概念 深证100R MSCI中国 国产芯片 增强现实 证金持股 无人机 智能家居 融资融券 基金重仓 QFII重仓 苹果概念 虚拟现实 智能穿戴 智能电视 LED 山东板块 深股通 HS300_ 深成500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发、制造、销售:声学、光学、无线通信技术及相关产品,机器人与自动化装备,智能机电及信息产品,精密电子产品模具,精密五金件,半导体类、MEMS类产品,消费类电子产品,LED封装及相关应用产品;与以上产品相关的软件的开发、销售;与以上技术、产品相关的服务;货物进出口、技术进出口(不含无线电发射及卫星接收设备,国家法律法规禁止的项目除外,需经许可经营的,须凭许可经营)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电声器件业务和电子配件业务 公司主营业务为电声器件业务和电子配件业务。公司电声器件业务主要产品为微型麦克风、微型扬声器、扬声器模组、天线模组、有线耳机、蓝牙耳机、MEMS传感器及其他电子元器件等,公司电子配件业务主要为智能音响产品、智能电视配件产品、智能家用电子游戏机配件产品、智能可穿戴电子产品、工业自动化产品等,产品广泛应用于以智能手机、平板电脑、智能电视、智能可穿戴电子产品等为代表的消费电子领域。公司具备为客户提供集声学、光学、无线通讯等多种技术为一体的产品的能力,可以为客户提供声光电整体解决方案。
+要点四:电子元器件制造业 根据国际调研机构IDC的公开数据显示,智能手机在相当长的一段时间内仍将是个人最重要的移动计算平台;智能手表将成为可穿戴市场的主要增长方向;智能家居概念得到普及市场已预热,智能电器、智能安防、智能娱乐等细分领域的智能产品不断涌现,尤其是民用无人机、虚拟现实/增强现实为代表的新产品成为消费电子市场热点,预计未来将保持高速增长态势。智能设备与新兴产品的普及和快速增长,为电声器件业务与电子配件业务提供了广阔的市场前景和全新的发展机遇。在行业竞争方面,电声器件与电子配件行业竞争格局相对稳定,竞争压力主要来自竞争对手在大客户业务的抢夺、新技术的研发投入与应用进度、新兴智能产品市场客户的争夺、供应链采购成本和产品制造成本压力。
+要点五:业内领先的精密制造与智能制造能力 公司在业内精密制造方面素来有着良好口碑。公司不断提升加工精度和良率水平,实现塑胶件、金属件、模切件、振膜等核心原材料的自制,在光学镜头、光路设计、虚拟现实/增强现实、微显示/微投影、传感器、MEMS、3D封装等微电子领域形成精密制造能力,在生产过程中应用粉末冶金技术、超声波焊接技术、激光技术等先进工艺,大幅缩短新产品交付周期,形成高品质产品大规模生产的独具优势。
+要点六:多种技术融合平台和强大的技术人才队伍 公司已建立起多技术融合的产品研发平台,在声光电等主要技术方向积累了丰富的经验,通过集成跨领域技术提供系统化整体解决方案。公司注重在全球范围内整合在声、光、电、无线通讯、精密制造等多学科领域中的优秀人才,专职研发人员超过6,000名,布局在北京、青岛、美国、日本、德国、瑞典、丹麦等“六国十二地”,形成全球研发布局和24小时研发体系。截止2016年12月31日,公司累计申请专利7,856项(其中国外专利累计申请量749项),发明专利申请量3,141项;公司累计授权量3,636项,发明专利授权量543项,体现了公司多种技术融合平台的创新成果和人才队伍的强大实力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾经说被收购跌倒25，后来起来了，曾经跟立讯精密是难兄难弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方华创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133.53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以前买过，赚过钱也亏过钱…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>452.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中芯概念 半导体 宁组合 茅指数 第三代半导体 半导体概念 氮化镓 标准普尔 富时罗素 华为概念 深证100R 深股通 国产芯片 OLED 融资融券 太阳能 深成500 基金重仓 HS300_ 军工 北京板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可经营项目:组装生产集成电路设备、光伏设备、TFT设备、真空设备、锂离子电池设备、流量计、电子元器件;一般经营项目:销售集成电路设备、光伏设备、TFT设备、真空设备、锂离子电池设备、流量计、电子元器件;技术咨询;技术开发;技术转让;经济贸易咨询;投资及投资管理;货物进出口;技术及出口;代理进出口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子产品的研发、生产、销售和技术服务 公司主要从事基础电子产品的研发、生产、销售和技术服务业务,主要产品为电子工艺装备和电子元器件。电子工艺装备方面,包括半导体装备、真空装备和新能源锂电装备三大业务领域产品,广泛应用于集成电路、半导体照明、功率器件、微机电系统、先进封装、光伏电池、平板显示、真空电子、新材料、锂离子电池等领域。电子元器件方面,公司依托六十多年的元器件技术积累,建立了完善的新产品、新工艺研发体系,产品技术等级不断提升,研发生产了电阻、电容、晶体器件、微波组件、模块电源、混合集成电路等高精密电子元器件系列产品,广泛应用于精密仪器仪表、自动控制等高、精、尖特种行业领域。
+要点四:集成电路装备业 在2018年3月刚刚结束的十三届全国人大一次会议中,国务院总理李克强再次将集成电路列入政府工作报告,并将集成电路列为了实体经济发展的第一位;资金方面,由国家集成电路产业投资基金(简称“大基金”)带动的地方基金和社会资本的投入,为产业发展带来了充足的资金支持;产业方面,中国已成为全球集成电路产能转移的新兴区域,国际晶圆制造企业纷纷在中国大陆投资建厂,计划建线数量及投资金额持续增长。在政策和资金支持、下游市场广阔以及全球半导体制造产能转移的利好背景下,中国半导体产业迎来了难得的的发展机遇。
+要点五:电子工艺装备方面 公司具有60多年的产品研制历史,目前主要产品涵盖半导体装备、真空装备、新能源锂电装备等。所提供的半导体设备及部件类产品包括刻蚀机、PVD、CVD、氧化炉、扩散炉、清洗机及MFC等7大类,面向集成电路、先进封装、半导体照明、微机电系统、功率半导体、化合物半导体、新能源光伏、平板显示等8个产品领域,涵盖了半导体生产前处理工艺制程中的大部分关键工艺装备。目前公司在北京经济技术开发区、中关村电子城高科技园区、顺义天竺综保区及美国宾夕法尼亚州拥有制造基地,营销服务体系覆盖欧、美、亚等全球主要国家和地区。
+要点六:半导体装备业务方面 作为国家02重大科技专项承担单位,公司通过承担重大专项多项课题的科研任务,先后完成了12吋集成电路制造设备90-28nm等多个关键制程的攻关工作,目前所承担的02专项在研课题14nm制程设备也已交付至客户端进行工艺验证。充分利用在研发中形成的具有自主知识产权的核心技术体系,公司扩展研发应用,将产品陆续推向了高端集成电路装备市场。所开发的用于12吋晶圆制造的刻蚀机、PVD、CVD、立式氧化炉、扩散炉、清洗机和气体质量流量控制器等设备产品已成功实现了产业化。其中28nm及以上技术代制程设备已批量进入了国内主流集成电路生产线量产,部分产品更成为了国内龙头芯片厂商的量产线Baseline机台;各类8英寸集成电路设备也全面进驻国内主流代工厂和IDM企业。公司在集成电路装备领域所取得的研发与产业化成果,在国家芯片国产化战略中发挥了核心骨干的带头作用。
+要点七:锂离子电池装备业务方面 北方华创新能源自1992年起,就与中科院物理所、有研总院、电子部18所展开合作,为中国第一代锂离子电池的研发、生产提供了有力的支持。传承五十余年电子专用设备制造经验,北方华创新能源是我国最早进入锂电装备行业的企业。目前公司正面向新能源汽车和储能行业,专注于研发和生产锂离子电池极片制造用的浆料制备系统、真空搅拌机、涂布机、强力轧膜机、高速分切机等装备,迄今已为全国主要的锂离子电池研究院所、生产企业提供了大量的电池制造装备,并将产品远销到日本、德国、俄罗斯等国家,在行业累计拥有境内、外客户二百余家。伴随着20多年来我国锂离子电池行业的不断发展,公司所取得的辉煌成就也见证着公司的一路成长——2013年公司研发的锂电极片制造装备整线输出德国并成功运行,创造了我国成套机械设备首次出口德国的纪录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源金属 储能 盐湖提锂 固态电池 无线耳机 标准普尔 富时罗素 深证100R MSCI中国 新能源车 小金属概念 融资融券 预盈预增 基金重仓 新材料 HS300_ AH股 锂电池 特斯拉 江西板块 深股通 深成500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险化学品生产;危险化学品经营;货物进出口;基础化学原料制造(不含危险化学品等许可类化学品的制造);化工产品销售(不含许可类化工产品);常用有色金属冶炼;有色金属合金制造;有色金属合金销售;电池制造;资源再生利用技术研发;新材料技术推广服务;工程和技术研究和试验发展;以自有资金从事投资活动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂产品、锂电新材料与储能电池的研发、生产和销售 赣锋锂业专注于深加工锂产品、锂电新材料、锂动力与储能电池、锂资源开发、锂电池回收利用等全产业链系列产品的研发、生产和销售,拥有特种无机锂、有机锂、金属锂及锂合金、锂电新材料、锂动力与储能电池等5大系列40多种产品,是目前国内锂系列产品品种最齐全、产品加工链最长、工艺技术最全面的专业生产商,国内深加工锂产品行业龙头企业。报告期内,公司继续实施“锂产业链上下游一体化”的发展战略,进一步推动产业链向上下游延伸和产业链结构优化升级。
+要点四:锂产品行业 锂及其深加工产品用途广泛,目前正处于行业生命周期的发展初期,是新兴朝阳产业,其快速发展主要得益于来自下游新能源、新药品、新材料三大领域的旺盛需求。为加快新能源汽车产业发展,推进节能减排,国家陆续出台有关政策,大力促进了新能源汽车和锂电行业技术升级和产业化应用,锂电行业将获得巨大的发展机遇,其对锂产品的需求将迅速提升,也将促进深加工锂产业的快速发展。
+要点五:完整产业链独领风骚 公司为国内首家建立“卤水/含锂回收料--氯化锂/碳酸锂-金属锂-丁基锂/电池级金属锂-锂系合金”的全产品链生产企业。全产品链生产可以向上延伸至卤水和含锂回收料的加工,在扩大原材料选择范围的同时,又降低生产成本,增加产品毛利率,丰富产品品种,加入丁基锂,电池级金属锂等高端,高附加值产品的市场竞争,在增加企业利润来源的同时,也避免产品单一所带来的风险,有助于提高各细分品种的服务品质和竞争能力,如在金属锂和丁基锂产品上,公司在销售产品的基础上,回收客户使用后形成的含锂回收料,重新提炼出氯化锂和金属锂,帮助客户降低环保处理成本。
+要点六:工艺技术凸显优势 在电池级金属锂领域,公司拥有国内独创的真空低温蒸馏提纯工艺,自行研发建成锂资源综合回收生产体系,是国内利用回收锂化合物综合循环生产金属锂的最大企业,在丁基锂领域,是国内首家专业化和规模化供应丁基锂的企业,采用独特的锂粒子氯丁烷滴加合成技术,金属锂单耗从原来的0.30kg/kg降低到0.25kg/kg,同时,采用特殊的固液自动分离设备实现连续自动化控制和提高产品回收率,保证丁基锂产品的澄清度,在电池级碳酸锂领域,公司是国内唯一掌握直接从卤水提取电池级碳酸锂的企业,公司也是国内唯一掌握直接从卤水中提取氯化锂技术的企业,多项技术达到国际先进水平。
+要点七:成本优势逐步显现 公司通过再生资源回收利用拓宽原料采集渠道,由此形成卤水,碳酸锂,氯化锂及回收锂化物的多渠道,多样性的柔性采购体系。公司07年建成国内唯一的卤水提取氯化锂生产线后,带来了金属锂生产成本的相应下降,较以碳酸锂为原料生产的成本降低12%。公司与SQM签订为期5年的卤水供应合同,成为SQM在中国的独家用户,合同到期还可自动延长5年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低于100 可以看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兰微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-7-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靳先生推荐的票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体 第三代半导体 半导体概念 氮化镓 标准普尔 富时罗素 国产芯片 OLED 沪股通 上证380 中证500 智能穿戴 融资融券 长江三角 LED 基金重仓 浙江板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子元器件、电子零部件及其他电子产品设计、制造、销售;机电产品进出口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合型半导体产品 经过将近二十年的发展,公司已经从一家纯芯片设计公司发展成为目前国内为数不多的以IDM模式(设计与制造一体化)为主要发展模式的综合型半导体产品公司。
+要点四:半导体行业 目前国外半导体产业向我国转移的趋势没有改变,我国已成为全球主要的半导体生产国家之一,但我国半导体企业的技术积累和规模效应较国际大厂仍有较大差距。近些年,境外大型半导体公司在国内投资快速增长,外资厂商凭借其雄厚的资金实力和技术积累占据了较大的市场份额,并在某些高端半导体设计和制造方面甚至处于垄断地位。我国半导体企业中从事代工业务的中小企业仍占多数,具有自主核心技术和先进生产工艺的企业较少,市场竞争手段以价格竞争为主。从半导体行业最为注重的规模效应来看,我国优势半导体企业仍亟待加强。
+要点五:半导体和集成电路产品设计与制造一体的模式 公司从集成电路芯片设计业务开始,逐步搭建了特色工艺的芯片制造平台,并已将技术和制造平台延伸至功率器件、功率模块、MEMS传感器和高端LED彩屏像素管的封装领域,建立了较为完善的IDM(设计与制造一体)经营模式。IDM模式可有效进行产业链内部整合,公司设计研发和工艺制造平台同时发展,形成了特色工艺技术与产品研发的紧密互动,以及器件、集成电路和模块产品的协同发展。公司依托IDM模式形成的设计与工艺相结合的综合实力,加快产品研发进度、提升产品品质、加强控制成本,向客户提供差异化的产品与服务,提高了其向大型厂商配套体系渗透的能力。
+要点六:产品群协同效应 公司从集成电路芯片设计企业完成了向综合性的半导体产品供应商的转变,在特色工艺平台和在半导体大框架下,形成了多个技术门类的半导体产品,比如带电机变频算法的控制芯片、功率半导体芯片和智能功率模块、各类MEMS传感器等。这些产品已经可以协同、成套进入整机应用系统,市场前景非常广阔。
+要点七:面向全球品牌客户的品质控制 公司建立了完整的质量保障体系,依托产品研发和工艺技术的综合实力提升和保证产品品质。目前公司已经获得了ISO/TS16949质量管理体系、ISO9001质量管理体系、ISO14001环境管理体系认证、索尼GP认证、欧盟ROSH认证、ECO认证等诸多国际认证,产品已经得到了华为、海康、美的、格力、海信、海尔、三星、索尼、台达、达科、日本NEC等全球品牌客户的认可。公司设计研发、芯片制造、测试系统的综合实力,保证了产品品质的优良和稳定,是公司参与市场竞争、开发高端市场、开发高品质大客户的保障。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-2-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有色金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐湖提锂 有色金属 标准普尔 中证500 小金属概念 融资融券 预盈预增 基本金属 新材料 稀缺资源 青海板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜、铅、锌等有色金属矿和锰等黑色金属矿的探矿、采矿、选矿、冶炼、加工及其产品的销售;共、伴生金银等稀贵金属及其副产品的开发、冶炼、加工和贸易;有色矿产品、建筑材料、钢材等贸易;煤炭等能源产品及其化工产品的生产、销售和贸易;地质勘查;经营和代理各类商品及技术的进出口业务(国家限定公司经营或禁止进出口的商品及技术除外);工业气体的生产与销售(仅限取得许可证的分公司经营);电力的生产与销售;境外期货的套期保值业务;房屋租赁、土地租赁、车位租赁业务及企业经营管理受托业务;生活、工业取水、供水(仅限取得许可证的分公司经营);硫磺的生产和销售(仅限取得许可证的分公司经营)。以上项目涉及许可证的凭许可证经营。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有色金属业务 公司主要从事铜、铅、锌、铁等基本有色金属、黑色金属的采选、冶炼、贸易等业务,分矿山、冶炼、贸易和金融四大板块经营,其中矿山板块主要产品有铅精矿、锌精矿、铜精矿、铁精粉、球团等;冶炼板块主要产品有锌锭、电铅、电解铜等。
+要点四:有色金属工业 有色金属矿采选业和冶炼及压延加工业利润呈现分化,行业资产负债率有所提升。行业环保及产业政策趋严短期内推动业内企业运营成本上升,但中长期来看有助于产业结构优化。据国家统计局数据,2019年1-12月,我国十种有色金属产量为5,841.6万吨,同比增长3.5%。其中,精炼铜产量978.4万吨,同比增长10.2%;铅产量579.7万吨,同比增长14.9%;锌产量623.6万吨,同比增长9.2%。铜加工材产量2,017.2万吨,同比增长12.6%。同比增速有所回升,但仍低于宏观经济增长水平。
+要点五:发现和优先获得西部地区优质资源的优势 根据自然资源部的估计,西部蕴藏着我国59%的锌资源、55%的铅资源和65%的铜资源。公司作为西部最大的有色金属矿业公司之一,已经树立了在西部有色金属行业中的领先地位和良好的市场声誉,有利于公司优先发现和获得西部优质矿产资源。
+要点六:拥有高海拔环境下开发矿山的优秀团队 锡铁山矿作为本公司的核心矿山之一,自1986年开始建设生产,三十年来为公司培养了一批能够在高海拔环境下持续生产经营的生产管理队伍和科研队伍,积累了丰富的高海拔环境下的矿山采选技术和生产管理经验,成为公司在西部高海拔地区获取和开采优质矿产资源的中坚力量,并推动公司目前在高海拔地区的其它矿山和选矿厂不断培养出新的队伍。
+要点七:多个高品质矿山良好的产业地域布局 公司主要拥有和控制锡铁山铅锌矿、格尔木磁铁山铁矿、格尔木野马泉铁多金属矿、格尔木它温查汉西铁多金属矿、获各琦铜矿、双利铁矿、呷村银多金属矿、哈密白山泉铁矿、哈密黄山南铜镍矿、肃北七角井钒铁矿及玉龙铜矿。上述矿山分布在青海、内蒙古、四川、新疆、甘肃和西藏,这些矿山的分布以及对周边地区矿产资源的辐射影响将不断构建和完善本公司在西部的产业地域布局。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌了再看把，感觉涨跌幅不是很高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立讯精密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费电子 茅指数 3D摄像头 无线耳机 标准普尔 富时罗素 电子烟 华为概念 深证100R MSCI中国 新能源车 证金持股 5G概念 智能家居 智能穿戴 融资融券 深圳特区 转债标的 苹果概念 无线充电 广东板块 深股通 深成500 HS300_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产经营连接线、连接器、电脑周边设备、塑胶五金制品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接器的研发、生产和销售 报告期内,公司巩固了在传统行业的优势地位与市场份额,虽然PC行业持续低迷,但公司在营业收入上仍然实现了两位数的增长。另外,借助于内生式的成长,公司在汽车互联产品及精密组件上实现了超过16%的成长。而随着公司在通讯和消费电子领域的持续投入,相关领域无论是在营收比重还是增长比例,均实现了大幅度的增长。综上,报告期内,公司坚持在连接线、连接器等传统领域的优势地位,同时积极向零组件完整方案提供方而不断努力,借助于科技进步与技术创新,实现了公司的快速发展与持续进步。
+要点四:技术创新和工艺制程优势 公司始终坚持以技术发展为导向,不断加大研发投入,公司历年在研发上的投入呈现上升趋势,其中2015年全年投入研发费用5.82亿元,较2014年度增加44.06%。2015年度,公司新申请专利225项,取得专利授权185项,截至2015年底,公司在海内外共取得各项专利700余项。通过不断地技术创新,既满足了客户多方面的需求,也实现自身的快速发展。由此可见,技术创新已成为公司竞争优势。
+要点五:稳定的客户资源优势 公司一直以来非常重视与大客户长期稳固的合作关系。公司上市至今通过内生外延的发展方式不仅在PC、消费电子等领域建立了自身的优势,同时成功进入了汽车、医疗、通讯等多个新的领域,并取得了较好的经营成果。通过持续的合作与交流,公司取得了国内外知名客户的认可,从而拥有了较为稳定的客户资源与业务空间。较大且稳定的业务量,为公司业务的持续发展打下了坚实基础;另一方面,客户的高标准、严要求也带动了公司在生产制造、产品研发、内部管理等方面不断提高。
+要点六:精良的管理团队优势 人才,永远是公司的第一资源,更是企业发展的核心要素。公司的经营管理团队多年来深耕连接线、连接器行业,不仅具有丰富的管理经验,同时具有不断进取的开拓精神和强烈的责任心与使命感,这些优势让我们能够敏锐感知客户和市场的变化并做出迅速反应。近年来,公司在新、旧领域不断扩张同时积极开拓国际市场,而随着具有专业领域背景的国际化管理和技术创新人才的不断加入,为公司的高速持续发展提供了良好的人力资源保障。同时,为提高公司凝聚力和战斗力,增强员工归属感和幸福感。
+要点七:电脑连接器龙头 公司专注于连接器的研发，生产和销售，已形成年产21700万套连接器的生产规模，具备覆盖3C领域(电脑，通讯，消费电子)近2000种连接器的综合开发能力。在电脑连接器子行业中公司处于领先地位，台式电脑标配前置线系列和SATA系列产品的全球市场占有率接近20%，NB用LVDS连接器月出货量已进入全球前五，全球市场占有率达到7%，2011年1-6月，公司电脑连接器实现营业收入7.29亿元，占比74%。消费电子，通信连接器方面，公司已通过微软，中兴通讯的供应商审核，未来增长值得期待。
+要点八:汽车连接器--新的利润增长点 汽车连接器研发周期长，进入门槛高，且供应链比较成熟，而数字和媒体应用接口是近年来才开始兴起的产品，汽车不再仅仅是运输工具，它融入了更多的娱乐，智能等功能，由此催生了汽车连接器产业的发展。公司从06年开始进行车载电子和汽车辅助系统的连接器研发工作，现已初步取得成效并开始批量供货。公司占据先发优势，与全球最大的汽车线束供应商德尔福结成紧密的战略合作关系，就数字和媒体应用接口产品分别为福特，克莱斯勒，通用，神龙等汽车品牌开发100余个项目。汽车连接器业务有望成为公司新的利润增长点，也将确立公司在这个细分产品市场的竞争地位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立讯让我知道了，一定不能买在最高点，也别看现在有多稳定，一旦掉下来了没个一年半载的回不来，只能割肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴-SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>309.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网 游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>322.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-3-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-2-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>773.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米集团-W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-8-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机制造 智能家居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格林美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源金属 储能 钠离子电池 汽车拆解 尾气治理 降解塑料 标准普尔 分拆预期 垃圾分类 富时罗素 氢能源 独角兽 深股通 新能源车 中证500 小金属概念 燃料电池 大数据 石墨烯 融资融券 云计算 稀土永磁 锂电池 深成500 深圳特区 稀缺资源 节能环保 广东板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次资源循环利用技术的研究、开发;生态环境材料、新能源材料、超细粉体材料、光机电精密分析仪器、循环技术的研究、开发及高新技术咨询与服务;投资兴办实业(具体项目另行申报):国内贸易(不含专营、专控、专卖商品);经营进出口业务(法律、行政法规、国务院决定禁止的项目除外,限制的项目须取得许可证后方可经营);普通货运(不含危险品,凭《道路运输经营许可证》经营);超细镍粉、超细钴粉的生产、销售及废旧电池的收集与暂存(由分支机构经营)。塑木型材及铜合金制品的生产、销售及废线路板处理(由分支机构经营);废旧金属、电池厂废料、报废电子产品、废旧家电、报废机电设备及其零部件、废造纸原料、废轻化工原料、废玻璃回收、处置与销售(以上经营项目由分支机构经营);废旧车用动力蓄电池的收集、贮存、处置(以上经营项目由分支机构经营)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有金属循环利用业务、新能源汽车用动力电池材料业务 公司在国内率先提出“资源有限、循环无限”的产业理念,积极倡导开采“城市矿山”,突破性解决了中国在废旧电池、电子废弃物与报废汽车等典型废弃资源绿色处理与循环利用的关键技术,建成十二大循环产业园,构建了废旧电池与钴镍钨等稀有金属废物循环利用、动力电池材料、废弃电器电子产品循环利用与报废汽车循环利用等核心循环产业链,年处理废弃物总量两百万吨以上,循环再造钴、镍、铜、钨、金、银、钯、铑、锗、稀土等二十多种稀缺资源以及超细粉末、新能源汽车用动力电池材料、塑木型材等多种高技术产品,形成了中国最完整的稀有金属资源化循环。
+要点四:技术与创新优势 公司最早在国内提出“资源有限、循环无限”的产业理念,并被国家版权局授予版权。自成立以来,公司成功解决了中国废旧电池、稀有金属废物、电子废弃物、报废汽车等突出污染物的绿色回收利用技术难题、产业难题,牵头并参与起草了120余项中国自主的废弃电池、废弃钴镍钨资源、废弃电器电子产品、废五金、废塑料和报废汽车等“城市矿产”资源循环利用的国家及行业标准,创建了“城市矿产”资源循环利用的技术和标准体系,申请了近500件专利,是中国再生资源行业第一家在欧美等国家拥有核心专利的企业。
+要点五:循环产业链优势 公司通过并购,扩充在西北与西南部电子废弃物处理,形成覆盖八省市的十二大循环产业基地,以十多年的技术创新,形成了完整的“废电池与钴镍钨锗铟稀有金属废弃物--钴镍钨粉体--动力电池材料”的产业链、“报废电器电子与报废线路板---铜、金银贵金属--塑料制品低碳再造”的产业链、“报废汽车回收拆解--综合分选利用—零部件再造”的产业链等三大优势产业链,形成三轨驱动的核心业务与核心盈利模式,打造以钴镍钨锗铟稀有金属资源、动力电池材料、电子废弃物、报废汽车资源为主体的城市矿山资源综合利用产业链体系。
+要点六:回收体系优势 公司已经构建或正在构建的再生资源回收体系包括废旧电池回收体系、电子废弃物回收体系、3R循环消费社区连锁超市、公共机构和大型企业集团合作建设废旧商品回收体系、区域性再生资源回收集散大市场、基于物联网的“互联网+分类回收”回收哥APP网上回收等六大体系,整体形成企业收购、个体收购、自建体系回收等多体系的回收网络,并积极探索全面感知、全面覆盖、全程控制的基于物联网技术的再生资源信息平台,已经成为国内再生资源回收体系最为健全的公司。
+要点七:废弃资源循环利用龙头 公司在深圳建有电子废弃物处理与塑木型材循环再造工厂，在湖北建有占地600亩的循环利用产业园，年处理各种废旧电池，电子废弃物和钴镍废弃资源达到5万吨以上，循环再造超细钴镍粉末，塑木型材等各种高技术产品达到7000吨以上，年销售3亿元以上，成为中国电子废弃物，废旧电池与废弃钴镍资源循环利用与低碳资源化的产业基地，创立了“从废弃物收集－循环产品再造－替代进口产品－行业名牌产品”的高端循环模式。
+要点八:资源优势 与以原矿为原料生产钴镍粉体材料的资源模式不同，公司以废弃钴镍资源为原料生产钴镍粉体材料，具有资源和成本优势。国内每年产生大量的钴镍废料，大部分没有充分回收利用，形成了废弃钴镍资源的无限“城市矿山”。公司已先后在深圳，武汉城市圈等12个城市建立了废弃电池的回收体系，覆盖10万平方公里，初步建立了低成本获取生产原料的社会通道。未来公司还将逐步覆盖华北，华东和西南，在全国形成五大回收区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600764</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国海防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安防设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安防设备 军民融合 新能源车 航母概念 量子通信 沪股通 上证380 中证500 国企改革 北斗导航 融资融券 风能 移动支付 中字头 军工 北京板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术开发、技术咨询、技术服务、技术转让;投资及投资管理;货物进出口、技术进出口、代理进出口;销售电子及材料、电子元器件、仪器仪表和整机产品、电子应用产品和应用系统、电子专用设备、通信设备;承接电子应用系统工程、通讯工程;制造电子及材料、电子元器件、仪器仪表和整机产品、电子应用产品和应用系统、电子专用设备、通信设备。(企业依法自主选择经营项目,开展经营活动;依法须经批准的项目,经相关部门批准后依批准的内容开展经营活动;不得从事本市产业政策禁止和限制类项目的经营活动。)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子类产品、压载水电源的研制生产以及为相关电子设备提供试验检测服务 2017年,公司完成重大资产重组,主营业务发生变动,作为中船重工电子信息板块军民融合、产融一体的创新型平台。基于已经置入的资产,公司主营业务包括电子类产品、压载水电源的研制生产以及为相关电子设备提供试验检测服务。其中:电子类产品主要包括水下信息传输装备、水下武器系统专项设备、汽车电子配套产品、烟机电控产品等;压载水电源主要包括系列船用特种电源产品;试验检测服务主要是为军用电子设备、船用电气设备的环境与可靠性试验提供相关技术服务。
+要点四:军工电子及海洋防务装备行业 在军民融合产品方向上,随着十八大提出的海洋强国战略深入推进,以及“十九大”报告提出的加快形成军民融合深度发展格局,应用于国防领域的大量深远海技术存在着巨大的军转民应用空间。同时,随着我国军贸相关项目的开展,军民融合外销产品的市场空间也正在不断扩大,公司在海洋防务装备、海洋信息化设备等领域的国际化发展前景也越来越开阔,相关业务正迎来快速增长的战略机遇期。试验检测服务是电子类产品科研生产的重要保障条件之一。在“十九大”报告提出我国经济发展转向“高质量发展”阶段的背景下,国防科工局在军工发展计划工作会上提出,要按照“三步走”的强军目标,加快建设中国特色先进国防科技工业体系,推动军工能力建设实现高质量发展。这一决策导向将给军工及军民融合方向上的电子类产品试验检测服务行业带来更加稳健的增长预期。在压载水设备方面,由于国际海事组织压载水公约已达到生效条件并已逐步要求强制实施,压载水设备及相关产品市场未来将迎来快速增长。
+要点五:鱼水雷武器系统 鱼水雷武器系统是我国海洋防务的重要武器装备,是潜艇及水面舰艇作战系统的重要组成部分,用于实现对水下、水面目标的攻击,用于针对重点海域的封锁与控制,是承担海洋防务的核心组成部分。该类设备不仅装备于我国海军,而且也是军贸出口的主要装备。
+要点六:水下信息传输系统及装备 水下信息传输系统及装备作为海军作战及训练使用的重要信息传输系统之一,广泛用于水下与水下、水面与水下作战平台间的信息互联互通、指挥控制,是我国海军建设网络化水下防御和作战系统的神经网络,有效构筑我国海洋防务中水上、水下一体化防务体系。
+要点七:资源优势 公司控股股东中船重工是我国海军装备业务覆盖面最广泛的大型综合性企业集团,是中国海军主战装备总体研发设计单位和总装建造、系统集成的骨干力量,拥有完备的海军装备研制开发、设备配套和售后保障能力。公司依托控股股东强大的资源优势,可以通过多渠道、多层次、多维度的资源整合和技术创新,在电子信息行业上形成综合性的竞争力优势。同时,随着混合所有制改革的进一步深入,中船重工电子信息板块资产证券化步伐将进一步加快,凭借控股股东国内领先的技术和人才优势,以及相关业务在工程化、产业化方面的深厚积累,进一步推动公司实现跨越式发展。
+要点八:技术优势 公司全资子公司长城电子是国内水下信息传输装备的专业科研生产企业,是该类装备的核心供应商。其自主技术覆盖水下信息传输装备算法、硬件、软件、产品化、工程化以及试验应用各方面,是国内少数拥有从算法到实际产品装备的水下信息传输装备研制生产企业。经过十几年探索发展,形成了适用于复杂海洋环境的一系列产品,获得了多项国内独有的创新性成果,相关技术指标处于国内领先水平。截至2017年末,公司共拥有相关发明专利授权24项、实用新型专利43项,外观设计专利1项。获得国家级科技进步奖一等奖一项;省部级科技进步奖16项,其中:一等奖4项、二等奖6项、三等奖6项。
+要点九:品牌优势 作为国内水下信息传输装备领域的核心企业,子公司长城电子拥有近30年的品牌沉淀,是国内该类装备的核心供应商,其产品已经广泛应用在我国各类舰艇、潜艇以及民用水下航行设备中,部分产品还参与了“蛟龙号”国家重大研究专项的试验。公司产品在水下信息传输领域拥有着良好的业界口碑,为未来市场的进一步拓展奠定了坚实的品牌基础。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军工产业，看看就行，不买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-3-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-2-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优衣库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优衣库，逢跌就买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-11-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险 蚂蚁概念 标准普尔 富时罗素 MSCI中国 证金持股 沪股通 养老概念 上证180_ 上证50_ 融资融券 HS300_ AH股 北京板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、人民币、外币的人身保险(包括各类人寿保险、健康保险、意外伤害保险);2、为境内外的保险机构代理保险、检验、理赔等业务;3、保险咨询;4、依照有关法规从事资金运用业务;5、经中国保监会批准的其他业务。公司的经营范围以中国保监会批准和公司登记机关核准的项目为准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人寿保险 作为一家全国大型寿险公司,本公司通过遍布全国的分销网络,为个人及机构客户提供一系列寿险产品及服务,并通过下属的资产管理公司和资产管理公司(香港)管理和运用保险资金。本公司专注寿险业务,注重业务价值的有效提升,以长期期交业务为核心,不断优化业务结构,提高业务品质 ;同时,本公司持续关注队伍建设,积极推动产品创新,强化后援支持体系建设,促进业务发展。本公司近年来业务快速发展,价值稳步提升,战略转型成效显著,在“十二五”期间始终保持了第三的市场地位。
+要点四:保险业 2018年,防控金融风险成为打好防范化解重大风险攻坚战的重点。金融监管力度预计将较2017年进一步加大,而保险监管导向仍是促进保险业回归本源,发挥长期稳健的风险管理和保障功能。随着我国中等收入群体的扩大、人们生活水平的提高及保障意识的增强,保障领域的需求会得到进一步释放,保障型产品将成为新的业务增长点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不关注，跌破了再吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601628</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险 蚂蚁概念 标准普尔 富时罗素 MSCI中国 证金持股 沪股通 上证180_ 上证50_ 融资融券 参股银行 参股期货 中字头 HS300_ AH股 北京板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人寿保险、健康保险、意外伤害保险等各类人身保险业务;人身保险的再保险业务;国家法律、法规允许或国务院批准的资金运用业务;各类人身保险服务、咨询和代理业务;国家保险监督管理部门批准的其他业务。基金销售业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险产品与服务 公司是中国最大的人寿保险公司,拥有由保险营销员、团险销售人员以及专业和兼业代理机构组成的中国最广泛的分销网络。本公司是中国最大的机构投资者之一,并通过控股的中国人寿资产管理有限公司成为中国最大的保险资产管理者。本公司亦控股中国人寿养老保险股份有限公司。公司提供个人人寿保险、团体人寿保险、意外险和健康险等产品与服务。本公司是中国领先的个人和团体人寿保险与年金产品、意外险和健康险供应商。截至2016年12月31日,本公司拥有约2.46亿份有效的长期个人和团体人寿保险单、年金合同及长期健康险保单,同时亦提供个人、团体意外险和短期健康险保单和服务。
+要点四:保险行业 2017年上半年,面对复杂的外部环境和激烈的市场竞争,本公司遵循“重价值、强队伍、优结构、稳增长、防风险”的经营方针,坚持价值导向,多措并举,加快业务发展,推进转型升级。上半年,公司总体运行安全稳健,业务较快增长,销售队伍量质齐升。本报告期内,公司实现保费收入人民币3,459.67亿元,同比增长18.3%。市场份额3约为19.38%,稳居行业第一。投资收益率稳步提高,业务质量和经营效益进一步提升,实现了稳中有进、稳中向好。
+要点五:历史悠久,品牌卓越 中国人寿的前身与中华人民共和国同龄,1949年10月经中央政府批准组建,是国内最早经营保险业务的企业之一。经改制重组后先后在境外和境内上市,成为国内首家在三地上市的金融保险企业,是《财富》“世界500强”和“世界品牌500强”企业中国人寿保险(集团)公司的核心成员。自成立以来,公司始终肩负中国寿险业探索者和开拓者的重任,并致力于打造世界一流的金融保险品牌,通过长期持续的品牌建设,中国人寿跻身世界知名品牌行列,品牌价值和品牌影响力不断提升。截至2017年12月31日,中国人寿品牌连续11年入选世界品牌实验室(WorldBrandLab)发布的“世界品牌500强”,并蝉联世界品牌实验室(WorldBrandLab)2017年(第十四届)《中国500最具价值品牌》排行榜第4位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国平安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险 标准普尔 富时罗素 互联医疗 独角兽 MSCI中国 区块链 证金持股 沪股通 IPO受益 养老概念 互联金融 上证180_ 上证50_ 央视50_ 融资融券 深圳特区 参股银行 参股券商 中字头 HS300_ AH股 广东板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资保险企业;监督管理控股投资企业的各种国内、国际业务;开展保险资金运用业务;经批准开展国内、国际保险业务;经中国保险监督管理委员会及国家有关部门批准的其他业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元金融业务 公司通过多渠道分销网络以统一的品牌,借助旗下平 安寿险、平安产险、平安养老险、平安健康险、平安银 行、平安信托、平安证券、平安资产管理及平安资产管 理(香港)等公司经营保险、银行、资产管理三大核心金 融业务,借助陆金所、平安付与万里通、平安好房、平 安健康互联网、平安金融科技等公司经营互联网金融业 务,向客户提供多种金融产品和服务。
+要点四:核心金融 "核心金融业务方面,寿险业务实现规模保费2,998.14亿元,代理人数量近87万,新业务价值持续提升 ;产险业务实现保费收入1,639.55亿元,综合成本率95.6%,业务品质保持优良 ;平安养老险年金等养老资产管理业务行业领先 ;保险资金净投资收益率稳步提升,总投资收 益率创近年新高 ;平安银行持续推动结构调整和经营模 式创新,逐步形成“专业化、集约化、综合金融、互联 网金融”的经营特色,平安银行“不一样”的品牌形象正 逐步深化 ;平安信托坚持优化业务结构,继续严控项目 风险,业务保持稳健增长 ;平安证券经营业绩创历史新 高,战略推进成效显著 ;平安资产管理的投资业绩表现 优秀,第三方资产管理业务快速发展"。
+要点五:互联网金融 继续贯彻“科技引领金融”理念, 一方面利用互联网升级综合金融模式,将线下的金融客 户迁徙到线上,扩大服务范围,提升服务效率和体验 ; 同时,围绕用户的“医、食、住、行、玩”需求,不断完 善线上平台,提供多种服务和产品,将金融嵌入线上生 活服务,逐步横向迁徙,实现“一个客户、一个账户、 多项服务、多个产品”,让平安成为客户的“财富管家、 健康顾问、生活助手”。截至2015年12月31日,平安互 联网用户规模约2.42亿,较年初增长75.9%,继续保持 高速增长。
+要点六:互联网金融业务 截至2016年12月31日,陆金所平台累计注册用户数2,838万,较上年末增长55.0%,活跃投资用户数740万,较上年末增长103.9%,2016年新增投资用户数445万,同比增长33.3%。通过陆金所平台交易的资产规模保持高速增长,2016年零售端交易量15,351.63亿元,同比增长137.5%,期末零售端资产管理规模达4,383.79亿元。截至2016年底,平安好医生自建医学团队近1,000人,提供7X24小时在线咨询服务;外部签约医生6万余人,提供复诊随诊服务;可提供挂号服务的合作医院近2,300家;合作体检机构超过700家,覆盖全国150余座城市;提供B2C全国供药和13座一线城市1小时O2O送药服务,涵盖近3万种日常用药及保健品。平安好医生累计为1.3亿用户提供健康管理服务,月活跃用户数峰值2,625万,日咨询量峰值44万。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008-10-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007-10-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-3-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险 蚂蚁概念 标准普尔 MSCI中国 沪股通 上证180_ 融资融券 机构重仓 HS300_ AH股 北京板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (一)投资并持有上市公司、保险机构和其他金融机构的股份;(二)监督管理控股投资企业的各种国内、国际业务;(三)国家授权或委托的政策性保险业务;(四)经中国保监会和国家有关部门批准的其他业务。(企业依法自主选择经营项目,开展经营活动;依法须经批准的项目,经相关部门批准后依批准的内容开展经营活动;不得从事本市产业政策禁止和限制类项目的经营活动。)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险业务 本集团分别通过人保财险和人保香港在中国境内和中国香港经营财产险业务。
+要点四:保险行业 根据证监会发布的《上市公司行业分类指引》(2012年修订),公司所处行业为“保险业”。
+要点五:新中国第一家全国性保险公司 中国人保创立于1949年10月,是新中国第一家全国性保险公司,是中国保险业发展历程中几乎所有重大改革创新的践行者或亲历者,本集团现采用“PICC中国人民保险”品牌。本集团的品牌在2008年被国家工商总局认定为中国驰名商标,在2009年由中央电视台举行的“新中国成立60周年——‘推动中国经济、影响民众生活的60个品牌’”发布盛典活动中成为唯一荣获“新中国60周年60个杰出品牌”殊荣的保险业品牌。
+要点六:跨板块业务协同 本集团已发展成为综合性保险金融集团,业务范围涵盖财产险、寿险、健康险、再保险、养老险、资产管理、金融科技、保险经纪等多个领域,并在银行、信托等非保险金融领域进行了战略布局,保险全产业链布局基本完成,为客户提供综合产品和服务。
+要点七:盈利能力突出 人保财险于2003年在香港联交所上市,成为中国国有金融企业境外上市第一股。2016年,人保财险实现原保险保费收入3,104.53亿元,成为亚洲首家年度保费超越3,000亿元的财产险公司。2017年和2018年1-3月,人保财险实现原保险保费收入分别为3,492.90亿元和1,060.61亿元。报告期内,人保财险在中国境内财产险公司中始终保持市场份额第一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008-11-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-6-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西金叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业教育 包装材料 在线教育 融资融券 参股券商 创投 陕西板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装装潢印刷品印刷、高新数字印刷技术及高新技术广告制作、高新技术产业、教育、文化产业、基础设施、房地产的投资(仅限自有资金)、开发;印刷投资咨询;自营和代理各类商品和技术的进出口业务(国家限定或禁止公司经营的商品及技术除外);国内贸易;经营进料加工业务和“三来一补”业务;经营对销贸易和转口贸易;化纤纺织、合金切片、凿岩钎具、卷烟过滤材料生产销售;新型化纤材料的研究、开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟草配套产业、教育产业、房地产业等 公司现有业务类别涵盖烟草配套产业、教育产业、房地产业等三大类。烟草配套产业主要产品为烟标、烟用丝束、咀棒的生产销售;教育产业主要业务为高等学历教育及其他教育教学,互联网智慧校园和教育投资业务;房地产业主要业务为房地产开发、销售、租赁、物业管理等。公司原有的贸易业务已转型为互联网智慧校园业务。
+要点四:烟草配套产业 烟标印刷产业:据智研咨询集团发布的《2016-2022年中国烟标印刷行业市场供需预测及投资战略研究报告》显示,我国烟标印刷行业总体发展趋势为(1)烟标产业集中度提升和高档化发展趋势;(2)烟标印刷工艺快速向绿色环保、健康安全的方向发展;(3)随着《烟草控制框架公约》和国家烟草总局“培养大型烟草集团的百牌战略”的实施,卷烟企业对于烟标的印刷要求更为严格。因此,能力提升和技术升级是烟标印刷企业当前面临的最迫切任务。烟用丝束及咀棒:因环保及健康的要求更为严格,预计政策对烟用丙纤丝束咀棒的限制使用将进一步加大。
+烟草题材 公司开展烟标等高档包装装潢产品的印刷,经过技术改进并引进大型凹印机后,年烟标生产能力为120万大箱左右,为西北地区烟标印刷龙头企业。“红延安”,“猴王”,“雪莲”等重点产品稳中有升,同时,相继开发了“天下秀”,“娇子”,“白沙”等一批新产品,并形成批量生产。金叶科技工业园新设备投产后,将大幅度提高烟标生产能力和设备的工艺技术水平,增强主业的竞争能力。
+要点十:教育产业 教育产业为公司的第二大支柱产业。西工大明德学院(股本金25400万元,占57%)已被列入陕西首批申报教育部教学评估验收的两所独立学院之一。2010年该学院招生2634人,2010届毕业生一次性就业率90.6%。2015年度,学院实现教育事业收入15525万元,净利润4529万元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟草公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯达半导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体 宁组合 碳化硅 第三代半导体 半导体概念 MSCI中国 新能源车 国产芯片 沪股通 上证380 中证500 风能 太阳能 智能电网 机构重仓 QFII重仓 浙江板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体芯片、电子元器件的设计、生产和销售。(上述经营范围不含国家规定禁止、限制外商投资和许可经营的项目)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGBT模块 以IGBT为主的功率半导体芯片和模块的设计研发和生产,并以IGBT模块形式对外实现销售。
+要点四:计算机、通信和其他电子设备制造业 根据中国证监会《上市公司行业分类指引》(2012年修订),公司所属行业为计算机、通信和其他电子设备制造业,行业代码为“C39”。
+要点五:技术优势 涵盖了IGBT芯片、快恢复二极管芯片和IGBT模块的设计、工艺开发、产品测试、产品应用等,在半导体技术、电力电子、控制、材料、力学、热学、结构等多学科具备了深厚的技术积累。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-9-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-9-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-7-30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1908,11 +2998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2951,10 +4041,924 @@
         <v>58</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="131.25" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="138" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="102.75" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="183" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="128.25" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="105" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="102" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="144.75" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="102.75" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="95.25" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="111" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="91.5" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="96" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="56.25" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="54" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="75" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="77.25" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="88.5" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="60.75" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="90.75" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="97.5" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E30" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2963,7 +4967,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
+++ b/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="632">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2591,6 +2591,54 @@
   </si>
   <si>
     <t>2021-7-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百济神州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-9-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>278.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物制品 单抗概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究、开发、生产以及商业化创新型药物 百济神州是一家全球性、商业阶段的生物科技公司,专注于研究、开发、生产以及商业化创新型药物。公司产品主要为源头创新、自主研发的创新型药物。通过自主研发与合作开发相协同的方式,公司不断扩充产品管线。截至招股说明书日,公司有百悦泽泽、百泽安安和百汇泽泽3款药品获得中国国家药监局附条件批准上市。
+要点三:医药制造业 根据国家统计局《战略性新兴产业分类(2018)》,发行人属于“4.1.1、生物药品制品制造”和“4.1.2、化学药品与原料药制造”;根据中国证监会颁布的《上市公司行业分类指引》(2012年修订),发行人属于“C27医药制造业”;根据《国民经济行业分类标准(GB/T4754-2017)》,发行人属于“C27医药制造业”。
+要点四:拥有全方位一体化平台 自2010年成立以来,公司已由一家研发型生物科技公司成长为全面整合的一体化全球性生物科技公司,拥有涵盖临床前研究、临床开发、生产及商业化等创新药开发全周期的能力。截至本招股意向书签署日,公司拥有一支超过650人的研究团队和先进的自主研发技术平台,已成功将11款临床前药物候选物推进到临床阶段。公司拥有超过2,100人组成的全球临床开发团队,其中超过1,000人在中国,同时在美国、欧洲和澳大利亚都有临床团队布局。公司已在中国苏州和广州分别建立了先进的小分子及大分子生物药生产基地以支持产品开发及商业化。
+要点五:储备丰富、进度领先、快速扩张的在研药品管线 公司早期临床阶段自主研发药物包括ociperlimab(抗TIGIT单抗)、lifirafenib(RAF抑制剂)、BGB-11417(Bcl-2小分子抑制剂)、BGB-A445(OX40激动性抗体)、BGB-15025(HPK1抑制剂)等8款产品,公司正在就其开展单药或联合临床试验,并积极探索与百悦泽泽(BRUKINSAA)、百泽安安等核心产品的联合用药潜力。公司还有超过50项正在进行的临床前研究项目,其中多个具有同类首创的潜力,上述研发管线预计将为公司产品矩阵的不断拓展以及持续创新提供动力。
+要点六:经验丰富、远见卓识的全球化管理团队 公司的创始人王晓东博士是倍受尊敬的癌症领域科学家,是美国国家科学院院士、中国科学院外籍院士和北京生命科学研究所第一任共同所长。公司的联合创始人、首席执行官及董事会主席JohnV.Oyler(欧雷强)先生是成功的创业家,拥有成功的创业与企业管理经验。公司总裁、首席运营官兼中国区总经理吴晓滨博士为前辉瑞中国总经理和辉瑞基本健康PfizerEssentialHealth大中华区的区域总裁,拥有超过25年的制药行业经验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靳先生推荐过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2669,7 +2717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2697,6 +2745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2998,11 +3047,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3017,8 +3066,8 @@
     <col min="8" max="11" width="27.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="34.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="56.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.625" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="12.625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4803,7 +4852,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="88.5" customHeight="1">
+    <row r="49" spans="1:13" ht="88.5" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>578</v>
       </c>
@@ -4841,7 +4890,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="60.75" customHeight="1">
+    <row r="50" spans="1:13" ht="60.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>592</v>
       </c>
@@ -4879,7 +4928,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="90.75" customHeight="1">
+    <row r="51" spans="1:13" ht="90.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>600</v>
       </c>
@@ -4917,7 +4966,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="97.5" customHeight="1">
+    <row r="52" spans="1:13" ht="97.5" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>608</v>
       </c>
@@ -4951,14 +5000,121 @@
       <c r="K52" s="4" t="s">
         <v>611</v>
       </c>
+    </row>
+    <row r="53" spans="1:13" ht="135.75" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E30" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
+++ b/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="804">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2639,6 +2639,760 @@
   </si>
   <si>
     <t>靳先生推荐过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空机场 上海板块 标准普尔 富时罗素 MSCI中国 证金持股 沪股通 上证180_ 融资融券 机构重仓 HS300_ 免税概念 上海自贸 长江三角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为国内外航空运输企业及旅客提供地面保障服务,经营出租机场内航空营业场所、商业场所和办公场所,国内贸易(除专项规定);广告经营,货运代理、代理报关、代理报检业务,长途客运站,停车场管理及停车延伸服务,经营其它与航空运输有关的业务;综合开发,经营国家政策许可的其它投资项目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空运输地面服务 公司运营管理浦东机场,目前经营业务主要分为航空性业务和非航空性业务,航空性业务指与飞机、旅客及货物服务直接关联的基础性业务;其余类似延伸的商业、办公室租赁、值机柜台出租等都属于非航空性业务。
+要点四:民航运输业 党的十九大报告作出了中国特色社会主义进入新时代的重大判断,这是我国发展新的历史方位。2018年民航工作会议明确了新时代民航强国建设的阶段特征,并对各个发展阶段的任务和措施作出了战略部署。到2020年,实现从航空运输大国向航空运输强国的跨越;到2035年,实现从单一的航空运输强国向多领域民航强国的跨越;到本世纪中叶,实现从多领域民航强国向全方位民航强国的的跨越。
+要点五:优越的地理位置和丰富的市场资源 上海是我国最大的经济中心城市,位于亚洲、欧洲和北美大三角航线的端点,飞往欧洲和北美西海岸的航行时间约为10小时,飞往亚洲主要城市的时间在2至5小时内,航程适中。上海地处中国东部沿海经济发展带与长江经济带的交汇处,直接服务区长三角地区是中国目前经济发展速度最快、经济总量规模最大、最具有发展潜力的经济板块;间接服务区2小时飞行圈资源丰富,包括中国80%的前100大城市、54%的国土资源和90%的人口、93%的GDP产出地和日本、韩国的大部分地区。长三角地区已经成为了世界上第6大城市群,财富500强中有400多家企业已经在这里进行了投资,机场半径300公里的腹地内覆盖了长三角地区的8个主要工业、科技园区,相关产业航空关联度高,主要产业为电子信息、汽车、石化、成套设备、精品钢材和生物医药等。
+要点六:枢纽建设初具规模,具备打造世界级机场条件 浦东机场三期扩建工程项目位于浦东机场内,工程主要建设内容包括飞行区工程、航站区工程和生产辅助设施工程,卫星厅工程是该工程的主体工程,为目前世界上最大单体卫星厅。卫星厅于报告期内建成启用,将持续提升浦东机场运行服务品质,更好服务航空公司高效枢纽运作,更好服务旅客便捷出行,可满足年旅客吞吐量8,000万人次的运行需求,实现上海航空枢纽建设新的里程碑。
+要点七:航空运量跻身世界超大型枢纽机场“俱乐部” ,国内优势明显 2019年,浦东机场依然保持平稳的增长态势,全年浦东机场旅客吞吐量全国排名第二。航空运量继续跻身世界超大型枢纽机场“俱乐部”,其中国际和地区旅客量继续保持全国第一。浦东机场积极推进枢纽建设,持续优化航线网络结构,努力提升国际航线网络通达性,重点发展国际远程航线。2019年浦东机场出入境旅客吞吐量超过50%,继续巩固内地最大空中口岸地位。
+要点八:国际货运枢纽 继UPS的国际航空转运中心07年8月在浦东机场西货运区正式破土动工，另一大快递巨头DHL也将落子浦东机场，浦东机场将建设5条跑道和拥有38个全货机机位的西货运区，后者将与上海市规划中的国际空港保税物流园区相连，冲刺国际货运枢纽。
+要点九:参股浦东机场航空油料公司 上海浦东国际机场航空油料有限责任公司注册资本为3.5亿元,公司持股比例为40%。该公司经营范围是建设与经营浦东国际机场供油设施及相关项目,航空油料的购销与储运,提供相关产品的技术服务(涉及许可经营的凭许可证经营)。截至报告期末,该公司总资产为658,532.31万元,净资产为408,098.33万元,2017年因业务量增长、国际油价稳步上升和内部经营管理不断优化等因素叠加,业绩实现大幅增长,全年实现营业收入1,800,994.09万元,净利润136,112.61万元。
+要点十:机场广告 上海机场广告有限公司的注册资本为2,000万元,公司持股比例为51%。该公司的经营范围为广告设计、制作、代理、发布及相关业务(涉及许可经营的凭许可证经营)。截至报告期末,该公司总资产为71,390.79万元,净资产为71,135.26万元,2017年实现净利润35,480.52万元。
+要点十一:机场地面服务 上海国际机场地面服务有限公司注册资本3.6亿元,公司持股比例为41%。该公司的经营范围是旅客和行李服务(含行李转运服务)、票务服务、平衡配载、机坪服务、航机客舱清洁、货物和邮件运载、航务签派服务、机务航线维护等其他航空地面服务(依法须经批准的项目,经相关部门批准后方可开展经营活动)。截至报告期末,该公司总资产为57,427.94万元,净资产为39,199.63万元,2017年实现营业收入74,605.07万元,净利润1,562.77万元。
+要点十二:签订免税店经营权转让合同 未来7年保底销售提成预计410亿元 2018年9月7日公告,公司决定与日上上海签订上海浦东国际机场免税店项目经营权转让合同,自2019年1月1日起始至2025年12月31日止,日上上海将在浦东机场经营1.69万平方米的免税店。合同的顺利实施预计将对2019年至2025年营业收入产生积极影响,预计2019年-2025年每年保底销售提成35.25亿元、41.58亿元、45.59亿元,62.88亿元、68.59亿元、74.64亿元、81.48亿元,合计410亿元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">张坤曾经买过但是受疫情影响暂时回不来
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">张坤 易方达优质精选混合(QDII)(110011)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-9-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002007</t>
+  </si>
+  <si>
+    <t>华兰生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-8-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物制品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电行业 浙江板块 融资融券 传感器 华为概念 冷链物流 新能源车 智能机器 地热能 长江三角 铁路基建 核能核电 创投 节能环保 军工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷通用设备、家用电力器具部件、金属材料的制造、销售和服务,暖通空调工程的设计、技术咨询及系统工程安装;机械工程、电子、通信与自动控制的技术研发与技术咨询;机器设备及自有房屋租赁;实业投资;企业管理咨询,经营进出口业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷元器件、制冷设备的研发、生产和销售 公司主要业务包括制冷元器件、制冷设备的研发、生产和销售,以及提供节能服务系统解决方案。制冷配件业务主要产品包括四通阀、截止阀、电子膨胀阀、电磁阀、管路集成组件、储液器、换热器等产品,广泛应用于家用空调、商用空调等领域;制冷设备业务主要产品包括冷水机组、单元机、核电暖通及特种空调系统机组、空调末端等,主要应用于商业楼宇、核电站及特种行业等领域;节能业务主要是提供工业余热利用等解决方案。
+要点四:制冷配件产业 2019年制冷空调行业周期性放缓延续,家用空调年累计产量15,280万台,同比增长1.21%,年累计销量15,062万台,同比下滑0.74%。在终端需求疲软、库存高企、行业竞争不断加剧的态势下,2020年新能效等级的实行也将进一步肃清空调行业格局。未来公司将继续以节能型、智能型产品为突破,调整产品结构,加快开拓商用空调元器件领域,加大布局高端产品,增加新产品、新市场、新领域的比重,提升企业经济效益。根据中国汽车工业协会数据,2019年国内新能源汽车累计产销量分别为124万辆和121万辆,同比下降2.3%和4.0%,而第四季度销量跌幅的收窄也预示着新能源汽车补贴退坡、燃油车国五去库存消费需求挤压等影响在逐步消化。2020年财政部提出支持新能源汽车产业发展,政策面有回暖趋势,随着特斯拉及传统车企的发力,有望促进2020年新能源汽车产销共振。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">没关注过，怎么感觉一般呢
+张坤 易方达优质精选混合(QDII)(110011)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏泊尔</t>
+  </si>
+  <si>
+    <t>2021-9-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-7-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电行业 浙江板块 标准普尔 富时罗素 深证100R 深股通 融资融券 深成500 QFII重仓 HS300_ 长江三角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房用具、不锈钢制品、日用五金、小型家电及炊具的制造、销售;经营进出口业务(范围详见《中华人民共和国进出口企业资格证书》);技术开发;电器的安装维修服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明火炊具、厨房小家电、厨卫电器、环境家居电器 苏泊尔的主要业务包括明火炊具、厨房小家电、厨卫电器、生活家居电器四大领域:(1)明火炊具品类主要产品:炒锅、压力锅、煎锅、汤奶锅、蒸锅、陶瓷煲、水壶、刀具、铲勺、保温提锅、水杯、厨房工具、保鲜盒等;(2)厨房小家电品类主要产品:电饭煲、电压力锅、电磁炉、豆浆机、电水壶、榨汁机、电炖锅、电蒸锅、电火锅、料理机、煎烤机、面包机、面条机、电炸锅等;(3)厨卫电器品类主要产品:油烟机、燃气灶、消毒柜、净水机、嵌入式蒸烤箱等;(4)生活家居电器类主要产品:空气净化器、挂烫机、吸尘器和电熨斗等。
+要点四:厨卫家电 近年来中国经济已经步入新常态,在经济整体增长趋缓的同时,消费对GDP的贡献持续提升,连续四年成为经济增长的第一驱动力。同时根据麦肯锡全球研究院预测,到2020年中国中产及富裕的家庭数量占比将超过一半,消费升级将为具有创新能力的品牌企业带来巨大的发展机遇。同时,中国仍处于加快城镇化的阶段,随着国家城镇化建设的推进以及三四级市场消费者收入水平的提高,三四级市场将会成为未来行业的一个重要增长渠道。
+要点五:卓越的产品创新能力 苏泊尔长期以来专注于炊具及厨房小家电领域的产品研发、制造与销售,对中国消费者的需求有着敏锐的观察和科学的 研究,通过系统化的产品创新体系,源源不断的向市场提供创新产品。
+要点六:稳定的经销商网络 苏泊尔拥有稳定的经销商团队,长期以来苏泊尔与经销商保持着良好的互利合作关系。相对较高的网点覆盖率和覆盖密 度确保了苏泊尔产品能源源不断的输送到消费者手中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你知道别人肯定也知道…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600872</t>
+  </si>
+  <si>
+    <t>中炬高新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-9-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品饮料 广东板块 标准普尔 富时罗素 养老金 MSCI中国 沪股通 上证180_ 融资融券 QFII重仓 HS300_ 调味品概念 稀土永磁 参股银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市基础设施的投资,房地产开发,物业管理,二次供水服务。高新技术产业投资开发,实业投资,设备租赁,技术咨询、信息咨询。销售工业生产资料(不含金、银、小轿车及化学危险品)、百货、五金、交电、化工(不含化学危险品)、纺织、针织品、建筑材料。自营和代理除国家组织统一联合经营的出口商品和国家实行核定公司经营的进口商品以外的其它商品及技术的进出口业务,经营进料加工和‘三来一补’业务、经营对销贸易和转口贸易(按[99]外经贸政审函字588号文经营)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调味食品、房地产开发、工业园区开发管理及汽车配件等 中炬高新是全国国家级开发区的首家上市公司,一直致力于从事高新技术产业投资,国家级开发区建设管理。经过二十多年的发展,目前公司所从事的业务包括调味食品、房地产开发、工业园区开发管理及汽车配件等。其中,调味食品行业的收入及效益规模,占公司较大的比重。
+要点四:调味食品行业 随着目前消费者需求的不断提升,行业正处于产品不断细分、市场不断集中的高速成长阶段,加之餐饮业的蓬勃发展,也带动了调味品需求市场的不断扩张,消费量稳步增长。近几年,调味品行业对比以前集中度有了明显的变化。行业内拥有领先地位的品牌企业在依靠着各种科学技术、新设备、新工艺、创新产品,来得到消费者的认可。未来几年行业也将在中国人口红利、经济发展红利等有利条件影响下,继续保持健康稳定的发展;另一方面品牌企业伴随着社会与政府对食品安全、环境保护等要求提高,不断在细分领域内进行创新,具有品牌、渠道、研发、规模等优势的企业将更具备发展前景与空间,企业之间的差距将进一步扩大。我国人均调味品消费逐渐提高,促使行业向高端化发展,促使着调味品企业自身需要不断改进与创新,让调味品行业保持健康可持续的发展。
+要点五:调味食品行业领先优势 美味鲜公司是国内调味品行业领先企业、产品产量、销售额都居全国前列。在发展中,形成了自有品牌、人才发展、市场认同感、渠道网络、技术领先、质量领先、地理位置等一系列竞争优势,促成公司在未来的发展中保持领先。
+要点六:房地产业务的区位优势 公司拥有的商住地全部位于城轨中山站北侧,是中山市规划建设的岐江新城的核心区域;离即将建设深中通道、中(山)开(平)高速中山站出口仅一步之遥,公司房地产业务具有较大的区位优势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600276</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-9-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学制药 江苏板块 茅指数 标准普尔 富时罗素 MSCI中国 证金持股 沪股通 上证180_ 上证50_ 央视50_ 融资融券 股权激励 HS300_ 超级真菌 单抗概念 医疗器械概念 中药概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片剂(含抗肿瘤药)、口服溶液剂、混悬剂、无菌原料药(抗肿瘤药)、原料药(含抗肿瘤药)、精神药品、软胶囊剂(含抗肿瘤药)、冻干粉针剂(含抗肿瘤药)、粉针剂(抗肿瘤药、头孢菌素类)、吸入粉雾剂、口服混悬剂、口服乳剂、大容量注射剂(含多层共挤输液袋、含抗肿瘤药)、小容量注射剂(含抗肿瘤药、含非最终灭菌),生物工程制品(聚乙二醇重组人粒细胞刺激因子注射液)、硬胶囊剂(含抗肿瘤药)、颗粒剂(抗肿瘤药)、粉雾剂、膜剂、凝胶剂、乳膏剂的制造;中药前处理及提取;医疗器械的研发、制造与销售;一般化工产品的销售;自营和代理各类商品及技术的进出口业务,但国家限定公司经营或禁止进出口的商品和技术除外。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品研发、生产和销售 公司主营业务涉及药品研发、生产和销售,主要产品涵盖抗肿瘤药、手术麻醉类用药、特殊输液、造影剂、心血管药等众多领域。
+要点四:医药行业 2019年医药制造业规模以上工业企业实现营业收入23908.6亿元,同比增长7.4%,高于全国规模以上工业企业同期整体水平3.6个百分点。发生营业成本13505.4亿元,同比增长5.7%,高于全国规模以上工业企业同期整体水平1.6个百分点。实现利润总额3119.5亿元,同比增长5.9%,高于全国规模以上工业企业同期整体水平9.2个百分点。医药制造营业收入利润率约为13.05%,较上年同期提升0.3个百分点,高于全国规模以上工业企业同期整体水平7.19个百分点。
+要点五:技术优势 经过多年的发展,公司打造了一支拥有3400多人的研发团队,先后在连云港、上海、成都和美国设立了研发中心和临床医学部,建立了国家级企业技术中心和博士后科研工作站、国家分子靶向药物工程研究中心、国家“重大新药创制”专项孵化器基地,坚持每年投入销售额10%以上的研发资金。几年来,公司先后承担了44项“国家重大新药创制”专项项目、23项国家级重点新产品项目及数十项省级科技项目,先后申请了874项发明专利,其中335项国际专利申请。创新药艾瑞昔布、阿帕替尼、硫培非格司亭、吡咯替尼、卡瑞利珠单抗和甲苯磺酸瑞马唑仑已获批上市。在创新药开发上,已基本形成了每年都有创新药申请临床,每1-2年都有创新药上市的良性发展态势。公司技术创新能力在国内位列前茅,研发团队实力明显。
+要点六:市场优势 经过多年发展,公司建立了一支高素质、专业化的营销队伍,并在原有市场经验的基础上不断创新思路,推进复合销售模式,加强学术营销力度,建立和完善分专业的销售团队,加强了市场销售的广度和深度。
+要点七:品牌优势 公司本着“诚实守信,质量第一”的经营原则,致力于在抗肿瘤药、手术麻醉用药、特色输液、造影剂、心血管药等领域的创新发展,并逐步形成品牌优势和较高的知名度,其中抗肿瘤药、手术麻醉用药和造影剂销售名列行业前茅。
+要点八:抗肿瘤药物龙头 公司是抗肿瘤药龙头企业,是国内最大的抗肿瘤药和手术用药的研究和生产基地、国家火炬计划新医药研究开发及产业化基地的骨干企业之一、"国家863计划成果产业化基地"。公司抗肿瘤药销售已连续7年在国内排名第一,市场份额达12%以上,手术用药销售也名列行业前茅。抗肿瘤药物品种较多,包括多西他赛、奥沙利铂等大品种,多西他赛市场占有率超过原研公司赛诺菲成为市场第一。共有5个过亿元抗肿瘤药物。2014年11月,1.1类新药阿帕替尼获新药批件,未来销售规模有望超过15亿;卡培他滨,抗肿瘤药,2013年3月通过现场检查,目前罗氏在中国销售规模12亿。
+要点九:麻醉药业务 公司是国家指定的20多家麻醉药生产企业之一。主攻镇静中的吸入麻醉(七氟烷)、肌松药(顺阿曲库胺)、镇静催眠(右美托咪啶)。公司麻醉业务重点在吸入麻醉剂，七氟烷市场份额位居首位。除阿曲库铵和七氟烷占有较高市场份额外，未来还有M6G和甲苯磺酸瑞马唑仑两个重磅药上市：M6G是吗啡的活性代谢产物，适用癌痛和术后镇痛，镇痛效果是吗啡10倍，副作用比吗啡小，市场规模有望达到5亿，预计2019年上市；甲苯磺酸瑞马唑仑是静脉麻醉药，效果比丙泊酚佳，适应症扩展至镜检时镇痛、术前麻醉和ICU镇静，预计2018年上市，市场规模有望达到20亿。
+要点十:重磅新药艾瑞昔布 公司研制的国家一类新药“艾瑞昔布片及原料”于2011年6月获得药监局颁发的《新药证书》及《药品注册批件》。该药是新一代非甾体抗炎类创新药，用于缓解骨关节炎的疼痛症状，艾瑞昔布已获批上市，是公司第一个获批上市的国家一类新药。
+要点十一:公司行业地位 恒瑞医药是国内最大的抗肿瘤药、手术用药和造影剂的研究和生产基地之一。公司产品涵盖了抗肿瘤药、手术麻醉类用药、特色输液、造影剂、心血管药等众多领域,已形成比较完善的产品布局,其中抗肿瘤、手术麻醉、造影剂等领域市场份额在行业内名列前茅。2017年,公司获得了中国医药工业信息中心评选的“2017中国医药研发产品线最佳工业企业20强”、中国医药企业管理协会评选的“2017中国医药上市公司研发创新10强”和“2017中国医药上市公司最具投资价值10强”等多项荣誉。
+要点十二:注射用紫杉醇获得药品注册批件 2018年9月6日公告,公司近日收到国家药监局就公司注射用紫杉醇药品核准签发的《药品注册批件》。注射用紫杉醇(白蛋白结合型)是一种抗微管药物,用于治疗联合化疗失败的转移性乳腺癌或辅助化疗后6个月内复发的乳腺癌。注射用紫杉醇(白蛋白结合型)2017年全球销售额约为12.8亿美元,中国销售额约为2.7亿美元。截至目前,公司在该产品研发项目上已投入研发费用约为3429万元人民币。
+要点十三:SHR-1702注射液获得药物临床试验批件 2018年10月9日公告,公司及子公司上海恒瑞医药有限公司、苏州盛迪亚生物医药有限公司近日收到国家药品监督管理局核准签发的关于SHR-1702注射液《药物临床试验批件》。该产品拟用于晚期恶性肿瘤的治疗。经查询,目前国外有多个同类靶点产品处于临床试验阶段,国内未有同类靶点产品处于临床试验阶段。国内外尚无同类靶点产品获批上市,亦无相关销售数据。截至目前,公司在该产品研发项目上已投入研发费用约为2497万元人民币。
+要点十四:子公司抗癌药将于近期开展临床试验 2018年12月10日公告,公司及子公司苏州盛迪亚生物医药有限公司近日收到国家药品监督管理局(以下简称国家药监局)核准签发的《临床试验通知书》,SHR2150胶囊将于近期开展I期临床试验。据悉,SHR2150胶囊拟用于晚期恶性肿瘤的治疗。经查询,目前国外有以肿瘤为适应症的同类产品处于临床试验阶段,国内外尚无以肿瘤为适应症的口服同类产品获批上市,亦无相关销售数据。该产品项目已投入研发费用约为1875万元人民币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做肿瘤药的应该不错
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复星医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-3-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-8-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学制药 上海板块 标准普尔 富时罗素 MSCI中国 证金持股 沪股通 上证180_ 上证50_ 央视50_ 融资融券 机构重仓 HS300_ AH股 CAR-T细胞疗法 肝素概念 流感 医疗美容 分拆预期 青蒿素 互联医疗 独角兽 单抗概念 免疫治疗 IPO受益 病毒防治 医疗器械概念 中药概念 长江三角 生物疫苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物化学产品,试剂,生物四技服务,生产销售自身开发的产品,仪器仪表,电子产品,计算机,化工原料(除危险品),咨询服务;经营本企业自产产品及相关技术的出口业务,经营本企业生产、科研所需的原辅材料、机械设备、仪器仪表、零配件及相关技术的进口业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品制造与研发 公司主要从事药品制造与研发、医疗服务、医学诊断与医疗器械、医药分销与零售,其中以药品制造与研发为主,并以医疗服务为发展重点。
+要点四:医药制造行业 2017年,中国医药制造行业整体处于变革期,在新医改政策实施下,两票制落地、分级诊疗、医保支付制度改革试点、医保目录更新、国家药品价格谈判、加快临床试验管理与全生命周期管理相关政策、加入ICH体系、互联网+医疗、精准医疗计划等政策持续在全国各地推进,引导行业向更高效、更合理的方向发展,推动实现产业转型升级,因此,中国医药制造企业正面临前所未有的机遇和挑战;根据IQVIA发布的中国医院市场(百张床位以上医院)数据显示,2017年作为中国医药行业变革年,行业整体保持增长态势,平均增长率为约3.3%。
+要点五:完善的产品布局 本集团已在中国药品市场最具潜力和成长力的六大疾病领域(心血管、代谢及消化系统、中枢神经系统、血液系统、抗感染、抗肿瘤)形成了比较完善的产品布局。本集团核心医药产品在各自的细分市场领域都具有领先优势。2015 年度,本集团销售额过亿的制剂产品和系列已达到19个。
+要点六:研发优势 本集团已形成国际化的研发布局和较强的研发能力,通过在上海、重庆、美国旧金山、台湾的布局建立互动一体化的研发体系,在小分子化学创新药、大分子生物类似药、高价值仿制药、特色制剂技术等领域打造了高效的研发平台。报告期内,本集团还加强了抗肿瘤药物的产品布局,经过几年的研发积累,截至报告期末,本集团在研新药、仿制药、生物类似药及疫苗等项目161项,40个项目正在申报进入临床试验、13个项目正在进行临床试验、41个项目等待审批上市,预计这些在研产品将为本集团后续经营业绩的持续提升打下良好基础。
+要点七:具备国际化的制造能力 本集团是国内较早启动国际化发展战略的医药企业,目前已初步具备了国际化的制造能力,并已有数条生产线通过了相关国际认证,部分制剂和原料药产品已成规模地进入国际市场。在全球市场,本集团已成为抗疟药物研发制造的领先者。重庆药友的固体制剂生产线已通过加拿大及美国FDA认证、湖北新生源的膳食补充剂类氨基酸通过FDA认证。
+要点八:医药分销与零售板块 2015年年初,集团与国药控股完成对包括复星药业、复美大药房、金象大药房在内的药品分销与零售业务的整合、优化资源配置。年报期内,集团参股的国药控股继续加速行业整合,扩大医药分销网络建设,保持业务快速增长。2015年,国药控股实现营业收入2270.69亿元、净利润56.96亿元、归属净利润37.61亿元,分别较 2014年增长13.46%、25.15%和 30.81%。截至报告期末,国药控股下属分销网络已覆盖中国 31个省、自治区、直辖市;其直接医院客户数达13310家(仅指分级医院,包括最大、最高级别的三级医院1847家)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000333</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-6-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-2-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电行业 广东板块 茅指数 标准普尔 深证100R MSCI中国 深股通 证金持股 央视50_ 融资融券 深成500 股权激励 机构重仓 QFII重仓 HS300_ 鸿蒙概念 分拆预期 工业互联 超级品牌 新能源车 国产芯片 工业4.0 智能家居 医疗器械概念 智能机器 物联网 参股银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 生产经营家用电器、电机及其零部件;中央空调、采暖设备、通风设备、热泵设备、照明设备、燃气设备、压缩机及相关通用设备、专用设备、家用空调设备及其零部件的研发、制造、销售、安装、维修及售后服务;从事家用电器、家电原材料及零配件的进出口、批发及加工业务(不设店铺,不涉及国营贸易管理商品,涉及配额、许可证管理商品的按国家规定办理);信息技术服务;为企业提供投资顾问及管理服务;计算机软件、硬件开发;家电产品的安装、维修及售后服务;工业产品设计;酒店管理;广告代理;物业管理;企业所需的工程和技术研究、开发及其销售和推广;对金融业进行投资。(经营范围涉及行政许可的项目须凭有效许可证或批准证明经营)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨消费电器、暖通空调、机器人及自动化系统 美的是一家横跨消费电器、暖通空调、机器人及自动化系统的全球化科技集团,提供多元化的产品种类,包括以厨房家电、冰箱、洗衣机及各类小家电为核心的消费电器业务;以家用空调、中央空调、供暖及通风系统为核心的暖通空调业务;以库卡集团、安川机器人合资公司等为核心的机器人及自动化系统业务。截止2016年12月31日,美的全球拥有约12万名员工,拥有约200家子公司及10个战略业务单位;2017年1月成为全球领先机器人公司德国库卡集团最主要股东(约95%)。
+要点四:家电行业 在全球经济贸易增速显著放缓、中美贸易冲突全面加剧、国内经济增速回落幅度、房地产市场低位运行等内外因素的共同影响下,据中国家用电器研究院和全国家用电器工业信息中心发布的数据显示,2019年家电行业国内市场零售规模为8,032亿元,同比下降2.2%;家电行业出口规模为3,034亿元,同比增长为0.9%。2020年新冠疫情之下,预期家用电器行业面临的内外不确定性与波动将有所增加,但从中长期来看,产业结构升级、居民收入稳定、消费多元化、国家政策对绿色、智能产业发展引导以及家电行业产品标准的升级都带来了新的机会点和增长点。
+要点五:全球家电行业龙头 美的集团是国内唯一全产业链、全产品线的家电生产企业,公司以行业领先的压缩机、电控、磁控管等家电核心部件研发制造技术为支撑,结合强大的电机等上游零部件生产及物流服务能力,形成了包括关键部件与整机研发、制造和销售为一体的完整产业链。公司各主要家电品类的领导地位,一方面让公司可以较竞争对手更能够提供全面且具竞争力的产品组合,另一方面也为公司在品牌效应、渠道议价、用户需求挖掘及研发投入多方面实现内部协同效应。面向家电智能化发展趋势,家电间的兼容、配合及互动变得越为重要,拥有全品类的家电产品线的美的在构建统一、兼容的智慧家居平台,向用户提供一体化的家庭解决方案方面已具备领先优势。
+要点六:技术创新优势 美的着力于构建具有全球竞争力的全球研发布局和多层级研发体系,具备以用户体验及产品功能为本位的世界一流研发技术投入及实力,过去5年投入研发资金超过200亿元,已在全球8个国家设立了17个研究中心,研发人员整体超过10,000人,外籍资深专家超过300人,并保持与清华、浙大、华中科技、美国MIT,UCB,Stanford在内的30多个国内外科研机构的紧密合作,通过引进外部团队进行产业孵化,进一步提升美的研发实力。据汤森路透发布的《2016全球创新报告》,美的位列家电领域全球排名创新机构首位及厨房电器子领域亚洲创新机构首位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000423</t>
+  </si>
+  <si>
+    <t>东阿阿胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-6-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-3-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中药 山东板块 标准普尔 富时罗素 MSCI中国 深股通 证金持股 央视50_ 融资融券 深成500 机构重仓 QFII重仓 超级品牌 健康中国 电商概念 中药概念 创投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营范围 实业投资、股权投资;中药合剂、胶剂、煎膏剂、颗粒剂、硬胶囊剂、口服液的生产、销售;畜牧养殖、收购、屠宰、加工销售;中药材种植、生产、收购、加工销售;批准范围的商品进出口业务;化工产品(不含易燃易爆危险品)销售;许可证范围内保健食品的生产、销售;受委托保健食品的生产、销售;许可证范围内食品的生产、加工、销售;许可证范围内食品用塑料包装、容器、工具等制品的生产、销售;自有资产的投资、租赁、转让、收益;在经核准的区域内直销经核准的产品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿胶及阿胶系列产品的研发、生产和销售 公司主要从事阿胶及阿胶系列产品的研发、生产和销售业务,是中国最大的阿胶生产企业,是阿胶行业标准的制定者。
+要点四:医药保健行业 公司所处的医药保健行业是典型的弱周期行业,随着人们收入水平的增加、人口结构的变化、政府政策支持以及人们医疗保健意识的增强,医疗保健行业的需求将不断增长。
+要点五:品牌优势 “阿胶,出东阿,故名阿胶”,东阿阿胶地处道地正宗阿胶发源地——山东省东阿县,拥有广泛认知的心智资源优势,为行业第一品牌,市场领先优势明显。东阿阿胶为国家非物质文化遗产代表性传承人企业,拥有无可替代的品牌资源优势。
+要点六:功效优势 阿胶为传统补益类中药,收录于1963年至今历版《中国药典》,其“补血滋阴、润燥止血”等功效已在临床应用中得到充分验证。多年来,东阿阿胶十分注重阿胶与现代医学的结合,与国内外多家知名科研院所及高校开展合作,进行了阿胶在补血止血、妇科备孕、防雾霾引起的肺损伤、地中海贫血等疾病、复方阿胶浆气血双补和用于登革热的临床应用和药理机制研究,并在阿胶体外研究与动物模型研究上取得了补血美容、备孕保胎、提高怀孕率等大量研究成果。目前,公司逐步向社会系统性地公开阿胶研究成果,并通过医生、专家等权威人士进行学术推广。同时,公司也在持续推进阿胶的文化和价值传播,让阿胶产品更加贴近消费者,让消费者更加了解阿胶产品及其功效。
+要点七:原料掌控优势 在山东、内蒙古、辽宁等地建立了毛驴药材标准养殖示范基地,在多个国家建立了采购网络,实现控制与涵养并举,确保公司可持续发展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石化</t>
+  </si>
+  <si>
+    <t>3.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-3-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油行业 北京板块 标准普尔 富时罗素 MSCI中国 证金持股 沪股通 上证180_ 上证50_ 融资融券 预盈预增 机构重仓 中字头 HS300_ AH股 碳交易 氢能源 天然气 一带一路 国企改革 页岩气 油价相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非煤矿山(石油、天然气等)、危险化学品(乙烯、丙烯、丁二烯、石脑油等)、重油、橡胶及其他石油化工原料和产品的生产、储存、管道运输、陆路运输、水路运输、销售;石油炼制;汽油、煤油、柴油的批发业务及零售(限分支机构经营)业务;天然气化工、煤化工的生产、储存、运输、销售;润滑油、燃料油、溶剂油、沥青的销售;化肥生产;加气站经营,压缩天然气(CNG)、液化天然气(LNG)、液化石油气(LPG)、城市燃气销售;加电站经营;石油石化机器、设备的制造、监造、安装;石油钻采设备、工具、仪器仪表制造;石油石化原辅材料、设备及零部件的采购、销售;技术及信息、替代能源产品的研究、开发、应用、咨询服务;电力、蒸汽、水务和工业气体的生产销售;农、林、牧产品批发;日用百货便利店经营;针织服装及家庭用品批发与零售;文化、体育用品及器材专门批发与零售;食品、饮料、烟草制品的销售;医药及医疗器材批发与零售;汽车、摩托车及零配件专门零售;汽车、摩托车修理与维护、技术培训;机械设备、五金产品、电子产品、家用电器批发与零售;家具及室内装饰材料专门零售;货摊、无店铺及其他零售业;综合零售;住宿餐饮业;食品及食品添加剂制造;居民服务;运输代理业务;仓储业;自有房地产经营活动;储气库设施租赁;房屋、车辆、设备、场地租赁;机械设备租赁;媒体、广告,佣金代理;保险经纪与代理服务;金融信托与管理服务;电子商务;自营和代理各类商品和技术的进出口(国家限定公司经营或禁止进出口的商品和技术除外);承包境外机电、石化行业工程和境内国际招标工程;上述境外工程所需的设备材料出口;对外派遣实施上述境外工程所需的劳务人员。铁路运输;沿海工程辅助作业,港口经营,溢油应急、安全守护、船舶污染清除作业;专业技术服务业中质检技术服务、环境与生态监测检测服务;食用盐生产、批发、零售;页岩气、煤层气、页岩油、可燃冰等资源勘探、开发、储运、管道运输、销售;天然气发电、电力供应;电力设施安装维护,电力技术开发与服务。氢气的经营,氢气的制备、储存、运输和销售,制氢、加氢及储氢设施制造、销售等氢能业务及相关服务;供电业务,机动车充电销售,太阳能、风能等新能源发电、新能源汽车充电设施运营,电池销售,新能源汽车换电设施销售等电能业务及相关服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油勘探与生产、炼油与化工、天然气与管道、营销及分销 公司专业从事石油勘探与生产、炼油与化工、天然气与管道、营销及分销等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000895</t>
+  </si>
+  <si>
+    <t>双汇发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品饮料 河南板块 标准普尔 富时罗素 深证100R MSCI中国 深股通 证金持股 央视50_ 融资融券 深成500 HS300_ 社区团购 鸡肉概念 人造肉 新零售 超级品牌 猪肉概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畜禽屠宰,加工销售肉类食品、肉类罐头、速冻肉制品、定型包装熟肉制品(含清真食品)、食用动物油脂(猪油)、水产品加工(鱼糜制品(即食类));生猪养殖、销售;生产销售PVDC薄膜及食品包装材料、其他包装材料制品;猪肠衣(盐渍猪肠衣)及其附属产品的加工、销售;医药中间体(肝素钠)的提取、销售;农副产品收购,生产加工肉制品及相关产品配套原辅料、调味料、食品添加剂、复配食品添加剂;蛋制品销售,技术咨询服务,仓储服务,化工产品销售(不含易燃易爆危险品),食品行业的投资,销售代理,相关经营业务的配套服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠宰和肉类加工 公司始终坚持围绕“农”字做文章,围绕肉类加工上项目,实施产业化经营。以屠宰和肉类加工业为核心,向上游发展饲料业和养殖业,向下游发展包装业、商业,配套发展外贸、金融等,形成了主业突出、行业配套的产业群,推动了企业持续稳定发展,成为中国最大的肉类供应商。
+要点四:农副食品加工业 随着小康社会的推进,城镇化率的提高,消费品零售及餐饮行业增长有望加速,这将有助于推动肉类消费的稳定增长。随着行业进入门槛的筑高、竞争环境的优化,将加速落后产能的退出,优势企业将通过发挥布局、质量、网络、管理和技术等优势,趁势而上、扩大市场份额,也有机会通过兼并重组,巩固行业地位,提升行业集中度。
+要点五:品牌优势 公司自1998年上市以来,一直坚持以屠宰和肉类加工业为核心,向上游发展饲料业和养殖业,向下游发展包装业、商业,配套发展外贸、金融、地产等,形成了主业突出、行业配套的产业群,成为中国最大的肉类供应商。2019年,双汇入选BrandZ最具价值中国品牌100强,荣获“2018-2019食品安全诚信示范单位”、“金箸奖”2019年度食品标杆企业等荣誉。“双汇”已成为我国肉制品加工行业最具影响力的品牌之一,在经销商和消费者中形成了良好的口碑。
+要点六:产业布局、采购及销售网络优势 公司目前的主要生产经营区域包括河南、上海、山东、四川、江苏、河北、广东、黑龙江、辽宁、江西、浙江、广西、湖北、安徽、云南、陕西等地,这些区域为我国屠宰及肉类加工行业的重要地域,生猪资源丰富,肉类消费潜力巨大。公司经营地域分布在全国各地,有利于统筹利用全国资源,化解区域单个市场的风险,可为冷鲜肉及肉制品的生产和销售创造良好的条件,同时公司与控股股东罗特克斯形成强大的国际采购优势,具有良好的国际采购协同,能有效利用全球资源,提高企业竞争力。同时,公司高度重视渠道开拓和网络建设,拥有遍布全国各地的销售网络,目前在全国各地拥有一百多万个销售网点,绝大部分省份基本可以实现产品朝发夕至。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-9-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-9-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600886</t>
+  </si>
+  <si>
+    <t>国投电力</t>
+  </si>
+  <si>
+    <t>2020-4-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-9-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力行业 北京板块 标准普尔 GDR 富时罗素 MSCI中国 证金持股 沪股通 上证180_ 融资融券 HS300_ 绿色电力 国企改革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资建设、经营管理以电力生产为主的能源项目;开发及经营新能源项目、高新技术、环保产业;开发和经营电力配套产品及信息、咨询服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发电业务 公司经营范围主要包括投资建设、经营管理以电力生产为主的能源项目;开发及经营新能源项目、高新技术、环保产业;开发和经营电力配套产品及信息、咨询服务。其中,发电业务为公司的核心业务,占公司营业总收入95%以上。同时,为适应电力体制改革,公司正在开展以电为主的相关业务拓展。
+要点四:电力行业 2019年,全国电力生产运行平稳,电力供需总体平衡。全国全社会用电量7.23万亿千瓦时,同比增长4.5%。分产业看:第一产业用电量780亿千瓦时、同比增长4.5%;第二产业用电量4.94万亿千瓦时、同比增长3.1%,占全社会用电量的比重为68.3%,比上年降低0.9个百分点;第三产业用电量1.19亿千瓦时、同比增长9.5%,对全社会用电量增长的贡献为33.1%,比上年提高10.1个百分点;城乡居民生活用电量1.02万亿千瓦时、同比增长5.7%,对全社会用电量增长的贡献为17.9%。分地区看:西部地区用电量增速领先,东、中、西部和东北地区全社会用电量分别比上年增长3.6%、4.5%、6.2%、3.7%,占全国比重分别为47.2%、18.7%、28.3%、5.8%,全国共有28个省份用电量实现正增长。
+要点五:拥有雅砻江水电的绝对控股权 公司持股52%的雅砻江水电是雅砻江流域唯一水电开发主体,具有合理开发及统一调度等突出优势。雅砻江流域水量丰沛、落差集中、水电淹没损失小,规模优势突出,梯级补偿效益显著,兼具消纳和移民优势,经济技术指标优越,运营效率突出,在我国13大水电基地排名第3。该流域可开发装机容量约3000万千瓦,报告期末已投产装机1470万千瓦,在建规模450万千瓦。
+要点六:清洁能源占比高,绿色低碳发展优势明显 公司清洁能源装机占公司已投产控股装机容量的55.52%,其中水电装机占总装机的49.21%。清洁能源的输送和消纳享有政策优先权,公司以清洁能源为主、水火均衡、全国布局的电源结构抗风险能力强,符合国家和电力行业发展规划。公司火电以大机组为主,运营指标优良,无30万千瓦以下机组,百万千瓦级机组占到控股火电装机容量的一半以上。公司积极响应国家节能减排政策,加大对火电机组的节能、环保改造投入,脱硫、脱硝、除尘装置配备率均达100%,按装机容量统计,公司具备超低排放能力的机组装机占比超90%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002008</t>
+  </si>
+  <si>
+    <t>大族激光</t>
+  </si>
+  <si>
+    <t>你知道别人肯定也知道…
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭鲁
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赚得盆满钵满却与民争利
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁会在饿的时候拒绝一根火腿肠呢
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了历年价格，各种涨跌，是个长持给惊喜的股票
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-3-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-2-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子元件 广东板块 标准普尔 富时罗素 深证100R MSCI中国 深股通 证金持股 央视50_ 融资融券 深成500 QFII重仓 转债标的 HS300_ 工业母机 第三代半导体 半导体概念 MiniLED 分拆预期 PCB 华为概念 OLED 苹果概念 智能机器 3D打印 锂电池 物联网 深圳特区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可经营项目:激光、机器人及自动化技术在智能制造领域的系统解决方案;激光雕刻机、激光焊接机、激光切割机、激光器及相关元件(不含限制项目)、机器人相关产品的研发、生产和销售;普通货运。一般经营项目:经营进出口业务;物业租赁。(法律、行政法规、国务院决定禁止的项目除外,限制的项目须取得许可后方可经营)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光加工及自动化系统集成设备制造 公司是一家提供激光、机器人及自动化技术在智能制造领域的系统解决方案的高端装备制造企业,业务包括研发、生产、销售激光标记、激光切割、激光焊接设备、PCB专用设备、机器人、自动化设备及为上述业务配套的系统解决方案。公司产品主要应用于消费电子、显视面板、动力电池、PCB、机械五金、汽车船舶、航天航空、轨道交通、厨具电气等行业的金属或非金属加工。
+要点四:激光加工设备行业 近年来我国传统制造业正处于加速转型阶段,国家大力推进高端装备制造业的发展,原有激光加工技术日趋成熟,激光设备材料成本不断降低,新兴激光技术不断推向市场,激光加工的突出优势在各行业逐渐体现,激光加工设备市场需求保持持续增长。世界各国相继出台关于机器人产业发展的国家级政策,机器人产业发展已提升至各国国家战略的层面,全球智能制造迎来了巨大的市场机遇。由于激光加工设备工作过程具有智能化、标准化、连续性等特点,通过配套自动化设备可以提高产品质量、提高生产效率、节约人工等,未来激光+配套自动化设备的系统集成需求成为趋势。
+要点五:政策支持 公司主导产品—激光加工设备的主要技术是激光技术,被《国家中长期科学和技术发展规划纲要(2006-2020年)》列为我国未来15年重点发展的前沿技术之一。2009年经国家科技部、国务院国资委、中华全国总工会审核评定,本公司被确定为国家创新型企业。国家出台十三五规划以及《中国制造2025》战略均强调了对高端装备产业的重点布局。我国国家创新战略的制定及一系列鼓励自主创新政策的出台,将为公司今后的长期发展提供政策支持。
+要点六:公司的产品具有综合技术优势 公司目前拥有一支涵盖激光光源、自动化系统集成、直线电机、视觉识别、计算机软件和机械控制等多方面复合研发队伍约4500人,具备快速切入机器人及自动化领域的先天优势。目前已经形成产品的激光设备及自动化产品型号已达600多种,也是国内激光设备最齐全、细分行业经验最丰富的公司。截止2018年12月31日,已获得专利共3562项,其中发明专利928项、实用新型2098项、外观设计536项。
+要点七:公司销售和服务网络具有明显竞争优势 目前在国内外设有100多个办事处、联络点以及代理商,形成了较为完整的销售和服务网络,保证了公司与客户建立紧密合作关系及提供高水平的产品服务,确立了公司主导产品的市场优势地位。
+要点八:涉足创投 大族软件更名为大族创投(占99%)后,转型创投业务,其原有的软件业务转让给公司。大族创投的主要投资对象是具有上市潜力或具有发展为公司主业潜力的装备制造类科技创新型企业,公司主业相关的上下游战略投资等,大族创投也可从事参与发起和管理创业投资基金,产业投资基金等业务。大族创投年度对外投资余额不得超过公司上一期经审计净资产的10%。
+要点九:大族数控 深圳市大族数控科技有限公司(占99.1%)经营范围:开发,销售数控设备,激光及其相关产品,机电一体化设备及高新技术产品,兴办实业,国内商业,物资供销业,生产PCB数控钻铣机。经营进出口业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没研究过步过好几年的股票了时间很长
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000089</t>
+  </si>
+  <si>
+    <t>深圳机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-8-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-8-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空机场 广东板块 标准普尔 富时罗素 养老金 MSCI中国 深股通 中证500 融资融券 预盈预增 深成500 QFII重仓 粤港自贸 深圳特区 创投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营:航空客货地面运输及过港保障与服务;机场航空及其辅助设施投资业务;投资兴办实业;国内商业、物资供销业;国际、国内航空客货销售代理业务;仓储、包装、装卸搬运业务;深港旅客运输、深港航空货物驳运业务;海港客货运输过港保障与服务;物业出租、物业管理;机场范围内广告制作与发布;侯机楼、侯船楼内休闲、文化、餐饮、娱乐、商业、商务等综合服务。兼营:保税仓储业务;包机业务;航空邮件、航空特快专递业务;海关报关业务;航空咨询、旅游业务;机电安装、维修业务;实业开发;代理国内外广告设计、制作、发布业务;商务贸易、进出口业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空主业以及航空主业延伸出的非航空业务 公司作为深圳宝安国际机场管理公司,主要经营航空主业以及航空主业延伸出的非航空业务。航空主业指以各航空公司的定期和不定期航班、旅客和货主(物)为服务对象,提供的航空地面保障及航空地面代理服务业务,主要包括飞机起降及停场保障,机场飞行控制区的维护与运营管理,旅客的乘机、候机及进出港服务,航站楼商业及物业租赁业务、航空器的维护及辅助服务,航空货物的地面处理服务等,航空主业是机场作为民航运输基础设施固有承担的业务。非航空业务包括航空物流业务和航空增值业务。航空物流业务是指依托于航空主业延伸出的物流增值服务,主要包括航空货物过站处理服务、航空物流园租赁与管理业务,航空货运代理服务业务等。航空增值业务是指依托于航空主业延伸出的商业服务业务,主要包括机场航站楼户内户外广告业务、贵宾与高端旅客服务、机场专线运营管理等。
+要点四:航空行业 世界经济复苏乏力,整体形势严峻复杂。我国经济增速放缓,下行压力持续加大,产业转型升级提速,经济发展步入新常态。受益于消费升级,国内航空运输市场总体需求旺盛,民航业保持较快发展速度,但同时行业竞争日趋激烈,高铁分流冲击呈现常态化趋势。面对复杂多变的经营环境,公司以打造“最具体验式机场”和“专业机场运营商”为中心,持续改善安全服务品质,大力推进航空主业国际化发展,显著提升专业化运营水平,不断深化经营管理转型,圆满完成经营目标。
+要点五:独特的区位优势 大珠三角地区经济实力雄厚,人口聚集,是中国最大的航空运输市场。深圳位于珠三角的中心区域,作为新一轮全面深化改革开放的先锋城市,是全国重要的综合交通枢纽和边境口岸城市。深圳机场作为深圳市的航空门户,辐射内地,毗临港澳,拥有“特区+湾区”叠加优势,是目前国内唯一“海陆空铁”多式联运的机场,集散功能强大,具有发展成为国际性大机场、最具体验式机场和最具竞争力的专业机场运营商的区位和市场优势。伴随着深圳市提出打造“一带一路”战略枢纽和中国自贸区建设的新标杆,深圳机场迎来面向丝绸之路辐射全球的国际航空枢纽、粤港澳湾区核心枢纽、互联网+融合等重大发展机遇,公司发展空间将进一步拓宽。
+要点六:先进的管理理念 深圳机场位于我国市场化程度较高的经济特区,是国内最早地方政府自主投资建设管理的机场,前瞻的市场意识和高效的管理能力是实现跨越式发展的保障。在新一轮全面深化国企改革的背景下,公司秉持特区敢闯敢试、率先示范的改革步伐,坚持开放意识和国际视野,构建“崇尚创新”的环境,强化创新驱动发展的管理理念。紧扣公司战略发展脉搏,实施融合创新战略,围绕中长期战略目标推进转型升级和自主创新工作;大力推进技术、品牌、管理、商业模式和运营机制的改善与创新,不断提升可持续发展能力。
+要点七:创新的机场体验 "以安全优先的战略意识,不断完善安全管理体系和航空安保管理体系,推动安全绩效管理。为了更好发挥机场的门户作用,充分展现深圳精神与深圳质量,公司创新性提出建设“最具体验式机场”,在“创客精神、设计精神、分享精神”理念指导下,致力于打造以安全为前提、全流程的、全覆盖的“顺畅、舒适、亲切”的体验,具体包括国内领先的智慧化、全程无缝衔接的机场出行体验,引领国内潮流、富有人文气息、独具匠心的空间体验,专业、温馨自然的互动服务体验。
+要点八:机场广告公司 机场广告公司主要经营机场范围内的广告制作与发布,公司控股比例为95%。2015年上半年实现营业收入12332万元,同比增长9.81%,毛利率978.28万。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600066</t>
+  </si>
+  <si>
+    <t>宇通客车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客车产品研发、制造与销售 公司是一家集客车产品研发、制造与销售为一体的大型制造业企业,主要产品可满足5米至18米不同长度的需求,拥有123个产品系列的完整产品链,主要用于公路客运、旅游客运、公交客运、团体通勤、校车、景区车、机场摆渡车、客车专用车等各个细分市场。
+要点四:客车行业 近年来随着新能源汽车产业的发展,行业格局发生了一些变化,部分客车企业抓住了新能源产业机会获得快速发展。客车行业目前已进入成熟期,总量趋于稳定。随着新能源补贴政策退坡,市场逐渐回归理性,未来市场竞争将更加依靠产品、服务及品牌等综合竞争力,整体上利于领先企业。
+要点五:研发投入 报告期内,公司发生研发支出17.74亿元,占营业收入的比例为5.82%,在同行业中居于较高水平。2019年研发支出主要投向如下:(1)T7系列车型、高端旅游、高端公交、CL6/CL7等高端产品的完善与开发。(2)自动驾驶技术的应用、五米微循环车的研究与开发。(3)为提升产品竞争力,开展“五化”提升、制造能力提升、轻量化、LCC(全生命周期成本)、技术研究专项等工作,提升科学管理能力。
+要点六:研发成果 公司专注于客车领域关键技术的自主研发,通过多年来的自主研发和系统的技术创新,逐步掌握了新能源、智能化、安全、节能、舒适、环保等技术并持续领先,形成相应的领先技术和产品优势。公司新能源以纯电动、混合动力、燃料电池客车研发和产业化为主线,以行业共性关键技术“电驱动、电控、电池”的自主攻关为切入点,基于“全生命周期成本最低”的开发理念,历经十余年技术攻关,在节能与新能源客车高效动力系统、动力电池集成与管理、整车控制与节能等方面取得重大突破。(1)高效动力系统:联合供应商,开发了电机健康状态监控系统,可实现对电机旋变、轴承等关键部位的实时监控与故障保护,提升了电驱动系统可靠性与安全性;开发了第四代大扭矩电机系统,相比上一代产品重量下降15%;完成了新一代混合动力系统开发,扭矩密度提升了27%。(2)动力电池集成与管理:联合供应商,开发了高能量密度的动力电池系统,能量密度提升了13%;开发电池系统自适应热管理控制技术,改善了动力电池的环境适应性,实现电池能量最优化配置,整车续驶里程延长约3%;率先研发了动力电池24小时监控系统,可实现对电池状态全天候监控和预警,提升了电池系统安全性。(3)整车控制与节能:完成国内行业首家ISO26262-2018功能安全流程认证,达到ASILD最高等级,行业内率先推广了油门误踩防护系统、碰撞缓解制动系统、360度全景环视预警等8项智能化辅助驾驶技术,完成工况自适应技术的推广应用,平均能耗降低5%,节能水平国际先进。(4)安全技术:根据“宇通安全五部曲”(安全行驶、危险警示、干预控制、事故保护、救援逃生),研发了智能侧后向视野辅助系统、自动紧急制动系统AEBS、校车智能防遗忘系统等一系列新技术,形成宇通客车主被动安全一体化的技术体系,大幅提升整车安全性。(5)节能技术:利用整车能量流分析方法,从智能辅助驾驶、轻量化、热管理、低风阻等四个方面,开发了第三代智能辅助节能系统、骨架及内外饰轻量化新技术、自适应热管理、低风阻附件等一系列新技术,实现整车油耗持续降低。(6)舒适技术:从降低振动与噪声、提升平顺与操纵稳定性、改善车内空气质量等三个方面开展了车身结构振动控制、动力传动系统振动控制、电控悬架二代、电控主动转向、智能双区空调等多项新技术研发和集成应用,为驾乘人员提供舒适的乘坐环境。通过技术创新,公司实现了混合动力、插电式、纯电动共平台开发,形成了具有国际竞争力的6-18米系列化新能源客车产品,提出了行业首个覆盖产品、配套、服务、金融的新能源客车商业推广模式,新能源客车产品市场占有率持续位居行业第一。
+要点七:知识产权 截至2019年12月底,公司拥有有效专利及软件著作权2,117件,其中发明专利280件,软件著作权184件,主要围绕新能源插电式、纯电动、燃料电池三大动力系统、智能网联自动驾驶等产品项目,重点突破动力电池与电池管理、电动客车智能化、充电/加氢技术等核心技术,在电控、电机、电池以及NVH、智能化等技术领域形成一系列知识产权组合。2019年,公司共获得授权专利278件,其中发明专利37件;获得软件著作权48件,公司荣膺“中国汽车工程学会知识产权优秀企业”称号。
+要点八:主要产品市场占有率 公司主要产品为7米以上的大中型客车,以及5.5米以上的轻型校车。2015年年报披露,上述产品的国内市场占有率为31.6%,同比下降0.7个百分点;出口市场占有率33.1%,同比提高7.2个百分点。2015年,公司客车总销量67018台,行业排名第一,同比增长9.2%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营本企业自产产品及相关技术的出口业务;经营本企业生产、科研所需的原辅材料、机械设备、仪器仪表、零配件及相关技术的进口业务;经营本企业的进料加工和“三来一补”业务;改装汽车、挂车、客车及配件附件、客车底盘、信息安全设备、智能车载设备的设计、生产与销售;机械加工、汽车整车及零部件的技术开发、转让、咨询与服务;通用仪器仪表制造与销售;质检技术服务;摩托车、旧车及配件、机电产品、五金交电、百货、互联网汽车、化工产品(不含易燃易爆化学危险品)、润滑油的销售;汽车维修(限分支机构凭证经营);住宿、饮食服务(限其分支机构凭证经营);普通货运;仓储(除可燃物资);租赁业;旅游服务;公路旅客运输;县际非定线旅游、市际非定线旅游;软件和信息技术、互联网平台、安全、数据、信息服务;第二类增值电信业务中的信息服务业务(不含固定网电话信息服务和互联网信息服务);经营第Ⅱ类、第Ⅲ类医疗器械(详见许可证);保险兼业代理;对外承包工程业务;工程(建设及)管理服务;新能源配套基础设施的设计咨询、建设及运营维护;通讯设备、警用装备、检测设备的销售;计算机信息系统集成。涉及许可经营项目,应取得相关部门许可后方可经营(依法须经批准的项目,经相关部门批准后方可开展经营活动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车整车 河南板块 标准普尔 富时罗素 养老金 MSCI中国 证金持股 中证500 融资融券 新能源车 无人驾驶 燃料电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车整车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多年不温不火
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低是2018年10-3110.45，再往前没意义了
+最高是2008年奥运骗老外的时候达到了39
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002507</t>
+  </si>
+  <si>
+    <t>涪陵榨菜</t>
+  </si>
+  <si>
+    <t>食品饮料 重庆板块 标准普尔 富时罗素 MSCI中国 深股通 中证500 融资融券 深成500 调味品概念 超级品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-2-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-9-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年二月份由于是疫情第一年股票都跌到历史新低了，因为不知道疫情啥时候是个头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产、加工、销售:蔬菜制品(酱腌菜、其他蔬菜)、其他水产加工品(水产调味品);普通货运;批发兼零售:预包装食品、散装;以下经营范围限分公司经营:生产、加工调味料;榨菜原料收购、仓储;企业生产产品出口(公司的具体经营范围以工商登记机构核准内容为准)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨菜、泡菜等方便食品 公司主要从事榨菜、萝卜、泡菜、下饭菜和其他佐餐开味菜等方便食品的研制、生产和销售,是全国最大的佐餐开味菜企业。在行业中,公司产销量处于领先地位,产品有较高市场占有率,品牌具有很高的知名度和美誉度。
+要点四:榨菜行业 近年来,虽然国内经济下行、消费乏力、增长困难,但榨菜、萝卜、泡菜、下饭菜作为深受消费者喜爱的酱腌菜品类,行业整体仍然保持了较为稳健的发展。随着中国城市化、工业化、网络化进程的加快,人口进一步向城镇集中。城市生活节奏加快,消费者对产品方便快捷的需求增加,居民消费能力将进一步提升。传统消费能力的稳定增长、新渠道的开拓、新的食用方法、功能的挖掘,佐餐开味菜市场容量还将进一步扩大。
+要点五:品牌优势 公司是中国佐餐开味菜行业的领导企业,市场占有率较高,“乌江”和“惠通”两大品牌系列产品具有良好的知名度和美誉度,消费者心智占有度高,具备持续性的竞争优势。公司具有行业定价权,良好的品牌影响力能够确保“先款后货+部分授信”的回款政策得到有效执行,旗下两大品牌系列产品畅销全国,并远销日本、美国等多个国家和地区。
+要点六:管理人员优势 涪陵榨菜集团自成立以来一直专注于榨菜产品的研发、生产和销售,积累了丰富的管理经验。公司现任主要管理人员具 有10年以上榨菜加工企业管理经验,对榨菜加工企业管理拥有深刻的理解,较同行业其他榨菜加工企业具有明显的竞争优势。
+要点七:销售网络优势 依靠20多年高品质榨菜生产经营积累,公司已拥有1,200多家忠实的一级经销商客户,公司在全国范围内设有9个销售大区、34个办事处组成的专业营销团队对经销商进行植入式指导和管理。涪陵榨菜集团建立了多层次、长短渠道相结合经销制销售模式,销售网络覆盖了全国34个省市自治区,264个地市级市场,公司的产品遍布大到大润发、永辉超市、沃尔玛、家乐福等全国各大知名连锁超市和全国各级农贸市场,小到城乡的便利店等零售终端,提高了公司销售网络覆盖的广度和深度,具有较好的市场掌控和快速反应能力。
+要点八:榨菜行业龙头 公司主要产品为榨菜，榨菜酱油和其他佐餐开胃菜等方便食品，主导产品为乌江牌系列榨菜。依托涪陵地区原产地域优势，公司经过20多年的经营，已经形成了年产6.1万吨榨菜产品自有产能，并拥有部分外协产能，成为中国最大的榨菜加工企业，榨菜腌菜制品全国市场占有率第一。榨菜与德国甜酸甘兰，法国酸黄瓜并列为世界三大名腌菜，而我国绝大部分榨菜加工企业仍处于手工作坊式生产阶段。公司从05年起在央视黄金时段打广告，是第一家在央视做广告的榨菜品牌，时至今日，“中国榨菜数涪陵，涪陵榨菜数乌江。吃正宗榨菜，当然选乌江”的广告语已经深入人心。
+要点九:地处我国榨菜原料主产区 涪陵地区气候宜人雨量充沛，独特的水土造就青菜头种植面积占全国青菜头种植面积的45.60%，是国内规模最大，最集中的榨菜产区，已获得中国“榨菜之乡”的美誉。其青菜头组织致密，铸就了涪陵榨菜特有的嫩脆品质。同时涪陵地区生产的青菜头富含蛋白质，多种微量元素以及维生素等物质。公司自主培育基地，确保原料高质高效。由于原材料占榨菜产品成本的比重较高，运输距离过远会使原材料成本大大增加，另外，青菜头作为一种蔬菜，收获后如不及时进行加工处理，易腐烂变质，从而限制了榨菜原料盛产地外的榨菜加工企业的发展。涪陵区范围内有港口23个，年货物吞吐量212万吨，为公司产品向全国各地销售提供了条件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-6-30跌倒9.93
+张坤 易方达优质精选混合(QDII)(110011)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2717,7 +3471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2738,14 +3492,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3047,11 +3803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3067,7 +3823,7 @@
     <col min="12" max="12" width="34.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="56.75" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="10"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3133,7 +3889,7 @@
       <c r="H2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>254</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -3554,10 +4310,10 @@
       <c r="F13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="10" t="s">
         <v>326</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -3852,7 +4608,7 @@
       <c r="I21" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="10" t="s">
         <v>359</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -3884,7 +4640,7 @@
       <c r="G22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="2" t="s">
         <v>240</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -3960,7 +4716,7 @@
       <c r="G24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="2" t="s">
         <v>248</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -4074,7 +4830,7 @@
       <c r="G27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="2" t="s">
         <v>240</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -5001,7 +5757,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="135.75" customHeight="1">
+    <row r="53" spans="1:13" ht="68.25" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>622</v>
       </c>
@@ -5036,80 +5792,586 @@
         <v>631</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
+    <row r="54" spans="1:13" ht="98.25" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="96" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>655</v>
+      </c>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
+    <row r="56" spans="1:13" ht="78.75" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>667</v>
+      </c>
       <c r="M56" s="11"/>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
+    <row r="57" spans="1:13" ht="73.5" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>678</v>
+      </c>
       <c r="M57" s="11"/>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
+    <row r="58" spans="1:13" ht="72.75" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>690</v>
+      </c>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
+    <row r="59" spans="1:13" ht="71.25" customHeight="1">
+      <c r="A59" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>678</v>
+      </c>
       <c r="M59" s="11"/>
+    </row>
+    <row r="60" spans="1:13" ht="80.25" customHeight="1">
+      <c r="A60" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="B60" t="s">
+        <v>701</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="51" customHeight="1">
+      <c r="A61" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B61" t="s">
+        <v>710</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="40.5">
+      <c r="A62" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B62" t="s">
+        <v>722</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A63" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="52.5" customHeight="1">
+      <c r="A64" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="47.25" customHeight="1">
+      <c r="A65" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="B65" t="s">
+        <v>753</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="60.75" customHeight="1">
+      <c r="A66" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="B66" t="s">
+        <v>769</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A67" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="63" customHeight="1">
+      <c r="A68" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>803</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
+++ b/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="889">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3391,8 +3391,395 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>600132</t>
+  </si>
+  <si>
+    <t>重庆啤酒</t>
+  </si>
+  <si>
     <t>2017-6-30跌倒9.93
 张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒是这几年才开始暴涨的，之前一直趴在地上，慎入！！有可能是沾了白酒的光，但是啤酒并不能放好几年
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酿酒行业 重庆板块 标准普尔 富时罗素 MSCI中国 沪股通 上证180_ 融资融券 HS300_ 成渝特区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酿酒行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒、非酒精饮料(限制类除外)的生产、销售;啤酒设备、包装物、原辅材料的生产、销售;普通货物(不含危险品运输)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒产品的制造与销售 公司主要从事啤酒产品的制造与销售业务,是国际知名啤酒酿造商嘉士伯集团成员企业。公司在全国拥有的近20家酒厂分布于重庆、四川、湖南、浙江和安徽等地。公司最主要的核心市场是重庆市场,公司生产的“重庆”牌和“山城”牌啤酒为广大啤酒消费者所喜爱。
+要点四:酒、饮料和精制茶制造业 2019年,中国啤酒行业格局仍然呈现三大特点:挑战加剧。高集中度的市场格局下,占80%市场份额的前五大啤酒公司继续保持总体稳定,同时在局部市场继续开展激烈竞争。原料、包材、能源、人力等成本要素,此消彼长,但总体仍然走高。消费升级。高端化进一步凝聚为行业共识。在继续推出高端新品,加大听装酒、小支酒投入同时,越来越多的主流啤酒公司直接进入进口啤酒、精酿啤酒跑道。全行业的“互联网+”进程显著提速。量增乏力。人口结构老化带来的啤酒消费群体萎缩问题,以及酒类消费多元化带来的消费者分流问题,进一步显现。高端化为行业带来更大利润空间,同时,也有可能对销量造成负面影响。关于行业的长远趋势,公司管理层仍然认为,对于中国啤酒行业,高质量发展既是目标,也是路径。只有坚持走高质量发展之路,啤酒企业才能够在经济发展新常态下行稳致远。尽管短期内无法恢复到峰值水平,但中国作为全球最大和最具活力啤酒市场的基本面没有变,公司管理层对于中国啤酒行业的未来发展充满信心。
+要点五:核心竞争力 公司自1958年以来,一直从事啤酒制造与销售,拥有稳固的主体消费市场和长期以来青睐本公司产品的消费者,打造了啤酒行业专业的经营管理团队。公司是国际啤酒行业领先者之一的嘉士伯集团成员企业,通过嘉士伯最佳实践系统的导入,建立品牌价值和发展新的能力来促进更快速的增长,在我们选择开展业务竞争的市场成为以啤酒为核心的最成功、最专业和最具吸引力的公司。
+要点六:重庆本地啤酒龙头 公司主要从事啤酒产品的制造与销售业务,是国际知名啤酒酿造商嘉士伯集团成员企业。公司在全国拥有的近20家酒厂分布于重庆、四川、湖南、浙江和安徽等地。公司最主要的核心市场是重庆市场,公司生产的“重庆”牌和“山城”牌啤酒为广大啤酒消费者所喜爱。本地品牌方面,公司确认“重庆”为未来发展方向,并进行升级;国际品牌方面,引入嘉士伯、乐堡、K1664白啤、怡乐仙地等,丰富公司的产品线。截止2015年底,重庆品牌知名度达到98%,完全达到新品牌上市效果。乐堡品牌上市仅2年,知名度也达到69%。
+要点七:宜宾子公司拟新建15万千升啤酒拉罐产能 2020年3月2日晚间公告,公司控股的重庆嘉酿啤酒有限公司(控股比例51.42%)下属全资子公司——重庆啤酒宜宾有限责任公司拟投资不超过2.64亿元扩建产能,新建一条最高设计产能年产15万千升的啤酒拉罐生产线。公司及宜宾公司已与四川宜宾市叙州区政府签订了有关新增产能项目投资协议书。据重庆啤酒有关负责人介绍,随着中国啤酒市场的发展,消费者消费习惯及场景日益发生变化。在整体啤酒下滑的情况下,拉罐品类销量逆势快速增长,其占比越来越高。公司在过去3年的拉罐销售增长平均超过15%。公司现有的拉罐生产线位于重庆和湖南两个区域,共有设计产能约12万千升,在2019年已经达到饱和,预计2020年起将面临产能缺口。宜宾公司新增的拉罐线产能将有效缓解公司销售区域市场供需压力,弥补市场产能缺口。根据公告,该项目预计于今年7月开工建设,2021年5月开始试生产。目前,叙州区政府同意给予固定资产投资额15%的投资补助,总计金额3150万元。同时,自上述新增产能项目投产当日起的4年内,叙州区政府将给予宜宾公司产量增长补助,补助总额不超过2400万元。重庆啤酒表示,宜宾公司新增产能投资项目将有助于提高公司拉罐产能,促进自身技术装备优化升级,填补四川区域拉罐生产线缺口,满足市场需求。该项目不会对公司2020年度经营业绩造成重大影响。
+要点八:策划重组 或涉嘉士伯资产注入 2020年3月29日公告,公司与控股股东嘉士伯啤酒厂有限公司签署了《关于重庆嘉酿啤酒有限公司资产注入及增资的谅解备忘录》,拟以其资产及/或现金出资,双方共同向重庆嘉酿啤酒有限公司(公司控股51.42%,嘉士伯香港持有48.58%)增资。本次交易预计将构成重大资产重组,但不涉及上市公司发行股份,也不会导致上市公司控制权的变更。公司预计在6月30日前披露交易预案。据悉,嘉士伯通过全资子公司嘉士伯啤酒厂香港有限公司和嘉士伯重庆有限公司间接控制重庆啤酒,为上市公司的控股股东。嘉士伯香港于2013年通过部分要约收购的方式收购公司30.29%的股份时,嘉士伯曾向上市公司作出了一项同业竞争有关承诺:在获得监管部门、上市公司股东的批准,以及相关资产少数股东同意情况下,在本次要约收购完成后的4至7年的时间内,将其与上市公司存在潜在竞争的国内的啤酒资产和业务注入上市公司。根据公告,上述《谅解备忘录》,即为嘉士伯履行承诺而为。其初步确定拟注入目标公司的资产的基本情况包括:位于云南大理的嘉士伯(中国)啤酒工贸有限公司、位于云南昆明的昆明华狮啤酒有限公司、位于新疆乌鲁木齐的新疆乌苏啤酒有限责任公司、位于江苏溧阳市的嘉士伯天目湖啤酒(江苏)有限公司、位于安徽天长市的嘉士伯啤酒(安徽)有限公司、位于广东惠州的嘉士伯啤酒(广东)有限公司、位于宁夏银川的宁夏西夏嘉酿啤酒有限公司、位于甘肃兰州的兰州黄河嘉酿啤酒有限公司等16家公司股权。
+要点九:转让柳州山城啤酒公司股权及债权 2018年7月18日公告,公司下属控股子公司重庆嘉酿以人民币10元的价格向闽商投资公司转让持有的柳州公司100%股权,和以人民币2350万元的价格向闽商投资公司转让对柳州公司享有的人民币109,758,126.58元债权(基准日为2018年6月30日)。此次转让柳州公司的股权及债权对归属于母公司的净利润影响约650万元,但不会对本年度业绩产生重大影响,同时可为公司带来净现金流入约为2350万元,并且将节省关停柳州公司每年需继续开支的250万留置费用。
+要点十:资产注入预期 嘉士伯一进入中国市场即布局西部，目前其在中国西部建立了十几个全资或合资的啤酒制造厂。嘉士伯通过一系列的兼并控股，在中国西部地区的市场占有率已经达到50%左右，处于绝对控制地位。嘉士伯承诺，交易完成后如果控制的关联企业在重庆地区和公司当前的其他主要销售地区与公司的生产经营构成业务竞争，将在适当的时候，将此类资产经履行必要的法律程序后注入公司。
+要点十一:优化湖南区域供应链 2018年12月21日公告,为进一步优化公司湖南区域供应链,提高区域生产效率和盈利能力,公司下属子公司湖南重庆啤酒国人有限责任公司拟对位于常德市的澧县酒厂和常德酒厂开展供应链优化项目,即关闭常德酒厂并将其产量转移到邻近的澧县酒厂进行生产。常德酒厂于2005年投产,该酒厂设备老旧,维护成本较高,生产能力有限。关闭常德酒厂,其产量可以由邻近的澧县酒厂进行生产。优化后不仅可以提高湖南区域酒厂生产效率和降低管理成本,还可以带来资本性支出节约。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-3-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-7-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋河股份</t>
+  </si>
+  <si>
+    <t>2021-1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>268.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-3-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酿酒行业 江苏板块 标准普尔 富时罗素 深证100R MSCI中国 深股通 证金持股 融资融券 深成500 基金重仓 HS300_ 白酒 超级品牌 参股保险 长江三角 参股券商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒类的生产、销售,预包装食品的批发与零售,粮食收购,自营和代理各类商品和技术的进出口(国家限定公司经营或禁止进出口的商品和技术除外),国内贸易,电子商务平台建设,商品的网上销售,第一类增值电信业务,第二类增值电信业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白酒生产 公司下辖洋河、双沟、泗阳等三大酿酒生产基地,是全国大型白酒生产企业,是白酒行业唯一拥有洋河、双沟两大中国名酒,两个中华老字号的企业。公司主要业务是白酒的生产与销售,主导产品洋河蓝色经典、双沟珍宝坊、苏酒、洋河大曲、双沟大曲等绵柔型系列白酒。
+要点四:白酒行业 经历黄金十年的快速增长后,白酒行业经过近四年周期性调整,行业走过了因宏观政策变化所带来的矫枉过正阶段,白酒消费正在逐步理性回归,进入健康、理性的发展阶段:行业呈现出探底弱复苏的发展态势,中低速平稳增长成为行业发展新常态。
+要点五:自然环境优势 公司所在地宿迁是中国白酒之都,是中国唯一拥有两大著名淡水湖(洪泽湖、骆马湖)、两大著名河流(大运河、古黄河)的地方,也是平原绿化最大的地方,江苏省唯一没有酸雨的天然氧吧,水源、土壤、空气尤其是酿酒微生菌群生态环境是酿酒的风水宝地。洋河酿酒起源于隋唐,隆盛于明清,清朝雍正年间已行销江淮一带,素有“福泉酒海清香美,味占江淮第一家”美誉。
+要点六:品质优势 公司创新推出绵柔型白酒风格,深层次满足目标消费者核心需求,洋河绵柔型白酒质量新风格被写入国家白酒标准。公司拥有21名国家品酒委员,69名省级品酒委员,1753名技术类人员,拥有多个国家和省级技术研究开发平台。作为绵柔型白酒代表,洋河梦之蓝和绵柔苏酒先后获国家最佳质量奖、中国白酒酒体设计奖、中国白酒国家评委感官质量奖等国家级质量大奖。
+要点七:洋河文化 历史悠久的洋河大曲在唐代就已享盛名，尚可考证的历史已有四百多年，明末清初已闻名遐迩。清雍正年间，洋河大曲已行销江淮一带，有“福泉酒海清香美，味占江淮第一家”之誉，并被列为清皇室贡品。据记载，清乾隆皇帝第二次南巡时，在宿迁建有行宫，留住七天，品尝洋河大曲后挥毫留下了“酒味香醇，真佳酒也”的赞语。1915年参加过巴拿马国际博览会，获“国际名酒”奖状和金质奖章，1979年跻身八大名酒之列。
+要点八:市场区域优势 全国白酒产量较大的省份主要是山东，四川，河南，江苏，安徽等地，其中江苏地处长江三角洲，经济发展水平相对较高，中高档白酒市场容量较大。公司位于江苏，公司的白酒品牌在江苏本地有良好的市场基础。
+要点九:参股金融 公司持有江苏泗阳农村合作银行7.32%股权，是该行第一大股东。
+要点十:参股保险 公司以自有资金参与紫金财产保险股份有限公司增资扩股项目，以1.05元/股价格，认购其5000万股。紫金保险成立于2009年5月8日，注册资本人民币10亿元，2009年底每股净资产0.976元，本次拟增发10-20亿元，资本金将由原来的10亿元增加到20-30亿元，公司持股比例约为1.67%-2.5%。本次增发前，前两大股东分别为江苏省国信资产管理集团有限公司，江苏舜天股份有限公司，持股比例分别为20%，16%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最低36.81在2013.12.31，感觉也是最近才火的
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002410</t>
+  </si>
+  <si>
+    <t>广联达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-1-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑行业软件，有行业壁垒，但是其他的也不做
+张坤 易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发 北京板块 标准普尔 深证100R 深股通 央视50_ 融资融券 深成500 机构重仓 基金重仓 QFII重仓 HS300_ 数字孪生 雄安新区 国产软件 电商概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可经营项目为互联网络信息服务(除新闻、出版、教育、医疗保健、药品、医疗器械以外的内容;含利用自有网站发布网络广告)、第二类增值电信业务中的呼叫中心业务。一般经营项目为出版物零售;技术开发、技术转让、技术咨询、技术推广、技术服务、技术培训;数据处理;基础软件服务、应用软件服务;软件开发;会议服务、承办展览活动;数字内容服务;建筑工程机械租赁;计算机及通讯设备经营租赁;销售医疗器械Ⅰ、Ⅱ类;计算机系统服务;计算机维修;企业管理咨询;经济贸易咨询;房地产咨询;销售计算机、软件及辅助设备、机械设备、电子产品、建筑材料、装饰材料、五金交电、文化用品、体育用品、纺织品、服装、日用品、工艺品、家用电器、仪器仪表、装饰材料、通讯设备;技术进出口、货物进出口、代理进出口;制作网络广告;企业征信服务;建筑工程项目管理;出租办公用房;设计、制作、代理、发布广告。(最终以工商部门登记为准)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程造价软件 公司的主营业务为立足建筑产业,围绕工程项目的全生命周期,为行业提供以建设工程领域专业应用为核心基础支撑,以产业大数据、产业金融等为增值服务的平台和产品。经过近二十年的发展,公司业务领域由招投标阶段拓展至设计阶段和施工阶段;产品从单一的预算软件扩展到工程造价、工程施工、产业金融等多个业务板块的近百款产品,涵盖工具类、解决方案类、大数据、移动互联网、云、智能硬件设备、产业金融服务等业务形态;服务的客户从中国境内拓展到全球一百多个国家;累计为行业二十余万家企业、百余万产品使用者提供专业化服务,成为中国建筑产业信息化卓越品牌。
+要点四:建筑软件行业 随着我国城镇化率的提升、基础设施的完善和“一带一路”战略的推进,为建筑业发展带来广阔空间和市场机遇;新型智慧城市、特色小镇、产业园等的快速推动,以及以建设地下综合管廊、海绵城市为代表的基础设施建设的展开,为建筑业带来新的投资热点;城市更新、老旧小区改造及城乡危房改造等为建筑业带来存量发展的新市场。此外,随着国家和社会对建筑质量、节能环保的重视,建筑业逐步转型和升级,促进了装配式建筑、BIM技术和绿色建筑等建筑理念和技术在我国的普及,工程总承包、全过程工程咨询等业态和商业模式也受到各级政府的鼓励和支持。
+要点五:聚焦建筑产业,建立深厚的行业专业能力 面向建筑产业信息化领域的专业应用是公司的核心竞争力,是公司通过近二十年的深耕细作、努力奋斗而形成。公司产品通过 BIM 技术打通并覆盖工程项目全生命周期, 具有较深的业务壁垒。专业化是公司立业与发展之本。在 2016 年业务转型初见成效的基础上,公司将继续加大对专业技术的研究、实践和应用,在产业内形成独特的、核心的专业平台资产,支撑公司服务产业、融入产业战略的实现。
+要点六:快速迭代,建立覆盖建造全生命周期的关键产品和服务 公司在夯实招投标阶段产品的基础上,提供了多种面向交易阶段的服务,如材价信息、指标信息等服务;同时,积极将产品扩展到设计阶段,如机电设计产品 MagiCAD,以及施工阶段,如 BIM5D 产品等,并将这些产品进行深度整合,为客户提供完整的解决方案,满足客户多种应用场景的需求。公司积极开放产品接口,与各行业其他厂商的产品进行无缝对接,建立与合作伙伴共赢的良好机制。公司积极开拓软件与硬件产品的连接,与多个硬件厂商合作,形成智慧工地的解决方案,为客户提供劳务通、物料通等多种软硬结合的整体产品方案,更好地满足客户施工现场管理的深度需求。
+要点七:持续加大研发投入,打造多项自主知识产权的核心技术 公司继续加大技术研发投入,全年投入总额超过 5 亿元。在图形技术、云计算、室内定位技术等领域取得新的突破:图形技术平台在几何算法、复杂建筑几何造型、 Web 大模型显示等方面的能力得到进一步增强,其中, Web 大模型显示技术已达到国内领先、国际先进的水平;云技术平台在增强基础服务高保障的同时,突破了 BIM 云关键技术;技术研究方面,基于WIFI 和 LED 灯的室内定位技术取得突破,室内导航原型得到初步验证。在大数据技术方面, 美国硅谷大数据研究中心及国内大数据团队已经掌握数据收集、数据仓库和存储计算、机器学习和文本挖掘以及查询服务等方面的关键技术,为打造行业领先的大数据平台奠定坚实基础。一些前沿性的研究也正在启动,如将大数据、人工智能、计算机视觉和 BIM 等技术进行结合,用于对项目的成本、质量和进度进行预测、监控和优化。
+要点八:技术优势 公司自主设计开发了公司特有的软件架构，通过先进的组件技术，可实现产品的快速开发并提高其适应性。2010年获得的荣誉主要有2010中国信息产业年度高成长性企业，2010中国行业软件(服务)冠军，2010年度中国信息化突出贡献企业奖，2010中国年度创新软件企业，北京市著名商标，入选北京市软件和信息服务业“四个一批”工程首批企业，2010中国信息化百佳解决方案奖—广联达施工企业项目管理解决方案GEPS，2010年度中国行业信息化创新产品奖—广联达安装算量软件GQI，2010中国十大创新软件产品—广联达施工企业项目管理解决方案GEPS，“基于IFC标准的建筑工程4D施工管理系统的研究和应用”荣获 2009年“中国建研院CABR杯”华夏建设科学技术奖一等奖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600436</t>
+  </si>
+  <si>
+    <t>片仔癀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从2003年一直趴着为啥2020年开始涨到了400？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>491.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中药 福建板块 专精特新 茅指数 标准普尔 富时罗素 MSCI中国 证金持股 沪股通 上证180_ 上证50_ 融资融券 HS300_ 化妆品概念 分拆预期 中药概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可项目:药品生产;药品委托生产;食品生产;保健食品生产;饮料生产;茶叶制品生产;动物饲养;药品进出口;食品进出口;货物进出口;进出口代理;食品经营(销售预包装食品);药品批发;药品零售(依法须经批准的项目,经相关部门批准后方可开展经营活动,具体经营项目以相关部门批准文件或许可证件为准)。一般项目:食用农产品初加工;中草药种植;医学研究和试验发展;家用电器销售;文具用品批发;工艺美术品及收藏品批发(象牙及其制品除外);第二类医疗器械销售;日用百货销售;日用品销售;箱包销售;包装材料及制品销售;化妆品批发;卫生用品和一次性使用医疗用品销售;日用化学产品销售;家居用品销售(除依法须经批准的项目外,凭营业执照依法自主开展经营活动)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中成药制造和医药流通 公司主要业务包括中成药制造、医药流通。其中,核心产品为片仔癀系列,包括片仔癀、片仔癀胶囊、复方片仔癀软膏、复方片仔癀含片等片仔癀系列产品。除药品销售之外,公司积极打造健康、保健、养生食品的健康产业,产品延伸至保健药品、保健食品、功能饮料、特色功效化妆品和日化产品。
+要点四:中药行业 随着小康社会的到来和国民收入的逐年提高,人们的生活水平和健康意识也同步提高,人均医疗保健支出在消费支出中所占的比例也越来越大,从而使医药市场总体需求将呈现上升态势。同时,人口的增长及老龄化、人均用药水平的提高等长期有利因素将继续对医药经济的发展起支撑作用。人均收入的增长会带动医药产品消费的增加。中药行业是医药行业的重要分支,是我国的传统优势产业,其以产量多、分布广、毒副作用小等优势占据着我国医药产业的半壁江山。
+要点五:品牌优势 片仔癀拥有历史悠久、文化底蕴深厚和疗效神奇带来的品牌优势。公司独家生产的传统名贵中成药片仔癀产品有着450多年的历史,其源于宫廷,流传于民间,因其独特神奇的疗效而形成了极佳的口碑,被国内外中药界誉为“国宝名药”。
+要点六:绝密配方优势 片仔癀处方属于国家级绝密配方,是允许使用天然麝香的少数药品之一。片仔癀由于其配方独特,作用机理有突出的特点,功效较类似产品有明显优势。2005年,国家有关部门为保护野生麝资源,仅准许片仔癀等少数几个传统名牌中药品种继续使用天然麝香,除此之外需使用麝香的药物均以人工麝香代替,并在产品的主要成分中标明“人工麝香”标识,更进一步增强了片仔癀稀缺和名贵程度。
+要点七:技术优势 公司荣获国家科技部“高新技术企业”称号,并通过高新技术企业的重新认定,且获评“2015年中国中药企业科技创新产出TOP10”。目前,公司设有省级企业技术中心以及片仔癀(上海)生物科技研发有限公司,专门从事新产品开发、技术更新工作。公司与多家国内科研院所建立了良好的合作关系,一方面用以加强公司的科研开发能力,为公司开发高价值的新药,提供产品储备,解决生产技术难题;另一方面通过产、学、研合作,提高公司员工素质,培养专业人才。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000516</t>
+  </si>
+  <si>
+    <t>国际医学</t>
+  </si>
+  <si>
+    <t>医疗服务 报告期内,公司将全资子公司开元商业有限公司100%股权出售给银泰百货有限公司,并已顺利完成,剥离百货零售业务资产后,公司成功实现整体业务战略转型,将专注于发展医疗服务业务,百货零售业务不再作为公司主营业务。公司目前以大健康医疗服务和现代医学技术转化应用为主业,正在运营西安高新医院、商洛国际医学中心、二〇四所医院等医疗机构。公司目前在建医疗项目有西安国际医学中心、西安高新医院二期改扩建、商洛国际医学中心(新院区)、西安国际康复医学中心等。旗下西安高新医院始创于2002年,为中国首家社会资本兴办的三级甲等综合医院,近年,公司积极拓展分级诊疗网点,全力打造新型医联体,先后设立了西安蓝博社区卫生服务中心,三星、比亚迪医务室等。
+要点四:医疗服务行业 2018年,国际环境仍然错综复杂,国内发展不平衡不充分的一些突出问题还有待解决,宏观经济提质增效、持续发展任重道远,面临削减债务、脱贫攻坚、污染治理的三大攻坚战。2018年是全面贯彻党的十九大精神的开局之年,是决胜全面建成小康社会、实施“十三五”规划承上启下的关键之年,也是改革开放40周年。实现高质量发展是保持社会经济持续健康发展的必然要求,推动经济实现质量变革、效率变革和动力变革。十九大与“健康中国”2030规划纲要提高了对人民健康的重视程度,同时也将医疗服务行业推入了一个新时代,政策、资本、支付、人才以及技术的五大趋势正在持续深远地影响社会办医的发展,民营医院进入快速发展期。
+要点五:品牌优势 经过长期的发展和积淀,公司旗下“西安高新医院”,“开元百货”两大品牌在陕西省内乃至全国享有较高的知名度与影响力。西安高新医院凭借其齐备的科室设置,高层次的专家与诊疗队伍,先进的医疗设备,成为全国第一家民营三级甲等医院。公司是陕西省规模最大的百货龙头之一,近年来保持较为稳健的扩张步伐,初步建立了辐射全省的连锁百货网络。
+要点六:职业化管理团队与人才储备优势 公司在多年的经营发展中,培养了一大批优秀的管理人员,具有丰富的医疗业务管理经验,由他们组成的专业高效的管理团队是公司取得长远发展的重要保证。公司通过打造良好的人才培养、任用、评价、激励机制,努力营造人才辈出、人尽其才、才尽其用的良好环境,为企业未来发展提供强大支持。
+要点七:公司介绍 西安国际医学投资股份有限公司始创于1956年,1992年11月经国家经济体制改革委员会同意公司进行股份制企业试点。公司股票于1993年8月9日在深圳证券交易所挂牌上市,股票简称“国际医学”,股票代码“000516”,是陕西省和西北地区第一家上市公司。 公司以大健康医疗服务和现代医学技术转化应用为主业,近年通过不断完善公司治理结构,坚持科技创新和稳健经营相结合的发展策略,资本实力日益雄厚,现已成为国内最大的上市医疗产业集团之一。旗下西安高新医院始创于2002年,为中国首家社会资本兴办的三级甲等综合医院,其妇科、产科、医学影像科、核医学科为西安市医学优势专科;心血管外科、普通外科为陕西省医疗特色专科;神经内科为国家临床重点专科建设项目。多年运营凭借高层次诊疗团队,先进医疗设备,贴心优质服务,美誉度与日俱增,15年间,医院门诊量达到680万余人次,出院患者33万余人次。近年,公司积极拓展分级诊疗网点,全力打造新型医联体,先后设立了西安蓝博社区卫生服务中心,三星、比亚迪医务室,改制了兵器工业204职工医院……运营、建设商洛国际医学中心,同时积极面向中国西部一、二线城市,加速布局连锁医疗产业。
+要点八:携手阿里巴巴共建“互联网+智慧医疗” 2018年4月16日公告,公司与阿里巴巴签订了《“新医疗”创新合作协议》,双方将合作共建“丝路卫生健康云平台”,包括共建“阿里健康西安高新互联网医院”、“人工智能医疗创新实验室”等,并共建跨界融合的“新医疗”生态体系。此外,公司下属全资子公司西安高新医院有限公司与阿里健康签订了《战略合作框架协议》,拟共同搭建国家级的医学人才智能培训平台、共同申请国家级或省部级科研课题专项。
+要点九:拟3.75亿元-7.5亿元回购股份 2018年11月1日公告,公司拟回购股份用于依法减少公司注册资本或实施股权激励计划、员工持股计划。回购金额不低于3.75亿元且不超过7.5亿元,回购价格不超7.50元/股。若按回购资金总额上限、回购价格上限测算,预计回购股份为1亿股,约占公司目前已发行总股本的5.07%。
+要点十:参股公司新药获临床试验许可 2019年6月18日公告,6月17日,公司参股的汉氏联合控股子公司法国汉氏联合有限责任公司的临床合作医院法国兰斯大学医学中心收到法国药监局(ANSM)签发的高活性人脐带间充质干细胞注射液I/IIa期临床试验许可。高活性人脐带间充质干细胞注射液是汉氏联合在国外获得临床试验许可的第一款干细胞药物,标志着汉氏联合自主创新技术得到国际认可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学、医疗及相关高科技生命科学方面的投资及医院管理;国内商业、物资供销业、居民修理服务业(专项审批项目审批后经营);货物及技术的进出口经营;能源、交通、通讯及市政基础设施建设的投资和其它项目的投资;房地产开发经营;文化娱乐业、停车场(由分支机构经营)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗服务 陕西板块 标准普尔 MSCI中国 深股通 融资融券 深成500 毛发医疗 辅助生殖 医疗美容 互联医疗 免疫治疗 基因测序 阿里概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-4-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-6-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从1994年开始没怎么高过最低2快多，常年趴着，慎入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600905</t>
+  </si>
+  <si>
+    <t>三峡能源</t>
+  </si>
+  <si>
+    <t>2021-6-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-6-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力行业 北京板块 养老金 沪股通 上证180_ 融资融券 HS300_ 绿色电力 抽水蓄能 储能 碳交易 北京冬奥 风能 太阳能 次新股 新能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风能、太阳能的开发、投资;清洁能源、水利、水电、电力、供水、清淤、滩涂围垦、环境工程、种植业、养殖业、旅游业的投资;投资咨询;资产托管、投资顾问;机械成套设备及配件的制造、销售;承包境内水利电力工程和国际招标工程;与上述业务相关的技术、信息咨询服务。(“1、未经有关部门批准,不得以公开方式募集资金;2、不得公开开展证券类产品和金融衍生品交易活动;3、不得发放贷款;4、不得对所投资企业以外的其他企业提供担保;5、不得向投资者承诺投资本金不受损失或者承诺最低收益”;企业依法自主选择经营项目,开展经营活动;依法须经批准的项目,经相关部门批准后依批准的内容开展经营活动;不得从事本市产业政策禁止和限制类项目的经营活动。)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风能、太阳能的开发、投资和运营 公司的主营业务为风能、太阳能的开发、投资和运营。海上风电:截至2020年9月30日,公司海上风电项目已投运规模104万千瓦、在建规模293万千瓦、核准待建规模530万千瓦,规模位居行业前列。到2020年底,公司预计投产和在建海上风电装机达到427万千瓦,该等项目全部投产后预计实现年发电量121亿千瓦时。陆上风电:截至2020年9月末,三峡新能源已投产陆上风电项目遍及内蒙古、新疆、云南等22个省区。其中,在内蒙古四子王旗建成了当期国内乃至亚洲单体规模最大的陆地风电项目(40万千瓦),项目的建成对加快推动陆上风电规模化开发和管理起到积极促进作用。光伏发电:截至2020年9月末,三峡新能源已投产光伏项目遍及甘肃、青海、河北等18个省区。其中,在安徽淮南建成了全球最大采煤沉陷区水面漂浮式光伏项目(15万千瓦),项目将采煤沉陷区闲置水面变成绿色能源基地,助推和引领国家新能源发展模式。在河北曲阳建设了国内单体最大的山地光伏项目(20万千瓦),项目建设带动了光伏产业技术创新,同时将光伏开发与精准扶贫等有机结合,打造了“光伏+”的“曲阳模式”,实现了企地互利共赢。
+要点四:电力、热力生产和供应业 根据中国证监会《上市公司行业分类指引(2012年修订)》,公司所属行业为电力、热力生产和供应业(D44);根据《国民经济行业分类(GB/T4754-2017)》,公司所属行业为电力、热力生产和供应业中的风力发电(D4415)以及太阳能发电(D4416)。
+要点五:资源获取能力强 公司在行业技术及影响力方面具有显著优势,注重陆上风电、光伏、海上风电协同发展和区域均衡布局。面对风电竞价配置、光伏开发放缓、土地环保趋紧等新情况,公司进一步加强对行业政策和市场形势的分析预判,聚焦中东南部和光伏“领跑者”基地、特高压送出通道等电力负荷集中区域,资源获取渠道广泛。近年公司风电装机规模复合增长率较高,风电前期工作取得快速突破,海上风电引领趋势显现。公司坚定不移实施“海上风电引领者”战略,全力推进广东、福建、江苏、辽宁、山东等地前期工作,不断巩固海上风电集中连片规模化开发优势。截至2020年9月30日,公司海上风电项目已投运规模104万千瓦、在建规模293万千瓦、核准待建规模530万千瓦,规模位居行业前列。到2020年底,公司预计投产和在建海上风电装机达到427万千瓦,该等项目全部投产后预计实现年发电量121亿千瓦时。当前,公司海上风电已形成“投产一批、建设一批、核准一批、储备一批”的滚动开发格局。
+要点六:资金优势明显 公司作为优质央企,资金实力强,融资成本低,融资渠道通畅。公司资产负债率相对同行业处于较低水平,授信额度较高,后续融资空间较大,能够充分满足项目开发的资金需求。
+要点七:区域优势 公司业务分布范围广,布局合理,集中连片规模化开发海上风电格局基本形成。公司紧紧围绕“风光三峡”和“海上风电引领者”战略,截至2020年9月30日,三峡新能源陆上风电项目遍及内蒙古、新疆、云南等22个省区;海上风电项目全力推进广东、福建、江苏、辽宁、山东等地前期工作,不断巩固海上风电集中连片规模化开发优势;光伏项目遍及甘肃、青海、河北等18个省区。
+要点八:自愿锁定股份 自公司股票上市之日起三十六个月内,不转让或者委托他人管理本次发行前本人直接及间接持有的公司股份,也不由公司回购本人直接及间接持有的该部分股份。
+要点九:股利分配 在满足现金分红条件的基础上,结合公司持续经营和长期发展,公司每年以现金方式分配的利润不少于当年实现的可分配利润的10%,且最近3年以现金方式累计分配的利润不少于最近3年实现的年均可分配利润的30%。
+要点十:稳定股价措施 公司首次公开发行股票并上市后三年内,如公司股票收盘价格连续20个交易日低于最近一期经审计的每股净资产,公司将通过控股股东增持股份、公司全体董事(独立董事除外)和高级管理人员增持公司股票以及公司回购股份等措施来稳定股价。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.18是第一天上市价格，这东西跌破了最低价应该就可以入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002821</t>
+  </si>
+  <si>
+    <t>凯莱英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个票牛逼啊，一直在涨一年一年往上涨，最低价是2016年发行价36.64，等以后跌了可以试试入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>532.49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗服务 天津板块 宁组合 标准普尔 富时罗素 深证100R MSCI中国 深股通 融资融券 深成500 股权激励 基金重仓 HS300_ AH股 CRO 青蒿素 病毒防治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发、生产、销售高新医药原料及中间体和生物技术产品,制剂研发,相关设备、配件的进出口、批发零售业务(不设店铺)以及上述相关技术咨询服务和技术转让。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司是国内严格按照cGMP标准同时服务于创新药和重磅药物的医药外包领先企业,主要提供从临床Ⅰ期、Ⅱ期、Ⅲ期至上市后不同阶段的一站式服务。公司为临床新药提供工艺研发和制备,通过长期积累,服务的新药中包括了已上市或即将上市的治疗丙肝、囊性纤维化、前列腺癌、骨髓瘤、软组织肉瘤、白血病、部分罕见病新药及头孢联用新药。
+要点四:医药外包服务行业 公司隶属于医药行业中的医药外包服务行业,目前以提供医药CMO服务为主。医药外包指制药企业将新药发现及临床前研究、临床阶段新药开发和已上市药物的商业化生产运营等各环节进行专业化外包。
+要点五:技术研发优势 作为国家认定企业技术中心,公司创立伊始即以技术领先作为发展战略,直接切入全球创新药的工艺研发和制备领域,致力于抢占国际制药技术的制高点,确保公司在医药外包行业的发展和转移浪潮中抢占市场先机;近年来公司通过研发具有自主知识产权的新技术,实现低能耗、低排放、高效率的绿色经营模式和可持续健康发展。
+要点六:客户资源及项目储备优势 公司通过技术营销建立了覆盖全球主流制药企业的市场营销网络,并有能力同时承接诸多重磅药物订单。报告期内公司为世界排名前15的跨国制药企业中的11家客户12提供服务,公司是其中2家客户的长期战略合作伙伴、还是另外5家客户的首选供应商之一。
+要点七:精英团队优势 公司被国家人事部认定为博士后科研工作站,成功打造了一支精英研发团队,为我国培养了一大批勇于追求创新、寻求科研和实践完美结合的杰出本土人才。截至2016年6月30日,公司拥有各类研发、QA人员653人,占员工总人数的37.94%。其中具有跨国制药企业10年以上工作经验的权威专家和管理人才18名,为公司的技术营销战略提供人才保障、为公司的长远发展奠定技术基础。
+要点八:与复星医药产业签署战略合作框架协议 2018年11月15日公告,公司与上海复星医药产业发展有限公司(系上海复星医药(集团)股份有限公司全资子公司,以下简称复星医药产业)双方本着平等、互惠、共赢的原则,拟建立长期、战略性的合作关系,双方于2018年11月15日签署战略合作框架协议。公司表示,此次公司与复星医药产业签署战略框架合作协议,标志着双方将开始着手利用各自优势,探索通过多种合作方式,致力于开展长期深入战略合作,在创新药的工艺/处方的开发和优化、生物等效性研究、注册申报、仿制药质量和疗效一致性评价研究、药品政策法规咨询等方面获得对方的全力配合与支持。同时,双方先期就API、制剂和临床等模块相关业务开展探索性合作,公司将充分利用所掌握的工艺技术人员和设备资源为复星医药产业所需进行API、制剂、临床等模块相关业务,复星医药产业将就API、制剂和临床等业务的需求优先选择公司提供相应的服务,公司可借助此次合作机会,获得对方优先推荐合作对象的机会,有利于拓展公司的潜在客户资源渠道,促进公司业绩的持续增长。
+要点九:控股子公司通过美国FDA认证 2018年9月11日公告,公司控股子公司凯莱英生命科学近日收到美国FDA出具的现场检查报告,该检查报告确认,凯莱英生命科学以零缺陷顺利通过了美国FDA的现场质量检查。根据该检查报告,凯莱英生命科学符合美国药品cGMP质量标准,通过了美国FDA认证。
+要点十:公司通过美国FDA认证 2019年3月20日公告,公司近日收到美国FDA出具的现场检查报告,该检查报告确认,公司HPAPI生产设施以零缺陷顺利通过美国FDA的现场质量检查。根据该检查报告,公司符合美国药品cGMP质量标准,通过了美国FDA认证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600036</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低是2005年7月5.86，后期不知道是改革了还是啥一下子涨上去了，上一个大高峰是46左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58.92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行 广东板块 茅指数 标准普尔 富时罗素 MSCI中国 沪股通 上证180_ 上证50_ 央视50_ 融资融券 HS300_ AH股 国企改革 互联金融 深圳特区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收公众存款;发放短期、中期和长期贷款;办理结算;办理票据贴现;发行金融债券;代理发行、代理兑付、承销政府债券;买卖政府债券;同业拆借;提供信用证服务及担保;代理收付款项及代理保险业务;提供保管箱服务。外汇存款;外汇贷款;外汇汇款;外币兑换;国际结算;结汇、售汇;同业外汇拆借;外汇票据的承兑和贴现;外汇借款;外汇担保;买卖和代理买卖股票以外的外币有价证券;发行和代理发行股票以外的外币有价证券;自营和代客外汇买卖;资信调查、咨询、见证业务;离岸金融业务。经中国银监会批准的其他业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批发、零售银行产品和服务 本公司向客户提供各种批发及零售银行产品和服务,亦自营及代客进行资金业务。本公司推出的许多创新产品和服务广为中国消费者接受,例如:“一卡通”多功能借记卡、“一网通”综合网上银行服务,信用卡、“金葵花理财”和私人银行服务,招商银行App和掌上生活App服务,招商银行企业App服务,全球现金管理、贸易金融等交易银行与离岸业务服务,以及资产管理、资产托管和投资银行服务等。
+要点四:银行业 当前供给侧改革加快推进,结构调整成为未来一段时间的大趋势和大逻辑,银行业将面临严峻挑战和考验。资产需求减少、利差收窄、不良资产上升、新金融分流等不利冲击将持续存在。差异化制定产能过剩行业、房地产、地方政府融资平台业务及贸易融资等重点领域风险防控策略,优化信贷资源配置,实现风险、收益、成本综合平衡,是银行业面临的主要挑战。
+要点五:业务领先优势 1)领先并具独特竞争优势的零售金融业务。零售金融已形成由客户、产品、渠道、品牌等构成的体系化优势,并正在不断巩固和扩大。2)具有自身特色和专业化经营水平的公司金融业务。交易银行竞争优势明显,投行业务竞争力不断提升。3)同业金融以大资产管理和金融市场交易双轮驱动创造新的盈利增长点,票据业务、资管业务、托管业务、金融市场等均呈良好发展态势。
+要点六:风控体系等完备 1)综合化经营体系已基本建立,跨领域产品创新与业务联动积极推进,战略协同和财务协同效应已初步显现。2)较好建立了全面、现代、科学的风险管理体系、资本管理体系、营运管理体系、信息管理体系、绩效考核体系、人力资源管理体系以及相关的能力,有效保证了业务经营的长期稳健发展和良好竞争力。3)组织管理体制不断改进,业务流程不断优化,管理和运营效率不断提升:以“专业化、扁平化、集约化”为方向,分行体制改革取得初步成效,总分行架构有效对接。
+要点七:招银租赁 银租赁是国务院批准设立的首批五家银行系金融租赁公司之一,于2008年3月经中国银行业监督管理委员会批准成立,由本公司全资设立,注册资本60亿元,员工257人。自成立以来,招银租赁将“国际化、专业化、差异化”作为公司经营发展目标,紧密围绕实体经济,积极研发各类租赁产品,推出了能源、装备制造、航空、航运、节能环保、健康产业、公用事业与文化产业、租赁同业八大行业金融解决方案,满足承租人在购置设备、促进销售、盘活资产、均衡税负、改善财务结构等方面的个性化需求,提供融资融物、资产管理、经济咨询等全方位金融租赁服务。2017年末,公司租赁资产余额突破1,500亿元,站稳金融租赁行业第一梯队。截至2017年12月31日,招银租赁总资产1,554.15亿元,净资产155.82亿元;2017年实现净利润19.59亿元。
+要点八:招商信诺 招商信诺于2003年8月在深圳成立,是中国加入WTO后成立的首家中外合资寿险公司,注册资本28亿元,员工3,098人。截至报告期末,本公司持有招商信诺50%的股权。招商信诺的主要业务是人寿保险、健康保险和意外伤害保险等保险业务及上述业务的再保险业务。截至2017年12月31日,招商信诺总资产359.42亿元,净资产47.90亿元;2017年实现保险业务收入128.14亿元,实现净利润6.66亿元。
+要点九:公司金融业务 公司金融核心客户经营渐趋深入,基础客群拓展效率大幅提高,2016年全年新开对公客户33.03万户,现金管理客户数新增27.83万户,供应链有效核心客户数和有效上下游客户数分别新增780户和3,535户,交易银行现金管理客户数、网上企业银行客户数三年复合增长率超过50%。千鹰展翼入库客户较年初增长17.14%;报告期内,“千鹰展翼”客群共有42家公司在境内成功IPO并在本公司开立IPO募集资金专户,募集资金托管金额达81.96亿元。小企业客户数较年初增长25.52%。跨行国内信用证业务实现增长,2016年议付跨行国内信用证业务量同比增长26.20%。交易银行赢得市场高度认可,荣获《财资》“中国最佳交易银行”等诸多奖项。
+要点十:零售金融业务 零售税前利润达269.11 亿元,占本公司业务条线税前利润的比重为57.17%;零售营业收入为547.33 亿元,占本公司营业收入的51.46%;成本收入比30.30%;零售非利息净收入同比增长1.12%,在零售营业收入中占比36.45%。零售客户基础不断夯实,私人银行、钻石、金葵花、金卡、有效大众客户、信用卡流通户均进一步增长,特别是价值贡献最大的“双金客户”新增58.52 万户,私人银行业务稳步发展,户均管理客户总资产达2,803.16 万元。零售管理客户总资产(AUM)余额较上年末增加3,678 亿元。零售活期存款增加871.32 亿元,占本公司零售存款总额的78.50%。零售贷款总额占本公司贷款总额的51.43%。
+要点十一:同业金融业务 同业金融聚焦客户经营,同业活期存款规模及占比均位列全国性中小型银行首位,活期占比高达77.94%。跨境人民币同业往来业务继续保持领跑优势,期末境内外同业在本公司开立的跨境人民币同业往来账户数位列全国性中小型银行首位,人民币跨境支付系统(CIPS)间接参与行客户数位列全国性中小型银行第一、行业第二。票据转贴、再贴现交易量继续保持行业领先地位。
+要点十二:永隆银行 永隆银行成立于1933年,截至2017年12月31日之注册资本为港币11.61亿元,是本公司在香港的全资附属公司。永隆银行及其附属公司的主要经营范围包括存款、贷款、投资理财、信用卡、网上银行、押汇、租购贷款、汇兑、证券经纪、资产管理、保险业务、强制性公积金、物业管理、信托、受托代管及投资银行业务等。目前,永隆银行在香港设有分行共34家,在中国境内共设4家分支行,在澳门设有1家分行,另在美国洛杉矶、旧金山及开曼群岛各设有海外分行1家。截至2017年12月31日,永隆集团雇员总人数为1,836人。截至2017年12月31日,永隆集团总资产为港币2,987.67亿元,较上年末增长11.62%;股东应占权益为港币331.33亿元,较上年末增长13.11%;客户总贷款(包括商业票据)为港币1,562.48亿元,较上年末增长8.32%;客户存款为港币2,109.64亿元,较上年末增长14.50%;贷存比率为69.69%,较上年末下降3.32个百分点。于2017年12月31日,永隆集团普通股权一级资本比率为12.25%,一级资本比率为14.44%,总资本比率为18.23%,第四季平均流动性覆盖比率为150.24%,均高于监管要求。
+要点十三:招商基金 招商基金成立于2002年12月27日,注册资本13.1亿元,员工355人(不含子公司)。截至报告期末,本公司持有招商基金55%的股权。招商基金的经营范围包括发起设立基金、基金管理业务和中国证监会批准的其他业务。截至2017年12月31日,招商基金总资产66.48亿元,净资产39.76亿元,资管业务总规模(含招商基金及其子公司招商财富资产管理有限公司、招商资产管理(香港)有限公司)9,951.65亿元;2017年实现营业收入27.47亿元,实现净利润8.03亿元。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3471,7 +3858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3492,15 +3879,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3803,11 +4193,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3827,2550 +4217,2932 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>28.62</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="9" t="s">
         <v>138</v>
       </c>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="88.5" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="79.5" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="71.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>230.68</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="130.5" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="94.5" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="56.25" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="150.75" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="175.5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="127.5" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="93.75" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="90" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="L23" s="9"/>
+      <c r="M23" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="87.75" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="L25" s="9"/>
+      <c r="M25" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="132" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="L27" s="9"/>
+      <c r="M27" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="131.25" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="9" t="s">
         <v>376</v>
       </c>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" ht="138" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="9" t="s">
         <v>389</v>
       </c>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" ht="102.75" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="9" t="s">
         <v>389</v>
       </c>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" ht="183" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="9" t="s">
         <v>389</v>
       </c>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13" ht="128.25" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="10" t="s">
         <v>415</v>
       </c>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13" ht="105" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="10" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="102" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="9" t="s">
         <v>445</v>
       </c>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" ht="144.75" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="9" t="s">
         <v>433</v>
       </c>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="102.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="9" t="s">
         <v>462</v>
       </c>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="95.25" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="9" t="s">
         <v>478</v>
       </c>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13" ht="111" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="L38" s="9"/>
+      <c r="M38" s="9" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="91.5" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="9" t="s">
         <v>497</v>
       </c>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13" ht="96" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="9" t="s">
         <v>506</v>
       </c>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="9" t="s">
         <v>513</v>
       </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="9" t="s">
         <v>514</v>
       </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="9" t="s">
         <v>526</v>
       </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13" ht="56.25" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="10" t="s">
         <v>537</v>
       </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:13" ht="54" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="9" t="s">
         <v>546</v>
       </c>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9" t="s">
         <v>556</v>
       </c>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:13" ht="75" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="9" t="s">
         <v>568</v>
       </c>
+      <c r="M47" s="9"/>
     </row>
     <row r="48" spans="1:13" ht="77.25" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="9" t="s">
         <v>568</v>
       </c>
+      <c r="M48" s="9"/>
     </row>
     <row r="49" spans="1:13" ht="88.5" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="9" t="s">
         <v>568</v>
       </c>
+      <c r="M49" s="9"/>
     </row>
     <row r="50" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="9" t="s">
         <v>568</v>
       </c>
+      <c r="M50" s="9"/>
     </row>
     <row r="51" spans="1:13" ht="90.75" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="9" t="s">
         <v>606</v>
       </c>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" spans="1:13" ht="97.5" customHeight="1">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="10" t="s">
         <v>611</v>
       </c>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
     </row>
     <row r="53" spans="1:13" ht="68.25" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="J53" s="9"/>
+      <c r="K53" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="L53" s="9"/>
+      <c r="M53" s="9" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="98.25" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L54" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="10" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="96" customHeight="1">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="K55" s="13" t="s">
+      <c r="K55" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="L55" s="13" t="s">
+      <c r="L55" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="M55" s="11"/>
+      <c r="M55" s="9"/>
     </row>
     <row r="56" spans="1:13" ht="78.75" customHeight="1">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="I56" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="K56" s="13" t="s">
+      <c r="K56" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="M56" s="11"/>
+      <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:13" ht="73.5" customHeight="1">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="K57" s="13" t="s">
+      <c r="K57" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="M57" s="11"/>
+      <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:13" ht="72.75" customHeight="1">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="L58" s="13" t="s">
+      <c r="L58" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="M58" s="11"/>
+      <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:13" ht="71.25" customHeight="1">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="K59" s="13" t="s">
+      <c r="K59" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="M59" s="11"/>
+      <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:13" ht="80.25" customHeight="1">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K60" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="L60" s="13" t="s">
+      <c r="L60" s="10" t="s">
         <v>754</v>
       </c>
+      <c r="M60" s="9"/>
     </row>
     <row r="61" spans="1:13" ht="51" customHeight="1">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="L61" s="10" t="s">
         <v>755</v>
       </c>
+      <c r="M61" s="9"/>
     </row>
     <row r="62" spans="1:13" ht="40.5">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="L62" s="10" t="s">
         <v>756</v>
       </c>
+      <c r="M62" s="9"/>
     </row>
     <row r="63" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="L63" s="10" t="s">
         <v>757</v>
       </c>
+      <c r="M63" s="9"/>
     </row>
     <row r="64" spans="1:13" ht="52.5" customHeight="1">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="L64" s="10" t="s">
         <v>758</v>
       </c>
+      <c r="M64" s="9"/>
     </row>
     <row r="65" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="L65" s="4" t="s">
+      <c r="L65" s="10" t="s">
         <v>767</v>
       </c>
+      <c r="M65" s="9"/>
     </row>
     <row r="66" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="L66" s="10" t="s">
         <v>789</v>
       </c>
+      <c r="M66" s="9"/>
     </row>
     <row r="67" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="L67" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="9" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="63" customHeight="1">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J68" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="L68" s="4" t="s">
+      <c r="L68" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="M68" s="9"/>
+    </row>
+    <row r="69" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A69" s="9" t="s">
         <v>803</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="M69" s="9"/>
+    </row>
+    <row r="70" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A70" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="B71" t="s">
+        <v>828</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="36" customHeight="1">
+      <c r="A72" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="41.25" customHeight="1">
+      <c r="A73" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="42.75" customHeight="1">
+      <c r="A74" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="32.25" customHeight="1">
+      <c r="A75" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="B75" t="s">
+        <v>870</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="42" customHeight="1">
+      <c r="A76" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>882</v>
       </c>
     </row>
   </sheetData>

--- a/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
+++ b/小程序/006.JiekouTest/Stock_Prices/股票数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="942">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3780,6 +3780,251 @@
 要点十一:同业金融业务 同业金融聚焦客户经营,同业活期存款规模及占比均位列全国性中小型银行首位,活期占比高达77.94%。跨境人民币同业往来业务继续保持领跑优势,期末境内外同业在本公司开立的跨境人民币同业往来账户数位列全国性中小型银行首位,人民币跨境支付系统(CIPS)间接参与行客户数位列全国性中小型银行第一、行业第二。票据转贴、再贴现交易量继续保持行业领先地位。
 要点十二:永隆银行 永隆银行成立于1933年,截至2017年12月31日之注册资本为港币11.61亿元,是本公司在香港的全资附属公司。永隆银行及其附属公司的主要经营范围包括存款、贷款、投资理财、信用卡、网上银行、押汇、租购贷款、汇兑、证券经纪、资产管理、保险业务、强制性公积金、物业管理、信托、受托代管及投资银行业务等。目前,永隆银行在香港设有分行共34家,在中国境内共设4家分支行,在澳门设有1家分行,另在美国洛杉矶、旧金山及开曼群岛各设有海外分行1家。截至2017年12月31日,永隆集团雇员总人数为1,836人。截至2017年12月31日,永隆集团总资产为港币2,987.67亿元,较上年末增长11.62%;股东应占权益为港币331.33亿元,较上年末增长13.11%;客户总贷款(包括商业票据)为港币1,562.48亿元,较上年末增长8.32%;客户存款为港币2,109.64亿元,较上年末增长14.50%;贷存比率为69.69%,较上年末下降3.32个百分点。于2017年12月31日,永隆集团普通股权一级资本比率为12.25%,一级资本比率为14.44%,总资本比率为18.23%,第四季平均流动性覆盖比率为150.24%,均高于监管要求。
 要点十三:招商基金 招商基金成立于2002年12月27日,注册资本13.1亿元,员工355人(不含子公司)。截至报告期末,本公司持有招商基金55%的股权。招商基金的经营范围包括发起设立基金、基金管理业务和中国证监会批准的其他业务。截至2017年12月31日,招商基金总资产66.48亿元,净资产39.76亿元,资管业务总规模(含招商基金及其子公司招商财富资产管理有限公司、招商资产管理(香港)有限公司)9,951.65亿元;2017年实现营业收入27.47亿元,实现净利润8.03亿元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600588</t>
+  </si>
+  <si>
+    <t>用友网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-3-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发 北京板块 标准普尔 富时罗素 MSCI中国 证金持股 沪股通 上证180_ 上证50_ 融资融券 股权激励 HS300_ 北交所概念 数据中心 远程办公 华为概念 互联医疗 工业互联 区块链 国产软件 阿里概念 互联金融 大数据 参股保险 云计算 移动支付 参股银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营范围 零售图书;第一类增值电信业务中的因特网数据中心业务;第二类增值电信业务中的呼叫中心业务、因特网接入服务业务、信息服务业务(不含固定网电话信息服务和互联网信息服务,增值电信业务经营许可证有效期至2020年07月07日);互联网信息服务(不含新闻、出版、教育、医疗保健、药品和医疗器械,含电子公告服务,电信与信息服务业务许可证有效期至2020年04月16日);电子计算机软件、硬件及外部设备的技术开发、技术咨询、技术转让、技术服务、技术培训;销售打印纸和计算机耗材;物业管理;企业管理咨询;数据库服务;销售电子计算机软硬件及外部设备;设计、制作、代理、发布广告;自营和代理各类商品和技术的进出口,但国家限定公司经营或禁止进出口的商品和技术除外;出租办公用房(企业依法自主选择经营项目,开展经营活动;第一类增值电信业务中的因特网数据中心业务;第二类增值电信业务中的呼叫中心业务、因特网接入服务业务和信息服务业务(不含固定网电话信息服务和互联网信息服务)、互联网信息服务(不含新闻、出版、教育、医疗保健、药品和医疗器械,含电子公告服务)以及其他依法须经批准的项目,经相关部门批准后依批准的内容开展经营活动;不得从事本市产业政策禁止和限制类项目的经营活动)(公司经营范围以工商行政管理机关核准的经营范围为准)。
+要点三:软件及服务业 公司在3.0新时期,形成了以用友云为核心,云服务、软件、金融服务融合发展的新战略布局,服务企业的业务、金融和IT三位一体的创新发展,用友云定位社会化商业应用基础设施和企业服务产业共享平台,服务企业数字化转型,并促进企业服务产业的平台化发展。
+要点四:软件行业 联合国贸发会发布的《2019年数字经济报告:价值创造和捕获,对发展中国家的影响》报告指出:“数字革命以前所未有的速度和规模改变了我们的生活和社会,带来巨大的机遇和严峻的挑战。数字化正在以不同的方式改造价值链,并为增值和更广泛的结构变革开辟新的渠道。数据已经成为创造和捕获价值的新经济资源,是所有迅速出现的数字技术的核心”。中国今天的企业处在一个数智化、国产化、全球化三浪叠加的巨大历史变革与机遇中。在数智化浪潮中,企业通过数字化、智能化等新技术应用实现转型升级;在全球化浪潮中,企业加速向全球市场拓展;在国产化浪潮中,中国本土企业自身产品、技术水平和服务质量不断提升,越来越多的消费者和企业更愿意选择本土企业产品和服务。企业数智化的浪潮已经来临,企业将充分运用新一代数字与智能技术,实现企业转型升级,实现企业更强竞争优势、更高经营绩效和更可持续发展。在数字经济新时代,新一代数字与智能技术影响和改变着商业,并将引领中国企业商业模式、管理方式及商业技术创新发展,走在世界前列。
+要点五:产品优势 用友iuap云平台是用友自主研发的新一代数字化、智能化、全球化、社会化、安全可信的商业创新服务平台,采用移动互联网、云计算、大数据、人工智能、物联网、区块链等新一代技术,具有云原生、微服务、DevOps、低/无代码开发、社会化连接集成、混合云、数据智能、VPA/RPA等丰富领域及行业应用融合的关键技术优势,形成以技术中台、业务中台、数据中台为核心的中台架构,支撑起公司领域云、行业云及平台生态的快速发展。公司在用友1.0战略发展阶段的核心产品是财务软件,在2.0战略发展阶段的核心产品是以ERP为代表的管理软件,在新的3.0战略发展阶段,形成了以用友企业云服务为核心业务,云服务、软件、金融服务融合发展的新战略布局,服务层级从部门级到企业级走向社会级。公司通过构建和运营全球领先的企业云服务平台,积极发展营销、制造、采购、金融、财务、人力、协同等SaaS服务,大力拓展以创新业务服务为核心的BaaS服务和以数据服务为核心的DaaS服务,支撑与运营客户的商业创新,帮助企业客户实现数智化转型。用友云产品技术持续保持国内领先水平。公司以用友商业创新服务平台为核心,聚合IaaS战略合作伙伴、ISV伙伴、创新开发者、渠道分销、咨询实施、业务服务、数据服务、金融服务等数字化产品与服务提供商,构建强大的“共生、共建、共荣”的用友云生态体系。公司从产品融合到营销推广、从销售协同到实施运营服务等,与各类商业合作伙伴形成全面深入的合作模式。用友云市场聚合所有生态伙伴的应用与服务产品,向企业客户提供从购买、部署到运营、培训的一站式服务。
+要点六:研发优势 公司自创立开始就注重构建自主研发能力,保障研发投入,形成研发体系,经过多年的持续发展,现在已经形成在企业和公共组织数智化领域从平台、到领域、重点行业和生态的产品与技术研发体系。除北京总部研发中心外,在、先后在南京、重庆、上海、深圳及海外先后建立了研发组织。同时公司持续加大研发投入,引进高端技术人才,在用友3.0战略阶段,构建实现全球领先的企业云服务平台的专业研发人才队伍和体系。公司拥有国家发改委批复的企业智能云开发与应用国家地方联合工程研究中心、企业云平台关键技术北京市工程实验室,是中国电子工业标准化技术协会、国家信息技术服务标准工作组、5G应用产业方阵等七家国产化核心组织成员之一。公司用友云平台、精智工业互联网平台等荣获了六项国家级权威产品资质,公司获得了二十余项自主可信、互信及产品兼容认证,公司通过了全球软件领域最高级别CMMI5级认证评估、ISO27001信息安全管理体系认证、ISO20000IT服务管理体系认证,具备全球顶级的软件成熟度及软件项目管理能力。
+要点七:品牌及市场优势 公司品牌和产品在行业内受到广泛认可,在多个权威评选中斩获佳绩。据赛迪顾问数据显示,公司荣获2019年度中国企业SaaS市场占有率第一、2019年度中国企业云服务市场占有率第一、2019年度中国企业级应用软件市场占有率第一、2019年度中国企业财务云市场占有率第一、2019年度中国企业工业云市场占有率第一等。公司在工业互联网领域优势明显,影响力不断提升,据国际数据机构IDC《中国工业云解决方案市场追踪(2019H1)》报告显示,用友工业云解决方案市场占有率第一。用友精智工业互联网平台被工业和信息化部授予“2019年十大跨行业跨领域工业互联网平台”,用友智能工厂解决方案被中国信息协会评为“2019中国工业数字化优秀解决方案”,用友云IoT解决方案被全球工业互联网大会评为“工业互联网优秀解决方案”。公司与华为、中国工商银行、中国联通等龙头企业形成了深度的战略合作,通过生态合力,进一步强化品牌实力,为客户打造更具创新价值的产品和服务。在2019华为全联接大会上,公司成为唯一一家荣摘“华为云生态合作最佳实践伙伴”、“鲲鹏生态合作最佳实践伙伴”双项殊荣的华为云战略级合作伙伴。同时,公司联合行业头部企业及第三方权威机构成立“企业数字化服务领导厂商联盟”,打造信息自主创新生态。
+要点八:移动转售业务 2014年8月,公司子公司用友移动通信技术公司获得移动通信转售业务运营试点资格,与中国电信合作,在北京、天津、上海、重庆4个直辖市等21个城市范围内开展移动通信转售业务试点,截止至2015年12月31日。期间,用友移动通信技术公司将积极整合用友集团旗下的用友NC、用友U8+、畅捷通T+及用友行业软件等上百款移动应用产品,依托集团企业客户资源和营销服务网络,并积极引入第三方合作,打造企业移动应用服务与运营平台,为企业提供全方位的移动应用体验与服务。
+要点九:汽车行业服务 用友汽车主要从事汽车行业应用软件和解决方案的设计、研发及实施,汽车行业业务管理咨询服务,配套计算机软硬件的系统集成及汽车行业IT外包等业务,注册资本3600万元。2013年年报披露,用友汽车公司加强对产品研发投入,开始新一代DMS(汽车经销商管理)以及新一代经销商集团综合业务管理系统产品、商业分析与智能营销服务产品、SBOM&amp;EPC(售后物料清单和电子配件目录)产品的研发,全面启动面向汽车行业的云服务产品研发工作。
+要点十:行业龙头 公司是亚太本土第一大企业管理软件供应商,中国最大的管理软件,ERP软件,财务软件,客户管理软件,财政软件,金融企业管理软件,资产管理软件供应商,也是中国最大的独立软件供应商。根据赛迪顾问(CCID)发布的“2009-2010 年中国管理软件市场研究年度总报告”,公司在中国ERP软件领域的市场占有率为27.0%,连续八年摘得ERP 市场第一桂冠,公司在中国财务管理软件市场的市场占有率为27.5%,连续十九年保持中国市场占有率最高,公司在中国管理软件市场的市场占有率为22.2%,连续八年成为中国市场占有率最高的管理软件厂商。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最低2012年7.93
+易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-1-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>259.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电行业 浙江板块 富时罗素 沪股通 上证180_ 融资融券 预盈预增 股权激励 HS300_ 华为概念 超级品牌 无线充电 智能家居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用电力器具、配电开关控制设备、电线、电缆、五金工具、电工器材、电器配件、接插件、塑料制品、五金配件、电光源、照明灯具、灯用电器附件及其他照明器具制造、加工、研究、开发;市场调研;项目投资(未经金融等监管部门批准不得从事吸收存款、融资担保、代客理财、向社会公众集(融)资等金融业务);自营和代理货物和技术的进出口,但国家限定经营或禁止进出口的货物和技术除外。(依法须经批准的项目,经相关部门批准后方可开展经营活动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用电工产品 公司专注于以转换器、墙壁开关插座为核心的民用电工产品的研发、生产和销售,主要包括转换器、墙壁开关插座、LED照明、数码配件等电源连接和用电延伸性产品,广泛应用于家庭、办公等用电场合。
+要点四:电气机械和器材制造业 随着我国居民可支配收入和消费水平的不断增长,推动了家用电器、消费电子、房地产、装修等行业的持续快速增长,从而带动了转换器、墙壁开关插座、LED照明和数码配件产品市场需求的持续提升。当前,我国已成为世界转换器产品的主要生产基地,墙壁开关插座在我国市场上形成了民族品牌、国际知名品牌并存的局面,在照明领域我国已成为世界工厂,产品远销220个国家和地区。总体来看,转换器、墙壁开关插座、LED照明已进入产业发展的成熟期,智能化成为新的发展趋势。与此不同的是,数码配件是近年来以智能手机为代表的消费电子产业快速增长带来的巨大需求,国内数码配件行业仍处于前期导入和快速成长阶段,产品行业标准制定较晚或无对应标准,竞争厂商众多,尚未出现具有明显规模和品牌优势的企业,市场集中度相对较低。
+要点五:研发创新优势 公司拥有一支近百人的产品策划与工业设计团队,专职负责市场调研、客户访谈、需求洞察、产品概念创意、工业设计工作,构建了突出的产品策划与工业设计能力。公司创立之初即创新研发出插座专用按压式开关,凭借不易损坏的高可靠性取代了业内原先普遍使用的翘板式开关,至今仍为行业沿用。
+要点六:质量管理和控制 为确保质量管理体系的高效运行,公司配备了700余名从事质量管理、实验测试、检验分析与品管的专职人员,配置了2,000余台实验及产线自动化检测设备,建立了7个行业内高标准的检测实验室,相关实验室获得CNAS国家实验室认证、美国ULWTDP实验室认证以及CCC、VDE、UL、NF、CE等相关产品认证。
+要点七:先进制造技术能力和自动化生产能力 公司设有专门的模具工厂,采用高精度公差等级、先进的自动浇注技术、3D打印技术等模具技术,为公司产品配套设计、开发、制造各类高精度模具,同时采用机械手、免后加工模具技术等,实现注塑生产自动化、模塑一体化,大幅提升了产品品质、生产效率以及产品创新能力。
+要点八:自愿锁定股份 自公司股票上市之日起三十六个月内,不转让或者委托他人管理本次发行前本人直接及间接持有的公司股份,也不由公司回购本人直接及间接持有的该部分股份。
+要点九:股利分配 在满足现金分红条件的基础上,结合公司持续经营和长期发展,公司每年以现金方式分配的利润不少于当年实现的可分配利润的10%,且最近3年以现金方式累计分配的利润不少于最近3年实现的年均可分配利润的30%。
+要点十:稳定股价措施 公司首次公开发行股票并上市后三年内,如公司股票收盘价格连续20个交易日低于最近一期经审计的每股净资产,公司将通过控股股东增持股份、公司全体董事(独立董事除外)和高级管理人员增持公司股票以及公司回购股份等措施来稳定股价。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联科科技</t>
+  </si>
+  <si>
+    <t>2021-6-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶制品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶制品 山东板块 预盈预增 次新股 二氧化硅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉淀水合二氧化硅,工业硅酸钠,饲料添加剂:二氧化硅生产销售;橡胶材料销售(不含危险品);热力生产供应;电力销售;二氧化硅功能材料研发;货物进出口。(依法须经批准的项目,经相关部门批准后方可开展经营活动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二氧化硅和炭黑的研发、生产与销售 公司是一家专业从事二氧化硅和炭黑的研发、生产与销售的高新技术企业,其中二氧化硅产品主要包括LK、LKHD及LKSIL系列橡胶工业用二氧化硅和非橡胶工业用二氧化硅;炭黑产品主要包括N100、N200、N300、N500、N600、N700系列及LK系列橡胶用炭黑和特种炭黑。
+要点四:化学原料和化学制品制造业 根据中国证监会2012年10月26日发布的《上市公司行业分类指引(2012年修订)》,公司所处行业为“化学原料和化学制品制造业”(代码:C26);根据《国民经济行业分类(GB/T4754-2017)》,公司所属行业为“专用化学产品制造”中“化学试剂和助剂制造”(代码:C2661)。
+要点五:技术优势 公司作为高新技术企业,自成立开始就将技术创新作为公司战略支撑之一,每年在科技创新、技术研发上投入大量的资金。报告期内,公司共投入的各项研发费用11,630.13万元,占公司营业收入的比例均在3%以上。经过多年的积累,公司已具有健全的研发组织机构,设立新材料研究院,下设设备技术、工艺技术、应用开发、产品试制等六个部门。公司在饲料添加剂用二氧化硅、高分散二氧化硅和特种炭黑等方面取得了较为丰硕的研发成果、积累了较强的技术和研发能力,包括:(1)公司已取得98项专利,其中6项发明专利、92项实用新型专利;正在申请11项专利,其中2项PCT国际发明专利,9项国内发明专利;相关专利覆盖了二氧化硅、炭黑的专业生产设备、生产制造技术与工艺;公司已通过了GB/T29490-2013知识产权管理体系认证;(2)参与起草了多项二氧化硅和炭黑国家标准;建有“省级企业技术中心”、“山东省院士工作站”、“潍坊市无机硅材料工程实验室”、“潍坊市纳米二氧化硅功能材料工程技术研究中心”,并与上海交通大学合作设立“导电纳米碳材料联合研发中心”;(3)公司已通过ISO9001、ISO14001、OHSAS18001等质量管理体系认证;公司二氧化硅产品已通过欧盟FAMI-QS、欧盟REACH、韩国CIRS预注册和汽车IATF16949认证;公司炭黑产品已通过欧盟REACH和汽车IATF16949认证,并取得橡胶产品质量授信证书。
+要点六:优质客户资源优势 客户资源是公司业务持续增长的关键,公司现有客户包括下游主流轮胎生产企业、饲料生产企业、知名鞋业企业及橡胶制品企业。作为涉及乘客安全的轮胎原材料,下游轮胎生产企业对供应商的选择要求非常高,对供应商进行合格性认证后才会采购其产品。而下游轮胎生产企业对合格供应商的认证周期较长,通常情况下国内客户认证需要1-1.5年,国际客户认证需要2-4年。截至招股意向书签署日,公司的二氧化硅和炭黑产品已取得涵盖2019年世界知名轮胎企业中的倍耐力轮胎、优科豪马、正新橡胶、固铂轮胎、赛轮轮胎及国内主要轮胎上市公司中的三角轮胎、贵州轮胎、风神轮胎、双星轮胎、浦林成山及其他知名轮胎、鞋业企业的认证,并与上述客户形成了良好合作关系。优质稳定与结构均衡的客户群提高了公司抗风险能力,支撑了公司业务的较快增长。公司与优质轮胎企业的合作进一步提高了公司在二氧化硅、炭黑生产行业的知名度,提高了公司新客户、新产品的市场开拓能力。
+要点七:全产业链优势 公司进行了产业链整体布局,主产品涵盖了二氧化硅、炭黑及硅酸钠。公司大力发展循环经济,重视能源综合利用,利用炭黑尾气资源,为二氧化硅、硅酸钠及周围企业提供尾气、蒸汽;同时,公司按照分布式电源模式,建设了余热发电机组,满足了自身电力需求。公司利用周边厂区的煤气作为燃料,相对于燃料油、天然气降低了炭黑生产成本;以致减少尾气排放,降低环保成本,提高炭黑副产品的价值,增强了公司的盈利能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002973</t>
+  </si>
+  <si>
+    <t>侨银股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保行业 广东板块 转债标的 医废处理 垃圾分类 PPP模式 节能环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城乡市容管理;市政设施管理;城市绿化管理;城市公园管理;机械设备销售;停车场服务;打捞服务;专业保洁、清洗、消毒服务;技术服务、技术开发、技术咨询、技术交流、技术转让、技术推广;土壤污染治理与修复服务;汽车新车销售;环境保护专用设备销售;林业有害生物防治服务;人工造林;农业园艺服务;园林绿化工程施工;普通机械设备安装服务;工程管理服务;污水处理及其再生利用;再生资源回收(除生产性废旧金属);再生资源销售;防洪除涝设施管理;机械设备租赁;信息技术咨询服务;信息系统集成服务;固体废物治理;物业管理;建筑物清洁服务;城市生活垃圾经营性服务;各类工程建设活动;公路管理与养护;道路货物运输(含危险货物);道路货物运输(不含危险货物);劳务派遣服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人居环境综合提升事业 为城乡公共环境卫生管理提供整体解决方案,目前主要从事城乡环境卫生一体化管理服务,具体业务涵盖城乡环卫保洁、生活垃圾处置、市政环卫工程和其他环卫服务。
+要点四:公共设施管理业 按照证监会发布的《上市公司行业分类指引》(2012年修订),公司属于“N78公共设施管理业”。
+要点五:项目运营管理优势 多年来,公司逐渐培养锻炼出一支技术较高、业务熟练的管理队伍,拥有环卫作业管理、市政园林绿化管养、垃圾处理等方面专业人才,善于根据环卫作业环境和客户需求制定和实施标准化和差异化的作业方案。公司加强服务品质管理,在作业实施方案制定、人员技能和安全培训、环卫设备配置和管理、服务质量监督和优化等方面形成了完整的管理流程。
+要点六:品牌和规模优势 长期以来公司积极履行社会责任,不断助力扶贫攻坚,为来自全国各地军转人员、下岗人员、已达退休年龄的就业群体、生活困难群体、贫困户等就业困难群体提供了大量的就业岗位,产生良好的社会效益,这在一定程度上也提升公司的品牌形象。公司在惠州市市容环境卫生管理局开展的精准扶贫村企共建活动中荣获“爱心企业”称号。
+要点七:全产业链服务优势 公司是国内较有影响力的人居环境综合提升服务商,拥有城市生活垃圾经营性清扫、收集、运输服务许可证、道路运输经营许可证和建筑施工安全生产许可证,具备中国清洁清洗行业国家一级资质、广东省清扫、收集、运输和清洁类环卫服务一级企业资质、广州市环卫行业经营服务A级企业资质、建筑业企业资质(环保工程专业承包叁级、市政公用工程施工总承包叁级)、有害生物防制服务资质、广东省环境污染治理资质、城市生活垃圾经营性无害化处理服务资质等专业资质。
+要点八:中标芷江县2.7亿元生活垃圾清处BOT项目 2020年4月3日公告,公司近日收到关于芷江侗族自治县乡镇生活垃圾清运及无害化处理项目(第一期)的《中标通知书》,招标人为芷江侗族自治县住房和城乡建设局,项目以BOT模式实施,预计合同总金额约2.7亿元,预计投资5254.8万元,项目建设期12个月,特许经营年限30年。公告称,中标项目属于公司主营业务,将对后续市场开拓产生积极影响,并对公司未来经营业绩产生积极促进作用。
+要点九:拟投3500万元建安福畜禽无害化处理项目 2020年2月17日公告,公司当日与安福县人民政府共同签署了《安福畜禽无害化处理项目协议书》。公司拟以自筹资金投资约3500万元建设病死禽畜集中无害化处理场项目,项目建成后,将达到每年处理10万头病死禽畜的规模,对实现禽畜养殖废弃物的资源化利用,建立循环经济产业链,改善农村生活环境,促进生态农业发展具有积极带动作用。公告称,此次投资符合产业政策鼓励类产业界定的项目,有利于扩大公司产业规模、提升公司核心竞争力和行业影响力,符合公司长远发展战略及利益,是公司“城市大管家”与“环保创新技术”双轮驱动战略下的又一新举措。此次投资还对全面推进病死畜禽无害化处理,保障食品安全和生态环境安全,促进养殖业健康发展;具有积极推动作用;同时,有利于为中国真正实现乡村振兴战略的“美丽乡村”梦作贡献,具有良好的社会效益。
+要点十:拟1.4亿元投建再生资源综合利用项目 2020年2月25日公告,公司拟出资1.4亿元投资再生资源综合利用项目,并设立控股子公司侨银环保再生资源(运城)有限公司(暂名)作为项目实施主体,其中公司持股75%,山西国之梦环境科技有限公司持股25%。据介绍,该项目位于山西省运城市盐湖区城西机电化工产业园区,拟对山西及周边地区化工企业产生的杂醇,进行回收综合利用,生产甲醇、乙醇、丙醇、丁醇、 戊醇、己醇等化工产品予以销售,项目建成后,将生产规模为年处理10万吨杂醇,产品年产量为8万吨醇类产品,对实现资源化利用,大力发展循环经济,具有积极推动作用。该项目根据危废原料特点有针对性地选用适用性强的处理方法,提高资源综合利用附加值,创造经济效益,促进当地经济发展,总体符合国家相关鼓励政策和环保要求。公告称,此次投资主要目的为开拓环保产业中危废和资源再生板块,实现公司固废危废领域的战略拓展,强化公司产业链多元发展,符合公司战略发展规划。投资预计总体经济效益较好,税后投资回收期、财务内部收益率等指标均满足投资收益要求,将为公司提供新的利润增长点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-6-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低价是刚上市的价格所以不知道底在哪，哪天跌破了最低价也先观察一下别上来就买
+易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不看好，哪天跌破3元可以考虑
+最高价33.11应该以后很难突破了除非重大利好
+易方达优质精选混合(QDII)(110011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中晶科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体 浙江板块 半导体概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶体硅、电子元器件制造、销售,晶体硅及其制品、电子元器件及新型节能材料的开发、技术咨询及技术转让,电气机械设备设计及销售;货物进出口、技术进出口。(依法须经批准的项目,经相关部门批准后方可开展经营活动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体硅材料的研发、生产和销售 发行人主营业务为半导体硅材料的研发、生产和销售,主要产品为半导体硅片及半导体硅棒。发行人产品主要应用于半导体分立器件,是专业的高品质半导体硅材料制造商。
+要点四:计算机、通信和其他电子设备制造业 根据国家统计局颁布实施的《国民经济分类》国家标准(GB/T4754-2017),属于“计算机、通信和其他电子设备制造业(C39)”,具体可归类为“电子专用材料制造(C3985)”。根据中国证监会颁布的《上市公司行业分类指引(2012年修订)》,公司属于“制造业(C)—计算机、通信和其他电子设备制造业(C39)”。
+要点五:技术优势 公司是国家高新技术企业、全国半导体设备和材料标准化技术委员会成员单位,参与2014版《半导体材料标准汇编》工作,为副主编单位。同时,公司参与GB/T12962-2015《硅单晶》国家标准制修订。经过数年的发展,公司掌握了多项半导体硅制造与加工核心技术,如磁控直拉法(MCZ)拉晶技术、再投料直拉技术和金刚线多线切割技术等。尤其在重掺杂TVS(瞬态抑制管)保护类器件、电力电子高功率器件用硅片制备技术方面,公司拥有高精度重掺杂等技术。截至本招股意向书签署日,公司拥有发明专利14项,实用新型专利26项,涵盖了半导体硅材料生产和检测的各个环节,在半导体硅材料制造工艺尤其是磁场拉晶技术中拥有较强的技术优势。
+要点六:产品质量优势 公司为保证产品质量,建立了一整套完整、严格的质量控制体系,执行“6S”现场管理以及生产精益化管理,从原材料采购、产品生产、质量检测等生产经营的各个环节对产品质量进行层层把控。公司对用于生产的主要原辅材料、生产过程中的半成品以及最终的产成品均进行标识与定位,确保产品具有可追溯性,在需要时可对产成品追溯至整个生产加工流程及原辅材料批次信息。公司设立专门的品质保证部,对公司产品进行质量检测,保证出库前产品质量合格,符合客户的各项要求。公司获得了IATF16949:2016(汽车行业质量体系证书)、ISO9001:2015(质量体系证书)、ISO14001:2015(环境管理体系证书)、OHSAS18000:2007(职业健康安全管理体系)、GB/T29490-2013(企业知识产权管理体系证书)等,贯标各项管理体系,从而保障产品质量持续稳定可靠。公司凭借优良稳定的产品质量,赢得了客户的信赖,与客户建立了长期友好的合作关系。公司凭借较强的技术研发和生产制造能力,可以满足下游客户对不同产品类型的需求,及时稳定供货,并能配合客户的产品更新和产品开发。
+要点七:产业链优势 公司的主要产品同时涉及半导体硅片和硅棒,形成了一条相对完整的半导体硅材料产业链,有利于发挥硅材料产业的整合优势。一方面硅棒业务为硅片的生产提供了充足及时的原料保障,另一方面硅片的市场开拓也有助于硅棒的生产及销售推进,为硅棒业务扩大生产、获取规模优势奠定了基础。此外,通过公司内部的持续沟通、互相协调和及时反馈,硅棒业务对于硅片业务的采购需求可以快速反应,从而更合理地安排生产计划、协调产品的技术参数等需求;公司获取下游器件厂商对产品的使用信息后,通过内部研发及生产部门之间的协作与共享共同解决技术问题,从而提升公司整体的技术水平和产品质量,确保满足客户多样化需求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做半导体的！
+易方达优质精选混合(QDII)(110011)
+最低价为上市价格，应该跌不到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3858,7 +4103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3892,6 +4137,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4193,11 +4440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6880,10 +7127,10 @@
       <c r="M69" s="9"/>
     </row>
     <row r="70" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="13" t="s">
         <v>817</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -6918,10 +7165,10 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="14" t="s">
         <v>828</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -6956,10 +7203,10 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="36" customHeight="1">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="13" t="s">
         <v>839</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -6994,10 +7241,10 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="41.25" customHeight="1">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="13" t="s">
         <v>848</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -7032,10 +7279,10 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="13" t="s">
         <v>859</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -7070,10 +7317,10 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="13" t="s">
         <v>869</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="14" t="s">
         <v>870</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -7108,10 +7355,10 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="42" customHeight="1">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="13" t="s">
         <v>881</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -7143,6 +7390,193 @@
       </c>
       <c r="L76" s="2" t="s">
         <v>882</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="51.75" customHeight="1">
+      <c r="A77" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="54.75" customHeight="1">
+      <c r="A78" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="66" customHeight="1">
+      <c r="A79" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="73.5" customHeight="1">
+      <c r="A80" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="72.75" customHeight="1">
+      <c r="A81" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B81" t="s">
+        <v>933</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>941</v>
       </c>
     </row>
   </sheetData>
